--- a/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
+++ b/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
@@ -20476,7 +20476,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="E2:N2561"/>
+  <dimension ref="E4:N1997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A234" workbookViewId="0">
       <selection activeCell="N268" sqref="N268"/>
@@ -20498,58 +20498,6 @@
     <col min="16" max="16" width="12.890625"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:14">
-      <c r="E2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="5:14">
-      <c r="E3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="4" spans="5:14">
       <c r="E4" t="s" s="0">
         <v>24</v>
@@ -20654,32 +20602,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="5:14">
-      <c r="E8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="M8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
     <row r="9" spans="5:14">
       <c r="E9" t="s" s="0">
         <v>57</v>
@@ -20940,32 +20862,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="5:14">
-      <c r="E19" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="M19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="20" spans="5:14">
       <c r="E20" t="s" s="0">
         <v>116</v>
@@ -21506,32 +21402,6 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="5:14">
-      <c r="E41" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J41" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="M41" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
     <row r="42" spans="5:14">
       <c r="E42" t="s" s="0">
         <v>206</v>
@@ -42096,29 +41966,6 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="911" spans="5:14">
-      <c r="E911" t="s" s="0">
-        <v>3588</v>
-      </c>
-      <c r="F911" t="s" s="0">
-        <v>3589</v>
-      </c>
-      <c r="H911" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I911" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J911" t="s" s="0">
-        <v>3590</v>
-      </c>
-      <c r="M911" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N911" s="4" t="s">
-        <v>3584</v>
-      </c>
-    </row>
     <row r="912" spans="5:14">
       <c r="E912" t="s" s="0">
         <v>3591</v>
@@ -42829,58 +42676,6 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="943" spans="5:14">
-      <c r="E943" t="s" s="0">
-        <v>3683</v>
-      </c>
-      <c r="F943" t="s" s="0">
-        <v>3684</v>
-      </c>
-      <c r="G943" t="s" s="0">
-        <v>3685</v>
-      </c>
-      <c r="H943" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I943" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M943" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N943" s="4" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="944" spans="5:14">
-      <c r="E944" t="s" s="0">
-        <v>3687</v>
-      </c>
-      <c r="F944" t="s" s="0">
-        <v>3688</v>
-      </c>
-      <c r="H944" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I944" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J944" t="s" s="0">
-        <v>3689</v>
-      </c>
-      <c r="K944" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L944" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M944" t="s" s="0">
-        <v>319</v>
-      </c>
-      <c r="N944" s="4" t="s">
-        <v>3690</v>
-      </c>
-    </row>
     <row r="945" spans="5:14">
       <c r="E945" t="s" s="0">
         <v>3691</v>
@@ -42910,35 +42705,6 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="946" spans="5:14">
-      <c r="E946" t="s" s="0">
-        <v>3694</v>
-      </c>
-      <c r="F946" t="s" s="0">
-        <v>3695</v>
-      </c>
-      <c r="H946" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I946" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="J946" t="s" s="0">
-        <v>3696</v>
-      </c>
-      <c r="K946" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L946" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M946" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N946" s="4" t="s">
-        <v>3690</v>
-      </c>
-    </row>
     <row r="947" spans="5:14">
       <c r="E947" t="s" s="0">
         <v>3697</v>
@@ -43084,26 +42850,6 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="952" spans="5:14">
-      <c r="E952" t="s" s="0">
-        <v>3715</v>
-      </c>
-      <c r="F952" t="s" s="0">
-        <v>3716</v>
-      </c>
-      <c r="H952" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I952" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M952" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N952" s="4" t="s">
-        <v>3717</v>
-      </c>
-    </row>
     <row r="953" spans="5:14">
       <c r="E953" t="s" s="0">
         <v>3718</v>
@@ -43147,29 +42893,6 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="955" spans="5:14">
-      <c r="E955" t="s" s="0">
-        <v>3723</v>
-      </c>
-      <c r="F955" t="s" s="0">
-        <v>3724</v>
-      </c>
-      <c r="H955" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I955" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="J955" t="s" s="0">
-        <v>3725</v>
-      </c>
-      <c r="M955" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N955" s="4" t="s">
-        <v>3726</v>
-      </c>
-    </row>
     <row r="956" spans="5:14">
       <c r="E956" t="s" s="0">
         <v>3727</v>
@@ -43351,29 +43074,6 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="964" spans="5:14">
-      <c r="E964" t="s" s="0">
-        <v>3750</v>
-      </c>
-      <c r="F964" t="s" s="0">
-        <v>3751</v>
-      </c>
-      <c r="H964" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I964" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="J964" t="s" s="0">
-        <v>3752</v>
-      </c>
-      <c r="M964" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N964" s="4" t="s">
-        <v>3726</v>
-      </c>
-    </row>
     <row r="965" spans="5:14">
       <c r="E965" t="s" s="0">
         <v>3753</v>
@@ -43558,52 +43258,6 @@
         <v>3726</v>
       </c>
     </row>
-    <row r="973" spans="5:14">
-      <c r="E973" t="s" s="0">
-        <v>3777</v>
-      </c>
-      <c r="F973" t="s" s="0">
-        <v>3778</v>
-      </c>
-      <c r="H973" s="2" t="s">
-        <v>3779</v>
-      </c>
-      <c r="I973" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J973" t="s" s="0">
-        <v>3780</v>
-      </c>
-      <c r="M973" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N973" s="4" t="s">
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="974" spans="5:14">
-      <c r="E974" t="s" s="0">
-        <v>3782</v>
-      </c>
-      <c r="F974" t="s" s="0">
-        <v>3783</v>
-      </c>
-      <c r="H974" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I974" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J974" t="s" s="0">
-        <v>3784</v>
-      </c>
-      <c r="M974" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N974" s="4" t="s">
-        <v>3785</v>
-      </c>
-    </row>
     <row r="975" spans="5:14">
       <c r="E975" t="s" s="0">
         <v>3786</v>
@@ -43670,29 +43324,6 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="978" spans="5:14">
-      <c r="E978" t="s" s="0">
-        <v>3794</v>
-      </c>
-      <c r="F978" t="s" s="0">
-        <v>3795</v>
-      </c>
-      <c r="H978" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I978" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="J978" t="s" s="0">
-        <v>3796</v>
-      </c>
-      <c r="M978" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N978" s="4" t="s">
-        <v>3797</v>
-      </c>
-    </row>
     <row r="979" spans="5:14">
       <c r="E979" t="s" s="0">
         <v>3798</v>
@@ -43762,29 +43393,6 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="982" spans="5:14">
-      <c r="E982" t="s" s="0">
-        <v>3807</v>
-      </c>
-      <c r="F982" t="s" s="0">
-        <v>3808</v>
-      </c>
-      <c r="H982" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I982" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J982" t="s" s="0">
-        <v>3809</v>
-      </c>
-      <c r="M982" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N982" s="4" t="s">
-        <v>3797</v>
-      </c>
-    </row>
     <row r="983" spans="5:14">
       <c r="E983" t="s" s="0">
         <v>3810</v>
@@ -43854,32 +43462,6 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="986" spans="5:14">
-      <c r="E986" t="s" s="0">
-        <v>3819</v>
-      </c>
-      <c r="F986" t="s" s="0">
-        <v>3820</v>
-      </c>
-      <c r="G986" t="s" s="0">
-        <v>3821</v>
-      </c>
-      <c r="H986" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I986" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="J986" t="s" s="0">
-        <v>3822</v>
-      </c>
-      <c r="M986" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N986" s="4" t="s">
-        <v>3823</v>
-      </c>
-    </row>
     <row r="987" spans="5:14">
       <c r="E987" t="s" s="0">
         <v>3824</v>
@@ -43958,29 +43540,6 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="990" spans="5:14">
-      <c r="E990" t="s" s="0">
-        <v>3834</v>
-      </c>
-      <c r="F990" t="s" s="0">
-        <v>3835</v>
-      </c>
-      <c r="H990" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I990" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J990" t="s" s="0">
-        <v>3836</v>
-      </c>
-      <c r="M990" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N990" s="4" t="s">
-        <v>3837</v>
-      </c>
-    </row>
     <row r="991" spans="5:14">
       <c r="E991" t="s" s="0">
         <v>3838</v>
@@ -44257,29 +43816,6 @@
         <v>3837</v>
       </c>
     </row>
-    <row r="1003" spans="5:14">
-      <c r="E1003" t="s" s="0">
-        <v>3874</v>
-      </c>
-      <c r="F1003" t="s" s="0">
-        <v>3875</v>
-      </c>
-      <c r="H1003" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1003" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1003" t="s" s="0">
-        <v>3876</v>
-      </c>
-      <c r="M1003" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1003" s="4" t="s">
-        <v>3877</v>
-      </c>
-    </row>
     <row r="1004" spans="5:14">
       <c r="E1004" t="s" s="0">
         <v>3878</v>
@@ -44418,35 +43954,6 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="1010" spans="5:14">
-      <c r="E1010" t="s" s="0">
-        <v>3896</v>
-      </c>
-      <c r="F1010" t="s" s="0">
-        <v>3897</v>
-      </c>
-      <c r="H1010" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1010" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="J1010" t="s" s="0">
-        <v>3898</v>
-      </c>
-      <c r="K1010" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L1010" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M1010" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1010" s="4" t="s">
-        <v>3899</v>
-      </c>
-    </row>
     <row r="1011" spans="5:14">
       <c r="E1011" t="s" s="0">
         <v>3900</v>
@@ -44505,35 +44012,6 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="1013" spans="5:14">
-      <c r="E1013" t="s" s="0">
-        <v>3904</v>
-      </c>
-      <c r="F1013" t="s" s="0">
-        <v>3905</v>
-      </c>
-      <c r="H1013" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I1013" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1013" t="s" s="0">
-        <v>3906</v>
-      </c>
-      <c r="K1013" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L1013" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M1013" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1013" s="4" t="s">
-        <v>3907</v>
-      </c>
-    </row>
     <row r="1014" spans="5:14">
       <c r="E1014" t="s" s="0">
         <v>3908</v>
@@ -44679,32 +44157,6 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="1019" spans="5:14">
-      <c r="E1019" t="s" s="0">
-        <v>3918</v>
-      </c>
-      <c r="F1019" t="s" s="0">
-        <v>3919</v>
-      </c>
-      <c r="G1019" t="s" s="0">
-        <v>3920</v>
-      </c>
-      <c r="H1019" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1019" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="J1019" t="s" s="0">
-        <v>3921</v>
-      </c>
-      <c r="M1019" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1019" s="4" t="s">
-        <v>3922</v>
-      </c>
-    </row>
     <row r="1020" spans="5:14">
       <c r="E1020" t="s" s="0">
         <v>3923</v>
@@ -44731,32 +44183,6 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="1021" spans="5:14">
-      <c r="E1021" t="s" s="0">
-        <v>3927</v>
-      </c>
-      <c r="F1021" t="s" s="0">
-        <v>3928</v>
-      </c>
-      <c r="G1021" t="s" s="0">
-        <v>3929</v>
-      </c>
-      <c r="H1021" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1021" s="3" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J1021" t="s" s="0">
-        <v>3930</v>
-      </c>
-      <c r="M1021" t="s" s="0">
-        <v>319</v>
-      </c>
-      <c r="N1021" s="4" t="s">
-        <v>3931</v>
-      </c>
-    </row>
     <row r="1022" spans="5:14">
       <c r="E1022" t="s" s="0">
         <v>3932</v>
@@ -44815,61 +44241,6 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="1024" spans="5:14">
-      <c r="E1024" t="s" s="0">
-        <v>3940</v>
-      </c>
-      <c r="F1024" t="s" s="0">
-        <v>3941</v>
-      </c>
-      <c r="H1024" s="2" t="s">
-        <v>3942</v>
-      </c>
-      <c r="I1024" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J1024" t="s" s="0">
-        <v>3943</v>
-      </c>
-      <c r="K1024" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L1024" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M1024" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1024" s="4" t="s">
-        <v>3944</v>
-      </c>
-    </row>
-    <row r="1025" spans="5:14">
-      <c r="E1025" t="s" s="0">
-        <v>3945</v>
-      </c>
-      <c r="F1025" t="s" s="0">
-        <v>3946</v>
-      </c>
-      <c r="G1025" t="s" s="0">
-        <v>3947</v>
-      </c>
-      <c r="H1025" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I1025" s="3" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J1025" t="s" s="0">
-        <v>3948</v>
-      </c>
-      <c r="M1025" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1025" s="4" t="s">
-        <v>3949</v>
-      </c>
-    </row>
     <row r="1026" spans="5:14">
       <c r="E1026" t="s" s="0">
         <v>3950</v>
@@ -45026,38 +44397,6 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="1032" spans="5:14">
-      <c r="E1032" t="s" s="0">
-        <v>3976</v>
-      </c>
-      <c r="F1032" t="s" s="0">
-        <v>3977</v>
-      </c>
-      <c r="G1032" t="s" s="0">
-        <v>3978</v>
-      </c>
-      <c r="H1032" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="I1032" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J1032" t="s" s="0">
-        <v>3979</v>
-      </c>
-      <c r="K1032" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L1032" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M1032" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1032" s="4" t="s">
-        <v>3980</v>
-      </c>
-    </row>
     <row r="1033" spans="5:14">
       <c r="E1033" t="s" s="0">
         <v>3981</v>
@@ -45218,29 +44557,6 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="1038" spans="5:14">
-      <c r="E1038" t="s" s="0">
-        <v>3997</v>
-      </c>
-      <c r="F1038" t="s" s="0">
-        <v>3998</v>
-      </c>
-      <c r="H1038" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1038" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1038" t="s" s="0">
-        <v>3999</v>
-      </c>
-      <c r="M1038" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1038" s="4" t="s">
-        <v>4000</v>
-      </c>
-    </row>
     <row r="1039" spans="5:14">
       <c r="E1039" t="s" s="0">
         <v>4001</v>
@@ -45379,32 +44695,6 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="1045" spans="5:14">
-      <c r="E1045" t="s" s="0">
-        <v>4019</v>
-      </c>
-      <c r="F1045" t="s" s="0">
-        <v>4020</v>
-      </c>
-      <c r="G1045" t="s" s="0">
-        <v>4021</v>
-      </c>
-      <c r="H1045" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1045" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="J1045" t="s" s="0">
-        <v>4022</v>
-      </c>
-      <c r="M1045" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1045" s="4" t="s">
-        <v>4023</v>
-      </c>
-    </row>
     <row r="1046" spans="5:14">
       <c r="E1046" t="s" s="0">
         <v>4024</v>
@@ -45457,29 +44747,6 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="1048" spans="5:14">
-      <c r="E1048" t="s" s="0">
-        <v>4032</v>
-      </c>
-      <c r="F1048" t="s" s="0">
-        <v>4033</v>
-      </c>
-      <c r="H1048" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1048" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1048" t="s" s="0">
-        <v>4034</v>
-      </c>
-      <c r="M1048" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1048" s="4" t="s">
-        <v>4035</v>
-      </c>
-    </row>
     <row r="1049" spans="5:14">
       <c r="E1049" t="s" s="0">
         <v>4036</v>
@@ -46308,29 +45575,6 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="1085" spans="5:14">
-      <c r="E1085" t="s" s="0">
-        <v>4144</v>
-      </c>
-      <c r="F1085" t="s" s="0">
-        <v>4145</v>
-      </c>
-      <c r="H1085" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1085" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="J1085" t="s" s="0">
-        <v>4146</v>
-      </c>
-      <c r="M1085" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1085" s="4" t="s">
-        <v>4147</v>
-      </c>
-    </row>
     <row r="1086" spans="5:14">
       <c r="E1086" t="s" s="0">
         <v>4148</v>
@@ -46400,29 +45644,6 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="1089" spans="5:14">
-      <c r="E1089" t="s" s="0">
-        <v>4157</v>
-      </c>
-      <c r="F1089" t="s" s="0">
-        <v>4158</v>
-      </c>
-      <c r="H1089" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I1089" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1089" t="s" s="0">
-        <v>4159</v>
-      </c>
-      <c r="M1089" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1089" s="4" t="s">
-        <v>4160</v>
-      </c>
-    </row>
     <row r="1090" spans="5:14">
       <c r="E1090" t="s" s="0">
         <v>4161</v>
@@ -46492,29 +45713,6 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="1093" spans="5:14">
-      <c r="E1093" t="s" s="0">
-        <v>4170</v>
-      </c>
-      <c r="F1093" t="s" s="0">
-        <v>4171</v>
-      </c>
-      <c r="H1093" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1093" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1093" t="s" s="0">
-        <v>4172</v>
-      </c>
-      <c r="M1093" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1093" s="4" t="s">
-        <v>4173</v>
-      </c>
-    </row>
     <row r="1094" spans="5:14">
       <c r="E1094" t="s" s="0">
         <v>4174</v>
@@ -47757,58 +46955,6 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="1148" spans="5:14">
-      <c r="E1148" t="s" s="0">
-        <v>4337</v>
-      </c>
-      <c r="F1148" t="s" s="0">
-        <v>4338</v>
-      </c>
-      <c r="G1148" t="s" s="0">
-        <v>4339</v>
-      </c>
-      <c r="H1148" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1148" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="J1148" t="s" s="0">
-        <v>4340</v>
-      </c>
-      <c r="M1148" t="s" s="0">
-        <v>781</v>
-      </c>
-      <c r="N1148" s="4" t="s">
-        <v>4341</v>
-      </c>
-    </row>
-    <row r="1149" spans="5:14">
-      <c r="E1149" t="s" s="0">
-        <v>4342</v>
-      </c>
-      <c r="F1149" t="s" s="0">
-        <v>4343</v>
-      </c>
-      <c r="G1149" t="s" s="0">
-        <v>4344</v>
-      </c>
-      <c r="H1149" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I1149" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="J1149" t="s" s="0">
-        <v>4345</v>
-      </c>
-      <c r="M1149" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1149" s="4" t="s">
-        <v>4346</v>
-      </c>
-    </row>
     <row r="1150" spans="5:14">
       <c r="E1150" t="s" s="0">
         <v>4347</v>
@@ -47991,29 +47137,6 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="1157" spans="5:14">
-      <c r="E1157" t="s" s="0">
-        <v>4351</v>
-      </c>
-      <c r="F1157" t="s" s="0">
-        <v>4352</v>
-      </c>
-      <c r="H1157" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I1157" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1157" t="s" s="0">
-        <v>4354</v>
-      </c>
-      <c r="M1157" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1157" s="4" t="s">
-        <v>4375</v>
-      </c>
-    </row>
     <row r="1158" spans="5:14">
       <c r="E1158" t="s" s="0">
         <v>4355</v>
@@ -48152,32 +47275,6 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="1164" spans="5:14">
-      <c r="E1164" t="s" s="0">
-        <v>4387</v>
-      </c>
-      <c r="F1164" t="s" s="0">
-        <v>4388</v>
-      </c>
-      <c r="G1164" t="s" s="0">
-        <v>4389</v>
-      </c>
-      <c r="H1164" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1164" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1164" t="s" s="0">
-        <v>4390</v>
-      </c>
-      <c r="M1164" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1164" s="4" t="s">
-        <v>4391</v>
-      </c>
-    </row>
     <row r="1165" spans="5:14">
       <c r="E1165" t="s" s="0">
         <v>4392</v>
@@ -48438,84 +47535,6 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="1175" spans="5:14">
-      <c r="E1175" t="s" s="0">
-        <v>4432</v>
-      </c>
-      <c r="F1175" t="s" s="0">
-        <v>4433</v>
-      </c>
-      <c r="G1175" t="s" s="0">
-        <v>4434</v>
-      </c>
-      <c r="H1175" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1175" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1175" t="s" s="0">
-        <v>4435</v>
-      </c>
-      <c r="M1175" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1175" s="4" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="1176" spans="5:14">
-      <c r="E1176" t="s" s="0">
-        <v>4437</v>
-      </c>
-      <c r="F1176" t="s" s="0">
-        <v>4438</v>
-      </c>
-      <c r="G1176" t="s" s="0">
-        <v>4439</v>
-      </c>
-      <c r="H1176" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1176" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1176" t="s" s="0">
-        <v>4440</v>
-      </c>
-      <c r="M1176" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1176" s="4" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="1177" spans="5:14">
-      <c r="E1177" t="s" s="0">
-        <v>4441</v>
-      </c>
-      <c r="F1177" t="s" s="0">
-        <v>4442</v>
-      </c>
-      <c r="G1177" t="s" s="0">
-        <v>4443</v>
-      </c>
-      <c r="H1177" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1177" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J1177" t="s" s="0">
-        <v>4444</v>
-      </c>
-      <c r="M1177" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1177" s="4" t="s">
-        <v>4445</v>
-      </c>
-    </row>
     <row r="1178" spans="5:14">
       <c r="E1178" t="s" s="0">
         <v>4446</v>
@@ -49721,32 +48740,6 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="1227" spans="5:14">
-      <c r="E1227" t="s" s="0">
-        <v>4554</v>
-      </c>
-      <c r="F1227" t="s" s="0">
-        <v>4555</v>
-      </c>
-      <c r="G1227" t="s" s="0">
-        <v>4556</v>
-      </c>
-      <c r="H1227" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1227" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1227" t="s" s="0">
-        <v>4557</v>
-      </c>
-      <c r="M1227" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1227" s="4" t="s">
-        <v>4558</v>
-      </c>
-    </row>
     <row r="1228" spans="5:14">
       <c r="E1228" t="s" s="0">
         <v>4559</v>
@@ -49773,32 +48766,6 @@
         <v>4558</v>
       </c>
     </row>
-    <row r="1229" spans="5:14">
-      <c r="E1229" t="s" s="0">
-        <v>4562</v>
-      </c>
-      <c r="F1229" t="s" s="0">
-        <v>4563</v>
-      </c>
-      <c r="G1229" t="s" s="0">
-        <v>4564</v>
-      </c>
-      <c r="H1229" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1229" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1229" t="s" s="0">
-        <v>4565</v>
-      </c>
-      <c r="M1229" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N1229" s="4" t="s">
-        <v>4566</v>
-      </c>
-    </row>
     <row r="1230" spans="5:14">
       <c r="E1230" t="s" s="0">
         <v>4567</v>
@@ -50423,32 +49390,6 @@
         <v>4574</v>
       </c>
     </row>
-    <row r="1257" spans="5:14">
-      <c r="E1257" t="s" s="0">
-        <v>4628</v>
-      </c>
-      <c r="F1257" t="s" s="0">
-        <v>4629</v>
-      </c>
-      <c r="G1257" t="s" s="0">
-        <v>4630</v>
-      </c>
-      <c r="H1257" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1257" s="3" t="s">
-        <v>4631</v>
-      </c>
-      <c r="J1257" t="s" s="0">
-        <v>4632</v>
-      </c>
-      <c r="M1257" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1257" s="4" t="s">
-        <v>4633</v>
-      </c>
-    </row>
     <row r="1258" spans="5:14">
       <c r="E1258" t="s" s="0">
         <v>4634</v>
@@ -50553,58 +49494,6 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="1262" spans="5:14">
-      <c r="E1262" t="s" s="0">
-        <v>4651</v>
-      </c>
-      <c r="F1262" t="s" s="0">
-        <v>4652</v>
-      </c>
-      <c r="G1262" t="s" s="0">
-        <v>4653</v>
-      </c>
-      <c r="H1262" s="2" t="s">
-        <v>4654</v>
-      </c>
-      <c r="I1262" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="J1262" t="s" s="0">
-        <v>4655</v>
-      </c>
-      <c r="M1262" t="s" s="0">
-        <v>4656</v>
-      </c>
-      <c r="N1262" s="4" t="s">
-        <v>4657</v>
-      </c>
-    </row>
-    <row r="1263" spans="5:14">
-      <c r="E1263" t="s" s="0">
-        <v>4658</v>
-      </c>
-      <c r="F1263" t="s" s="0">
-        <v>4659</v>
-      </c>
-      <c r="G1263" t="s" s="0">
-        <v>4653</v>
-      </c>
-      <c r="H1263" s="2" t="s">
-        <v>4654</v>
-      </c>
-      <c r="I1263" s="3" t="s">
-        <v>4660</v>
-      </c>
-      <c r="J1263" t="s" s="0">
-        <v>4661</v>
-      </c>
-      <c r="M1263" t="s" s="0">
-        <v>4656</v>
-      </c>
-      <c r="N1263" s="4" t="s">
-        <v>4657</v>
-      </c>
-    </row>
     <row r="1264" spans="5:14">
       <c r="E1264" t="s" s="0">
         <v>4662</v>
@@ -50709,29 +49598,6 @@
         <v>4657</v>
       </c>
     </row>
-    <row r="1268" spans="5:14">
-      <c r="E1268" t="s" s="0">
-        <v>4674</v>
-      </c>
-      <c r="F1268" t="s" s="0">
-        <v>4675</v>
-      </c>
-      <c r="G1268" t="s" s="0">
-        <v>4676</v>
-      </c>
-      <c r="H1268" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1268" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1268" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1268" s="4" t="s">
-        <v>4677</v>
-      </c>
-    </row>
     <row r="1269" spans="5:14">
       <c r="E1269" t="s" s="0">
         <v>4678</v>
@@ -51004,26 +49870,6 @@
         <v>4677</v>
       </c>
     </row>
-    <row r="1282" spans="5:14">
-      <c r="E1282" t="s" s="0">
-        <v>4699</v>
-      </c>
-      <c r="F1282" t="s" s="0">
-        <v>4700</v>
-      </c>
-      <c r="H1282" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1282" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1282" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1282" s="4" t="s">
-        <v>4701</v>
-      </c>
-    </row>
     <row r="1283" spans="5:14">
       <c r="E1283" t="s" s="0">
         <v>4702</v>
@@ -51184,26 +50030,6 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="1291" spans="5:14">
-      <c r="E1291" t="s" s="0">
-        <v>4718</v>
-      </c>
-      <c r="F1291" t="s" s="0">
-        <v>4719</v>
-      </c>
-      <c r="H1291" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1291" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="M1291" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1291" s="4" t="s">
-        <v>4720</v>
-      </c>
-    </row>
     <row r="1292" spans="5:14">
       <c r="E1292" t="s" s="0">
         <v>4721</v>
@@ -51264,29 +50090,6 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="1295" spans="5:14">
-      <c r="E1295" t="s" s="0">
-        <v>4727</v>
-      </c>
-      <c r="F1295" t="s" s="0">
-        <v>4728</v>
-      </c>
-      <c r="G1295" t="s" s="0">
-        <v>4729</v>
-      </c>
-      <c r="H1295" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1295" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="M1295" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1295" s="4" t="s">
-        <v>4730</v>
-      </c>
-    </row>
     <row r="1296" spans="5:14">
       <c r="E1296" t="s" s="0">
         <v>4731</v>
@@ -51330,29 +50133,6 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="1298" spans="5:14">
-      <c r="E1298" t="s" s="0">
-        <v>4736</v>
-      </c>
-      <c r="F1298" t="s" s="0">
-        <v>4737</v>
-      </c>
-      <c r="G1298" t="s" s="0">
-        <v>4738</v>
-      </c>
-      <c r="H1298" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I1298" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1298" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1298" s="4" t="s">
-        <v>4739</v>
-      </c>
-    </row>
     <row r="1299" spans="5:14">
       <c r="E1299" t="s" s="0">
         <v>4740</v>
@@ -51376,32 +50156,6 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="1300" spans="5:14">
-      <c r="E1300" t="s" s="0">
-        <v>4742</v>
-      </c>
-      <c r="F1300" t="s" s="0">
-        <v>4743</v>
-      </c>
-      <c r="G1300" t="s" s="0">
-        <v>4744</v>
-      </c>
-      <c r="H1300" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1300" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1300" t="s" s="0">
-        <v>4745</v>
-      </c>
-      <c r="M1300" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1300" s="4" t="s">
-        <v>4746</v>
-      </c>
-    </row>
     <row r="1301" spans="5:14">
       <c r="E1301" t="s" s="0">
         <v>4747</v>
@@ -51428,26 +50182,6 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="1302" spans="5:14">
-      <c r="E1302" t="s" s="0">
-        <v>4750</v>
-      </c>
-      <c r="F1302" t="s" s="0">
-        <v>4751</v>
-      </c>
-      <c r="H1302" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1302" s="3" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M1302" t="s" s="0">
-        <v>781</v>
-      </c>
-      <c r="N1302" s="4" t="s">
-        <v>4752</v>
-      </c>
-    </row>
     <row r="1303" spans="5:14">
       <c r="E1303" t="s" s="0">
         <v>4753</v>
@@ -51988,26 +50722,6 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="1330" spans="5:14">
-      <c r="E1330" t="s" s="0">
-        <v>4808</v>
-      </c>
-      <c r="F1330" t="s" s="0">
-        <v>4809</v>
-      </c>
-      <c r="H1330" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1330" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1330" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1330" s="4" t="s">
-        <v>4810</v>
-      </c>
-    </row>
     <row r="1331" spans="5:14">
       <c r="E1331" t="s" s="0">
         <v>4811</v>
@@ -52168,26 +50882,6 @@
         <v>4810</v>
       </c>
     </row>
-    <row r="1339" spans="5:14">
-      <c r="E1339" t="s" s="0">
-        <v>4827</v>
-      </c>
-      <c r="F1339" t="s" s="0">
-        <v>4828</v>
-      </c>
-      <c r="H1339" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1339" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1339" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1339" s="4" t="s">
-        <v>4829</v>
-      </c>
-    </row>
     <row r="1340" spans="5:14">
       <c r="E1340" t="s" s="0">
         <v>4830</v>
@@ -52268,29 +50962,6 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="1344" spans="5:14">
-      <c r="E1344" t="s" s="0">
-        <v>4838</v>
-      </c>
-      <c r="F1344" t="s" s="0">
-        <v>4839</v>
-      </c>
-      <c r="G1344" t="s" s="0">
-        <v>4840</v>
-      </c>
-      <c r="H1344" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1344" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="M1344" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1344" s="4" t="s">
-        <v>4841</v>
-      </c>
-    </row>
     <row r="1345" spans="5:14">
       <c r="E1345" t="s" s="0">
         <v>4842</v>
@@ -52314,32 +50985,6 @@
         <v>4841</v>
       </c>
     </row>
-    <row r="1346" spans="5:14">
-      <c r="E1346" t="s" s="0">
-        <v>4845</v>
-      </c>
-      <c r="F1346" t="s" s="0">
-        <v>4846</v>
-      </c>
-      <c r="G1346" t="s" s="0">
-        <v>4847</v>
-      </c>
-      <c r="H1346" s="2" t="s">
-        <v>4654</v>
-      </c>
-      <c r="I1346" s="3" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J1346" t="s" s="0">
-        <v>4848</v>
-      </c>
-      <c r="M1346" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1346" s="4" t="s">
-        <v>4849</v>
-      </c>
-    </row>
     <row r="1347" spans="5:14">
       <c r="E1347" t="s" s="0">
         <v>4850</v>
@@ -52574,29 +51219,6 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="1356" spans="5:14">
-      <c r="E1356" t="s" s="0">
-        <v>4875</v>
-      </c>
-      <c r="F1356" t="s" s="0">
-        <v>4876</v>
-      </c>
-      <c r="G1356" t="s" s="0">
-        <v>4877</v>
-      </c>
-      <c r="H1356" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1356" s="3" t="s">
-        <v>4684</v>
-      </c>
-      <c r="M1356" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1356" s="4" t="s">
-        <v>4878</v>
-      </c>
-    </row>
     <row r="1357" spans="5:14">
       <c r="E1357" t="s" s="0">
         <v>4879</v>
@@ -52781,52 +51403,6 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="1365" spans="5:14">
-      <c r="E1365" t="s" s="0">
-        <v>4898</v>
-      </c>
-      <c r="F1365" t="s" s="0">
-        <v>4899</v>
-      </c>
-      <c r="G1365" t="s" s="0">
-        <v>4900</v>
-      </c>
-      <c r="H1365" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1365" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="M1365" t="s" s="0">
-        <v>4901</v>
-      </c>
-      <c r="N1365" s="4" t="s">
-        <v>4902</v>
-      </c>
-    </row>
-    <row r="1366" spans="5:14">
-      <c r="E1366" t="s" s="0">
-        <v>4903</v>
-      </c>
-      <c r="F1366" t="s" s="0">
-        <v>4904</v>
-      </c>
-      <c r="G1366" t="s" s="0">
-        <v>4905</v>
-      </c>
-      <c r="H1366" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I1366" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1366" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1366" s="4" t="s">
-        <v>4906</v>
-      </c>
-    </row>
     <row r="1367" spans="5:14">
       <c r="E1367" t="s" s="0">
         <v>4907</v>
@@ -53080,29 +51656,6 @@
         <v>4906</v>
       </c>
     </row>
-    <row r="1378" spans="5:14">
-      <c r="E1378" t="s" s="0">
-        <v>4940</v>
-      </c>
-      <c r="F1378" t="s" s="0">
-        <v>4941</v>
-      </c>
-      <c r="G1378" t="s" s="0">
-        <v>4942</v>
-      </c>
-      <c r="H1378" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1378" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1378" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1378" s="4" t="s">
-        <v>4943</v>
-      </c>
-    </row>
     <row r="1379" spans="5:14">
       <c r="E1379" t="s" s="0">
         <v>4944</v>
@@ -53816,26 +52369,6 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="1410" spans="5:14">
-      <c r="E1410" t="s" s="0">
-        <v>5041</v>
-      </c>
-      <c r="F1410" t="s" s="0">
-        <v>5042</v>
-      </c>
-      <c r="H1410" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1410" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="M1410" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1410" s="4" t="s">
-        <v>5043</v>
-      </c>
-    </row>
     <row r="1411" spans="5:14">
       <c r="E1411" t="s" s="0">
         <v>5044</v>
@@ -53916,26 +52449,6 @@
         <v>5043</v>
       </c>
     </row>
-    <row r="1415" spans="5:14">
-      <c r="E1415" t="s" s="0">
-        <v>5052</v>
-      </c>
-      <c r="F1415" t="s" s="0">
-        <v>5053</v>
-      </c>
-      <c r="H1415" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1415" s="3" t="s">
-        <v>5054</v>
-      </c>
-      <c r="M1415" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1415" s="4" t="s">
-        <v>5055</v>
-      </c>
-    </row>
     <row r="1416" spans="5:14">
       <c r="E1416" t="s" s="0">
         <v>5056</v>
@@ -53976,69 +52489,6 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="1418" spans="5:14">
-      <c r="E1418" t="s" s="0">
-        <v>5060</v>
-      </c>
-      <c r="F1418" t="s" s="0">
-        <v>5061</v>
-      </c>
-      <c r="G1418" t="s" s="0">
-        <v>5062</v>
-      </c>
-      <c r="H1418" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1418" s="3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="M1418" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1418" s="4" t="s">
-        <v>5063</v>
-      </c>
-    </row>
-    <row r="1419" spans="5:14">
-      <c r="E1419" t="s" s="0">
-        <v>5064</v>
-      </c>
-      <c r="F1419" t="s" s="0">
-        <v>5065</v>
-      </c>
-      <c r="H1419" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1419" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1419" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N1419" s="4" t="s">
-        <v>5066</v>
-      </c>
-    </row>
-    <row r="1420" spans="5:14">
-      <c r="E1420" t="s" s="0">
-        <v>5067</v>
-      </c>
-      <c r="F1420" t="s" s="0">
-        <v>5068</v>
-      </c>
-      <c r="H1420" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1420" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1420" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1420" s="4" t="s">
-        <v>5069</v>
-      </c>
-    </row>
     <row r="1421" spans="5:14">
       <c r="E1421" t="s" s="0">
         <v>5070</v>
@@ -55499,35 +53949,6 @@
         <v>5069</v>
       </c>
     </row>
-    <row r="1494" spans="5:14">
-      <c r="E1494" t="s" s="0">
-        <v>5219</v>
-      </c>
-      <c r="F1494" t="s" s="0">
-        <v>5220</v>
-      </c>
-      <c r="H1494" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1494" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1494" t="s" s="0">
-        <v>5221</v>
-      </c>
-      <c r="K1494" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L1494" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M1494" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1494" s="4" t="s">
-        <v>5222</v>
-      </c>
-    </row>
     <row r="1495" spans="5:14">
       <c r="E1495" t="s" s="0">
         <v>5223</v>
@@ -55557,26 +53978,6 @@
         <v>5222</v>
       </c>
     </row>
-    <row r="1496" spans="5:14">
-      <c r="E1496" t="s" s="0">
-        <v>5226</v>
-      </c>
-      <c r="F1496" t="s" s="0">
-        <v>5227</v>
-      </c>
-      <c r="H1496" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1496" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1496" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1496" s="4" t="s">
-        <v>5228</v>
-      </c>
-    </row>
     <row r="1497" spans="5:14">
       <c r="E1497" t="s" s="0">
         <v>5229</v>
@@ -55657,29 +54058,6 @@
         <v>5228</v>
       </c>
     </row>
-    <row r="1501" spans="5:14">
-      <c r="E1501" t="s" s="0">
-        <v>5237</v>
-      </c>
-      <c r="F1501" t="s" s="0">
-        <v>5238</v>
-      </c>
-      <c r="G1501" t="s" s="0">
-        <v>5239</v>
-      </c>
-      <c r="H1501" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1501" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1501" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1501" s="4" t="s">
-        <v>5240</v>
-      </c>
-    </row>
     <row r="1502" spans="5:14">
       <c r="E1502" t="s" s="0">
         <v>5241</v>
@@ -55795,32 +54173,6 @@
         <v>5240</v>
       </c>
     </row>
-    <row r="1507" spans="5:14">
-      <c r="E1507" t="s" s="0">
-        <v>5256</v>
-      </c>
-      <c r="F1507" t="s" s="0">
-        <v>5257</v>
-      </c>
-      <c r="G1507" t="s" s="0">
-        <v>5258</v>
-      </c>
-      <c r="H1507" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I1507" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1507" t="s" s="0">
-        <v>5259</v>
-      </c>
-      <c r="M1507" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1507" s="4" t="s">
-        <v>5260</v>
-      </c>
-    </row>
     <row r="1508" spans="5:14">
       <c r="E1508" t="s" s="0">
         <v>5261</v>
@@ -55873,55 +54225,6 @@
         <v>5260</v>
       </c>
     </row>
-    <row r="1510" spans="5:14">
-      <c r="E1510" t="s" s="0">
-        <v>5267</v>
-      </c>
-      <c r="F1510" t="s" s="0">
-        <v>5268</v>
-      </c>
-      <c r="G1510" t="s" s="0">
-        <v>5269</v>
-      </c>
-      <c r="H1510" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1510" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1510" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1510" s="4" t="s">
-        <v>5270</v>
-      </c>
-    </row>
-    <row r="1511" spans="5:14">
-      <c r="E1511" t="s" s="0">
-        <v>5271</v>
-      </c>
-      <c r="F1511" t="s" s="0">
-        <v>5272</v>
-      </c>
-      <c r="G1511" t="s" s="0">
-        <v>5273</v>
-      </c>
-      <c r="H1511" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I1511" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1511" t="s" s="0">
-        <v>5274</v>
-      </c>
-      <c r="M1511" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1511" s="4" t="s">
-        <v>5275</v>
-      </c>
-    </row>
     <row r="1512" spans="5:14">
       <c r="E1512" t="s" s="0">
         <v>5276</v>
@@ -55948,32 +54251,6 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="1513" spans="5:14">
-      <c r="E1513" t="s" s="0">
-        <v>5279</v>
-      </c>
-      <c r="F1513" t="s" s="0">
-        <v>5280</v>
-      </c>
-      <c r="G1513" t="s" s="0">
-        <v>5281</v>
-      </c>
-      <c r="H1513" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1513" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1513" t="s" s="0">
-        <v>5282</v>
-      </c>
-      <c r="M1513" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1513" s="4" t="s">
-        <v>5283</v>
-      </c>
-    </row>
     <row r="1514" spans="5:14">
       <c r="E1514" t="s" s="0">
         <v>5284</v>
@@ -56257,29 +54534,6 @@
         <v>5283</v>
       </c>
     </row>
-    <row r="1525" spans="5:14">
-      <c r="E1525" t="s" s="0">
-        <v>5328</v>
-      </c>
-      <c r="F1525" t="s" s="0">
-        <v>5329</v>
-      </c>
-      <c r="G1525" t="s" s="0">
-        <v>5330</v>
-      </c>
-      <c r="H1525" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1525" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1525" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1525" s="4" t="s">
-        <v>5331</v>
-      </c>
-    </row>
     <row r="1526" spans="5:14">
       <c r="E1526" t="s" s="0">
         <v>5332</v>
@@ -56763,29 +55017,6 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="1547" spans="5:14">
-      <c r="E1547" t="s" s="0">
-        <v>5395</v>
-      </c>
-      <c r="F1547" t="s" s="0">
-        <v>5396</v>
-      </c>
-      <c r="G1547" t="s" s="0">
-        <v>5397</v>
-      </c>
-      <c r="H1547" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I1547" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M1547" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1547" s="4" t="s">
-        <v>5398</v>
-      </c>
-    </row>
     <row r="1548" spans="5:14">
       <c r="E1548" t="s" s="0">
         <v>5399</v>
@@ -56832,26 +55063,6 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="1550" spans="5:14">
-      <c r="E1550" t="s" s="0">
-        <v>5405</v>
-      </c>
-      <c r="F1550" t="s" s="0">
-        <v>5406</v>
-      </c>
-      <c r="H1550" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1550" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="M1550" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1550" s="4" t="s">
-        <v>5407</v>
-      </c>
-    </row>
     <row r="1551" spans="5:14">
       <c r="E1551" t="s" s="0">
         <v>5408</v>
@@ -56892,29 +55103,6 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="1553" spans="5:14">
-      <c r="E1553" t="s" s="0">
-        <v>5412</v>
-      </c>
-      <c r="F1553" t="s" s="0">
-        <v>5413</v>
-      </c>
-      <c r="G1553" t="s" s="0">
-        <v>5414</v>
-      </c>
-      <c r="H1553" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1553" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1553" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1553" s="4" t="s">
-        <v>5415</v>
-      </c>
-    </row>
     <row r="1554" spans="5:14">
       <c r="E1554" t="s" s="0">
         <v>5416</v>
@@ -57235,26 +55423,6 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="1570" spans="5:14">
-      <c r="E1570" t="s" s="0">
-        <v>5451</v>
-      </c>
-      <c r="F1570" t="s" s="0">
-        <v>5452</v>
-      </c>
-      <c r="H1570" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1570" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1570" t="s" s="0">
-        <v>781</v>
-      </c>
-      <c r="N1570" s="4" t="s">
-        <v>5453</v>
-      </c>
-    </row>
     <row r="1571" spans="5:14">
       <c r="E1571" t="s" s="0">
         <v>5454</v>
@@ -57315,26 +55483,6 @@
         <v>5453</v>
       </c>
     </row>
-    <row r="1574" spans="5:14">
-      <c r="E1574" t="s" s="0">
-        <v>5460</v>
-      </c>
-      <c r="F1574" t="s" s="0">
-        <v>5461</v>
-      </c>
-      <c r="H1574" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1574" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1574" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1574" s="4" t="s">
-        <v>5462</v>
-      </c>
-    </row>
     <row r="1575" spans="5:14">
       <c r="E1575" t="s" s="0">
         <v>5463</v>
@@ -57395,26 +55543,6 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="1578" spans="5:14">
-      <c r="E1578" t="s" s="0">
-        <v>5469</v>
-      </c>
-      <c r="F1578" t="s" s="0">
-        <v>5470</v>
-      </c>
-      <c r="H1578" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1578" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="M1578" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1578" s="4" t="s">
-        <v>5471</v>
-      </c>
-    </row>
     <row r="1579" spans="5:14">
       <c r="E1579" t="s" s="0">
         <v>5472</v>
@@ -57435,46 +55563,6 @@
         <v>5471</v>
       </c>
     </row>
-    <row r="1580" spans="5:14">
-      <c r="E1580" t="s" s="0">
-        <v>5474</v>
-      </c>
-      <c r="F1580" t="s" s="0">
-        <v>5475</v>
-      </c>
-      <c r="H1580" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1580" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M1580" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1580" s="4" t="s">
-        <v>5476</v>
-      </c>
-    </row>
-    <row r="1581" spans="5:14">
-      <c r="E1581" t="s" s="0">
-        <v>5477</v>
-      </c>
-      <c r="F1581" t="s" s="0">
-        <v>5478</v>
-      </c>
-      <c r="H1581" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1581" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1581" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1581" s="4" t="s">
-        <v>5479</v>
-      </c>
-    </row>
     <row r="1582" spans="5:14">
       <c r="E1582" t="s" s="0">
         <v>5480</v>
@@ -57555,26 +55643,6 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="1586" spans="5:14">
-      <c r="E1586" t="s" s="0">
-        <v>5488</v>
-      </c>
-      <c r="F1586" t="s" s="0">
-        <v>5489</v>
-      </c>
-      <c r="H1586" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1586" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="M1586" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1586" s="4" t="s">
-        <v>5479</v>
-      </c>
-    </row>
     <row r="1587" spans="5:14">
       <c r="E1587" t="s" s="0">
         <v>5490</v>
@@ -57596,29 +55664,6 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="1588" spans="5:14">
-      <c r="E1588" t="s" s="0">
-        <v>5492</v>
-      </c>
-      <c r="F1588" t="s" s="0">
-        <v>5493</v>
-      </c>
-      <c r="G1588" s="5" t="s">
-        <v>5494</v>
-      </c>
-      <c r="H1588" s="2" t="s">
-        <v>2327</v>
-      </c>
-      <c r="I1588" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1588" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1588" s="4" t="s">
-        <v>5495</v>
-      </c>
-    </row>
     <row r="1589" spans="5:14">
       <c r="E1589" t="s" s="0">
         <v>5496</v>
@@ -57642,29 +55687,6 @@
         <v>5495</v>
       </c>
     </row>
-    <row r="1590" spans="5:14">
-      <c r="E1590" t="s" s="0">
-        <v>5498</v>
-      </c>
-      <c r="F1590" t="s" s="0">
-        <v>5499</v>
-      </c>
-      <c r="G1590" t="s" s="0">
-        <v>5500</v>
-      </c>
-      <c r="H1590" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1590" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1590" t="s" s="0">
-        <v>3559</v>
-      </c>
-      <c r="N1590" s="4" t="s">
-        <v>5501</v>
-      </c>
-    </row>
     <row r="1591" spans="5:14">
       <c r="E1591" t="s" s="0">
         <v>5502</v>
@@ -58053,29 +56075,6 @@
         <v>5501</v>
       </c>
     </row>
-    <row r="1608" spans="5:14">
-      <c r="E1608" t="s" s="0">
-        <v>5553</v>
-      </c>
-      <c r="F1608" t="s" s="0">
-        <v>5554</v>
-      </c>
-      <c r="G1608" t="s" s="0">
-        <v>5555</v>
-      </c>
-      <c r="H1608" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1608" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1608" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1608" s="4" t="s">
-        <v>5556</v>
-      </c>
-    </row>
     <row r="1609" spans="5:14">
       <c r="E1609" t="s" s="0">
         <v>5557</v>
@@ -58237,26 +56236,6 @@
         <v>5556</v>
       </c>
     </row>
-    <row r="1616" spans="5:14">
-      <c r="E1616" t="s" s="0">
-        <v>5580</v>
-      </c>
-      <c r="F1616" t="s" s="0">
-        <v>5581</v>
-      </c>
-      <c r="H1616" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I1616" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1616" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1616" s="4" t="s">
-        <v>5582</v>
-      </c>
-    </row>
     <row r="1617" spans="5:14">
       <c r="E1617" t="s" s="0">
         <v>5583</v>
@@ -58357,26 +56336,6 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="1622" spans="5:14">
-      <c r="E1622" t="s" s="0">
-        <v>5594</v>
-      </c>
-      <c r="F1622" t="s" s="0">
-        <v>5595</v>
-      </c>
-      <c r="H1622" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I1622" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1622" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1622" s="4" t="s">
-        <v>5596</v>
-      </c>
-    </row>
     <row r="1623" spans="5:14">
       <c r="E1623" t="s" s="0">
         <v>5597</v>
@@ -58437,26 +56396,6 @@
         <v>5596</v>
       </c>
     </row>
-    <row r="1626" spans="5:14">
-      <c r="E1626" t="s" s="0">
-        <v>5603</v>
-      </c>
-      <c r="F1626" t="s" s="0">
-        <v>5604</v>
-      </c>
-      <c r="H1626" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1626" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1626" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1626" s="4" t="s">
-        <v>5605</v>
-      </c>
-    </row>
     <row r="1627" spans="5:14">
       <c r="E1627" t="s" s="0">
         <v>5606</v>
@@ -58537,29 +56476,6 @@
         <v>5605</v>
       </c>
     </row>
-    <row r="1631" spans="5:14">
-      <c r="E1631" t="s" s="0">
-        <v>5615</v>
-      </c>
-      <c r="F1631" t="s" s="0">
-        <v>5616</v>
-      </c>
-      <c r="G1631" t="s" s="0">
-        <v>5617</v>
-      </c>
-      <c r="H1631" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1631" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="M1631" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1631" s="4" t="s">
-        <v>5618</v>
-      </c>
-    </row>
     <row r="1632" spans="5:14">
       <c r="E1632" t="s" s="0">
         <v>5619</v>
@@ -58652,26 +56568,6 @@
         <v>5618</v>
       </c>
     </row>
-    <row r="1636" spans="5:14">
-      <c r="E1636" t="s" s="0">
-        <v>5630</v>
-      </c>
-      <c r="F1636" t="s" s="0">
-        <v>5631</v>
-      </c>
-      <c r="H1636" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1636" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="M1636" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1636" s="4" t="s">
-        <v>5632</v>
-      </c>
-    </row>
     <row r="1637" spans="5:14">
       <c r="E1637" t="s" s="0">
         <v>5633</v>
@@ -58772,32 +56668,6 @@
         <v>5632</v>
       </c>
     </row>
-    <row r="1642" spans="5:14">
-      <c r="E1642" t="s" s="0">
-        <v>5644</v>
-      </c>
-      <c r="F1642" t="s" s="0">
-        <v>5645</v>
-      </c>
-      <c r="G1642" t="s" s="0">
-        <v>5646</v>
-      </c>
-      <c r="H1642" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1642" s="3" t="s">
-        <v>2580</v>
-      </c>
-      <c r="J1642" t="s" s="0">
-        <v>5647</v>
-      </c>
-      <c r="M1642" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1642" s="4" t="s">
-        <v>5648</v>
-      </c>
-    </row>
     <row r="1643" spans="5:14">
       <c r="E1643" t="s" s="0">
         <v>5649</v>
@@ -58876,70 +56746,6 @@
         <v>5648</v>
       </c>
     </row>
-    <row r="1646" spans="5:14">
-      <c r="E1646" t="s" s="0">
-        <v>5661</v>
-      </c>
-      <c r="F1646" t="s" s="0">
-        <v>5662</v>
-      </c>
-      <c r="G1646" s="7"/>
-      <c r="H1646" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1646" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1646" t="s" s="0">
-        <v>2537</v>
-      </c>
-      <c r="N1646" s="4" t="s">
-        <v>5663</v>
-      </c>
-    </row>
-    <row r="1647" ht="17.6" spans="5:14">
-      <c r="E1647" t="s" s="0">
-        <v>5664</v>
-      </c>
-      <c r="F1647" t="s" s="0">
-        <v>5665</v>
-      </c>
-      <c r="G1647" s="8" t="s">
-        <v>5666</v>
-      </c>
-      <c r="H1647" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1647" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="M1647" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1647" s="4" t="s">
-        <v>5667</v>
-      </c>
-    </row>
-    <row r="1648" spans="5:14">
-      <c r="E1648" t="s" s="0">
-        <v>5668</v>
-      </c>
-      <c r="F1648" t="s" s="0">
-        <v>5669</v>
-      </c>
-      <c r="H1648" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1648" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1648" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1648" s="4" t="s">
-        <v>5670</v>
-      </c>
-    </row>
     <row r="1649" spans="5:14">
       <c r="E1649" t="s" s="0">
         <v>5671</v>
@@ -59300,72 +57106,6 @@
         <v>5670</v>
       </c>
     </row>
-    <row r="1667" spans="5:14">
-      <c r="E1667" t="s" s="0">
-        <v>5707</v>
-      </c>
-      <c r="F1667" t="s" s="0">
-        <v>5708</v>
-      </c>
-      <c r="G1667" t="s" s="0">
-        <v>5709</v>
-      </c>
-      <c r="H1667" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1667" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1667" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1667" s="4" t="s">
-        <v>5710</v>
-      </c>
-    </row>
-    <row r="1668" spans="5:14">
-      <c r="E1668" t="s" s="0">
-        <v>5711</v>
-      </c>
-      <c r="F1668" t="s" s="0">
-        <v>5712</v>
-      </c>
-      <c r="H1668" s="2" t="s">
-        <v>5713</v>
-      </c>
-      <c r="I1668" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1668" t="s" s="0">
-        <v>5714</v>
-      </c>
-      <c r="N1668" s="4" t="s">
-        <v>5715</v>
-      </c>
-    </row>
-    <row r="1669" spans="5:14">
-      <c r="E1669" t="s" s="0">
-        <v>5716</v>
-      </c>
-      <c r="F1669" t="s" s="0">
-        <v>5717</v>
-      </c>
-      <c r="G1669" t="s" s="0">
-        <v>5718</v>
-      </c>
-      <c r="H1669" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1669" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M1669" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1669" s="4" t="s">
-        <v>5719</v>
-      </c>
-    </row>
     <row r="1670" spans="5:14">
       <c r="E1670" t="s" s="0">
         <v>5720</v>
@@ -59386,26 +57126,6 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="1671" spans="5:14">
-      <c r="E1671" t="s" s="0">
-        <v>5722</v>
-      </c>
-      <c r="F1671" t="s" s="0">
-        <v>5723</v>
-      </c>
-      <c r="H1671" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="I1671" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1671" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1671" s="4" t="s">
-        <v>5724</v>
-      </c>
-    </row>
     <row r="1672" spans="5:14">
       <c r="E1672" t="s" s="0">
         <v>5725</v>
@@ -60626,26 +58346,6 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="1733" spans="5:14">
-      <c r="E1733" t="s" s="0">
-        <v>5848</v>
-      </c>
-      <c r="F1733" t="s" s="0">
-        <v>5849</v>
-      </c>
-      <c r="H1733" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1733" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1733" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N1733" s="4" t="s">
-        <v>5850</v>
-      </c>
-    </row>
     <row r="1734" spans="5:14">
       <c r="E1734" t="s" s="0">
         <v>5851</v>
@@ -61146,26 +58846,6 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="1759" spans="5:14">
-      <c r="E1759" t="s" s="0">
-        <v>5902</v>
-      </c>
-      <c r="F1759" t="s" s="0">
-        <v>5903</v>
-      </c>
-      <c r="H1759" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1759" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1759" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N1759" s="4" t="s">
-        <v>5850</v>
-      </c>
-    </row>
     <row r="1760" spans="5:14">
       <c r="E1760" t="s" s="0">
         <v>5904</v>
@@ -61206,32 +58886,6 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="1762" spans="5:14">
-      <c r="E1762" t="s" s="0">
-        <v>5908</v>
-      </c>
-      <c r="F1762" t="s" s="0">
-        <v>5909</v>
-      </c>
-      <c r="G1762" t="s" s="0">
-        <v>5910</v>
-      </c>
-      <c r="H1762" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1762" s="3" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J1762" t="s" s="0">
-        <v>5911</v>
-      </c>
-      <c r="M1762" t="s" s="0">
-        <v>5912</v>
-      </c>
-      <c r="N1762" s="4" t="s">
-        <v>5913</v>
-      </c>
-    </row>
     <row r="1763" spans="5:14">
       <c r="E1763" t="s" s="0">
         <v>5914</v>
@@ -61310,46 +58964,6 @@
         <v>5913</v>
       </c>
     </row>
-    <row r="1766" spans="5:14">
-      <c r="E1766" t="s" s="0">
-        <v>5927</v>
-      </c>
-      <c r="F1766" t="s" s="0">
-        <v>5928</v>
-      </c>
-      <c r="H1766" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I1766" s="3" t="s">
-        <v>1466</v>
-      </c>
-      <c r="M1766" t="s" s="0">
-        <v>1116</v>
-      </c>
-      <c r="N1766" s="4" t="s">
-        <v>5929</v>
-      </c>
-    </row>
-    <row r="1767" spans="5:14">
-      <c r="E1767" t="s" s="0">
-        <v>5930</v>
-      </c>
-      <c r="F1767" t="s" s="0">
-        <v>5931</v>
-      </c>
-      <c r="H1767" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1767" s="3" t="s">
-        <v>5932</v>
-      </c>
-      <c r="M1767" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1767" s="4" t="s">
-        <v>5933</v>
-      </c>
-    </row>
     <row r="1768" spans="5:14">
       <c r="E1768" t="s" s="0">
         <v>5934</v>
@@ -61450,26 +59064,6 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="1773" spans="5:14">
-      <c r="E1773" t="s" s="0">
-        <v>5936</v>
-      </c>
-      <c r="F1773" t="s" s="0">
-        <v>5944</v>
-      </c>
-      <c r="H1773" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1773" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1773" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1773" s="4" t="s">
-        <v>5945</v>
-      </c>
-    </row>
     <row r="1774" spans="5:14">
       <c r="E1774" t="s" s="0">
         <v>5930</v>
@@ -61630,29 +59224,6 @@
         <v>5945</v>
       </c>
     </row>
-    <row r="1782" spans="5:14">
-      <c r="E1782" t="s" s="0">
-        <v>5958</v>
-      </c>
-      <c r="F1782" t="s" s="0">
-        <v>5959</v>
-      </c>
-      <c r="G1782" t="s" s="0">
-        <v>5960</v>
-      </c>
-      <c r="H1782" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1782" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="M1782" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1782" s="4" t="s">
-        <v>5961</v>
-      </c>
-    </row>
     <row r="1783" spans="5:14">
       <c r="E1783" t="s" s="0">
         <v>5962</v>
@@ -61676,26 +59247,6 @@
         <v>5961</v>
       </c>
     </row>
-    <row r="1784" spans="5:14">
-      <c r="E1784" t="s" s="0">
-        <v>5965</v>
-      </c>
-      <c r="F1784" t="s" s="0">
-        <v>5966</v>
-      </c>
-      <c r="H1784" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="I1784" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1784" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1784" s="4" t="s">
-        <v>5967</v>
-      </c>
-    </row>
     <row r="1785" spans="5:14">
       <c r="E1785" t="s" s="0">
         <v>5968</v>
@@ -61796,26 +59347,6 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="1790" spans="5:14">
-      <c r="E1790" t="s" s="0">
-        <v>5978</v>
-      </c>
-      <c r="F1790" t="s" s="0">
-        <v>5979</v>
-      </c>
-      <c r="H1790" s="2" t="s">
-        <v>5980</v>
-      </c>
-      <c r="I1790" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="M1790" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1790" s="4" t="s">
-        <v>5967</v>
-      </c>
-    </row>
     <row r="1791" spans="5:14">
       <c r="E1791" t="s" s="0">
         <v>5981</v>
@@ -62176,26 +59707,6 @@
         <v>5967</v>
       </c>
     </row>
-    <row r="1809" spans="5:14">
-      <c r="E1809" t="s" s="0">
-        <v>6017</v>
-      </c>
-      <c r="F1809" t="s" s="0">
-        <v>6018</v>
-      </c>
-      <c r="H1809" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1809" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="M1809" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1809" s="4" t="s">
-        <v>6019</v>
-      </c>
-    </row>
     <row r="1810" spans="5:14">
       <c r="E1810" t="s" s="0">
         <v>6020</v>
@@ -62276,29 +59787,6 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="1814" spans="5:14">
-      <c r="E1814" t="s" s="0">
-        <v>6028</v>
-      </c>
-      <c r="F1814" t="s" s="0">
-        <v>6029</v>
-      </c>
-      <c r="G1814" t="s" s="0">
-        <v>6030</v>
-      </c>
-      <c r="H1814" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1814" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="M1814" t="s" s="0">
-        <v>781</v>
-      </c>
-      <c r="N1814" s="4" t="s">
-        <v>6031</v>
-      </c>
-    </row>
     <row r="1815" spans="5:14">
       <c r="E1815" t="s" s="0">
         <v>6032</v>
@@ -62368,26 +59856,6 @@
         <v>6031</v>
       </c>
     </row>
-    <row r="1818" spans="5:14">
-      <c r="E1818" t="s" s="0">
-        <v>6041</v>
-      </c>
-      <c r="F1818" t="s" s="0">
-        <v>6042</v>
-      </c>
-      <c r="H1818" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1818" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="M1818" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1818" s="4" t="s">
-        <v>6043</v>
-      </c>
-    </row>
     <row r="1819" spans="5:14">
       <c r="E1819" t="s" s="0">
         <v>6044</v>
@@ -62528,32 +59996,6 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="1826" spans="5:14">
-      <c r="E1826" t="s" s="0">
-        <v>6058</v>
-      </c>
-      <c r="F1826" t="s" s="0">
-        <v>6059</v>
-      </c>
-      <c r="G1826" t="s" s="0">
-        <v>6060</v>
-      </c>
-      <c r="H1826" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I1826" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1826" t="s" s="0">
-        <v>6061</v>
-      </c>
-      <c r="M1826" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1826" s="4" t="s">
-        <v>6062</v>
-      </c>
-    </row>
     <row r="1827" spans="5:14">
       <c r="E1827" t="s" s="0">
         <v>6063</v>
@@ -62684,26 +60126,6 @@
         <v>6062</v>
       </c>
     </row>
-    <row r="1832" spans="5:14">
-      <c r="E1832" t="s" s="0">
-        <v>6069</v>
-      </c>
-      <c r="F1832" t="s" s="0">
-        <v>6070</v>
-      </c>
-      <c r="H1832" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I1832" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="M1832" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1832" s="4" t="s">
-        <v>6071</v>
-      </c>
-    </row>
     <row r="1833" spans="5:14">
       <c r="E1833" t="s" s="0">
         <v>6072</v>
@@ -63374,49 +60796,6 @@
         <v>6132</v>
       </c>
     </row>
-    <row r="1865" spans="5:14">
-      <c r="E1865" t="s" s="0">
-        <v>6146</v>
-      </c>
-      <c r="F1865" t="s" s="0">
-        <v>6147</v>
-      </c>
-      <c r="G1865" t="s" s="0">
-        <v>6148</v>
-      </c>
-      <c r="H1865" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="I1865" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="M1865" t="s" s="0">
-        <v>1116</v>
-      </c>
-      <c r="N1865" s="4" t="s">
-        <v>6149</v>
-      </c>
-    </row>
-    <row r="1866" spans="5:14">
-      <c r="E1866" t="s" s="0">
-        <v>6150</v>
-      </c>
-      <c r="F1866" t="s" s="0">
-        <v>6151</v>
-      </c>
-      <c r="H1866" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1866" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M1866" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N1866" s="4" t="s">
-        <v>6152</v>
-      </c>
-    </row>
     <row r="1867" spans="5:14">
       <c r="E1867" t="s" s="0">
         <v>6153</v>
@@ -63477,29 +60856,6 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="1870" ht="32" spans="5:14">
-      <c r="E1870" t="s" s="0">
-        <v>6159</v>
-      </c>
-      <c r="F1870" t="s" s="0">
-        <v>6160</v>
-      </c>
-      <c r="G1870" s="9" t="s">
-        <v>6161</v>
-      </c>
-      <c r="H1870" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1870" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1870" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1870" s="4" t="s">
-        <v>6162</v>
-      </c>
-    </row>
     <row r="1871" spans="5:14">
       <c r="E1871" t="s" s="0">
         <v>6163</v>
@@ -63600,26 +60956,6 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="1876" spans="5:14">
-      <c r="E1876" t="s" s="0">
-        <v>6174</v>
-      </c>
-      <c r="F1876" t="s" s="0">
-        <v>6175</v>
-      </c>
-      <c r="H1876" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1876" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M1876" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1876" s="4" t="s">
-        <v>6176</v>
-      </c>
-    </row>
     <row r="1877" spans="5:14">
       <c r="E1877" t="s" s="0">
         <v>6177</v>
@@ -63700,26 +61036,6 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="1881" spans="5:14">
-      <c r="E1881" t="s" s="0">
-        <v>6185</v>
-      </c>
-      <c r="F1881" t="s" s="0">
-        <v>6186</v>
-      </c>
-      <c r="H1881" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1881" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1881" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1881" s="4" t="s">
-        <v>6187</v>
-      </c>
-    </row>
     <row r="1882" spans="5:14">
       <c r="E1882" t="s" s="0">
         <v>6188</v>
@@ -63940,29 +61256,6 @@
         <v>6187</v>
       </c>
     </row>
-    <row r="1893" spans="5:14">
-      <c r="E1893" t="s" s="0">
-        <v>6211</v>
-      </c>
-      <c r="F1893" t="s" s="0">
-        <v>6212</v>
-      </c>
-      <c r="G1893" t="s" s="0">
-        <v>6213</v>
-      </c>
-      <c r="H1893" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="I1893" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1893" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1893" s="4" t="s">
-        <v>6214</v>
-      </c>
-    </row>
     <row r="1894" spans="5:14">
       <c r="E1894" t="s" s="0">
         <v>6215</v>
@@ -63984,29 +61277,6 @@
         <v>6214</v>
       </c>
     </row>
-    <row r="1895" spans="5:14">
-      <c r="E1895" t="s" s="0">
-        <v>6217</v>
-      </c>
-      <c r="F1895" t="s" s="0">
-        <v>6218</v>
-      </c>
-      <c r="G1895" t="s" s="0">
-        <v>6219</v>
-      </c>
-      <c r="H1895" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1895" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M1895" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1895" s="4" t="s">
-        <v>6220</v>
-      </c>
-    </row>
     <row r="1896" spans="5:14">
       <c r="E1896" t="s" s="0">
         <v>6221</v>
@@ -64087,26 +61357,6 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="1900" spans="5:14">
-      <c r="E1900" t="s" s="0">
-        <v>6229</v>
-      </c>
-      <c r="F1900" t="s" s="0">
-        <v>6230</v>
-      </c>
-      <c r="H1900" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1900" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="M1900" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1900" s="4" t="s">
-        <v>6231</v>
-      </c>
-    </row>
     <row r="1901" spans="5:14">
       <c r="E1901" t="s" s="0">
         <v>6232</v>
@@ -64167,26 +61417,6 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="1904" spans="5:14">
-      <c r="E1904" t="s" s="0">
-        <v>6238</v>
-      </c>
-      <c r="F1904" t="s" s="0">
-        <v>6239</v>
-      </c>
-      <c r="H1904" s="2" t="s">
-        <v>6240</v>
-      </c>
-      <c r="I1904" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1904" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1904" s="4" t="s">
-        <v>6231</v>
-      </c>
-    </row>
     <row r="1905" spans="5:14">
       <c r="E1905" t="s" s="0">
         <v>6241</v>
@@ -64289,26 +61519,6 @@
         <v>6231</v>
       </c>
     </row>
-    <row r="1910" spans="5:14">
-      <c r="E1910" t="s" s="0">
-        <v>6251</v>
-      </c>
-      <c r="F1910" t="s" s="0">
-        <v>6252</v>
-      </c>
-      <c r="H1910" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I1910" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1910" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1910" s="4" t="s">
-        <v>6253</v>
-      </c>
-    </row>
     <row r="1911" spans="5:14">
       <c r="E1911" t="s" s="0">
         <v>6254</v>
@@ -64969,26 +62179,6 @@
         <v>6253</v>
       </c>
     </row>
-    <row r="1944" spans="5:14">
-      <c r="E1944" t="s" s="0">
-        <v>6321</v>
-      </c>
-      <c r="F1944" t="s" s="0">
-        <v>6322</v>
-      </c>
-      <c r="H1944" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I1944" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1944" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1944" s="4" t="s">
-        <v>6323</v>
-      </c>
-    </row>
     <row r="1945" spans="5:14">
       <c r="E1945" t="s" s="0">
         <v>6324</v>
@@ -65009,29 +62199,6 @@
         <v>6323</v>
       </c>
     </row>
-    <row r="1946" spans="5:14">
-      <c r="E1946" t="s" s="0">
-        <v>6326</v>
-      </c>
-      <c r="F1946" t="s" s="0">
-        <v>6327</v>
-      </c>
-      <c r="G1946" t="s" s="0">
-        <v>6328</v>
-      </c>
-      <c r="H1946" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1946" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1946" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1946" s="4" t="s">
-        <v>6329</v>
-      </c>
-    </row>
     <row r="1947" spans="5:14">
       <c r="E1947" t="s" s="0">
         <v>6330</v>
@@ -65216,26 +62383,6 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="1955" spans="5:14">
-      <c r="E1955" t="s" s="0">
-        <v>6352</v>
-      </c>
-      <c r="F1955" t="s" s="0">
-        <v>6353</v>
-      </c>
-      <c r="H1955" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1955" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1955" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1955" s="4" t="s">
-        <v>6354</v>
-      </c>
-    </row>
     <row r="1956" spans="5:14">
       <c r="E1956" t="s" s="0">
         <v>6355</v>
@@ -65496,32 +62643,6 @@
         <v>6354</v>
       </c>
     </row>
-    <row r="1969" spans="5:14">
-      <c r="E1969" t="s" s="0">
-        <v>6382</v>
-      </c>
-      <c r="F1969" t="s" s="0">
-        <v>6383</v>
-      </c>
-      <c r="G1969" t="s" s="0">
-        <v>6384</v>
-      </c>
-      <c r="H1969" s="2" t="s">
-        <v>6385</v>
-      </c>
-      <c r="I1969" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1969" t="s" s="0">
-        <v>6386</v>
-      </c>
-      <c r="M1969" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1969" s="4" t="s">
-        <v>6387</v>
-      </c>
-    </row>
     <row r="1970" spans="5:14">
       <c r="E1970" t="s" s="0">
         <v>6388</v>
@@ -65600,29 +62721,6 @@
         <v>6387</v>
       </c>
     </row>
-    <row r="1973" ht="17.6" spans="5:14">
-      <c r="E1973" t="s" s="0">
-        <v>6397</v>
-      </c>
-      <c r="F1973" t="s" s="0">
-        <v>6398</v>
-      </c>
-      <c r="G1973" s="8" t="s">
-        <v>6399</v>
-      </c>
-      <c r="H1973" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1973" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1973" t="s" s="0">
-        <v>6400</v>
-      </c>
-      <c r="N1973" s="4" t="s">
-        <v>6401</v>
-      </c>
-    </row>
     <row r="1974" ht="17.6" spans="5:14">
       <c r="E1974" t="s" s="0">
         <v>6402</v>
@@ -65646,26 +62744,6 @@
         <v>6401</v>
       </c>
     </row>
-    <row r="1975" spans="5:14">
-      <c r="E1975" t="s" s="0">
-        <v>6404</v>
-      </c>
-      <c r="F1975" t="s" s="0">
-        <v>6405</v>
-      </c>
-      <c r="H1975" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1975" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="M1975" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1975" s="4" t="s">
-        <v>6406</v>
-      </c>
-    </row>
     <row r="1976" spans="5:14">
       <c r="E1976" t="s" s="0">
         <v>6407</v>
@@ -66001,32 +63079,6 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="1992" spans="5:14">
-      <c r="E1992" t="s" s="0">
-        <v>6446</v>
-      </c>
-      <c r="F1992" t="s" s="0">
-        <v>6447</v>
-      </c>
-      <c r="G1992" s="0">
-        <v>35622350000</v>
-      </c>
-      <c r="H1992" s="2" t="s">
-        <v>6448</v>
-      </c>
-      <c r="I1992" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1992" t="s" s="0">
-        <v>6449</v>
-      </c>
-      <c r="M1992" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="N1992" s="4" t="s">
-        <v>6450</v>
-      </c>
-    </row>
     <row r="1993" spans="5:14">
       <c r="E1993" t="s" s="0">
         <v>6451</v>
@@ -66105,35 +63157,6 @@
         <v>6450</v>
       </c>
     </row>
-    <row r="1996" spans="5:14">
-      <c r="E1996" t="s" s="0">
-        <v>6460</v>
-      </c>
-      <c r="F1996" t="s" s="0">
-        <v>6461</v>
-      </c>
-      <c r="H1996" s="2" t="s">
-        <v>6462</v>
-      </c>
-      <c r="I1996" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1996" t="s" s="0">
-        <v>6463</v>
-      </c>
-      <c r="K1996" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L1996" t="s" s="0">
-        <v>1435</v>
-      </c>
-      <c r="M1996" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="N1996" s="4" t="s">
-        <v>6464</v>
-      </c>
-    </row>
     <row r="1997" spans="5:14">
       <c r="E1997" t="s" s="0">
         <v>6465</v>
@@ -66162,303 +63185,6 @@
       <c r="N1997" s="4" t="s">
         <v>6464</v>
       </c>
-    </row>
-    <row r="2023" spans="7:7">
-      <c r="G2023" s="10"/>
-    </row>
-    <row r="2046" spans="11:12">
-      <c r="K2046" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2046" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2047" spans="11:12">
-      <c r="K2047" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2047" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2048" spans="11:12">
-      <c r="K2048" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2048" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2049" spans="11:12">
-      <c r="K2049" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2049" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2050" spans="11:12">
-      <c r="K2050" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2050" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2051" spans="11:12">
-      <c r="K2051" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2051" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2068" spans="11:12">
-      <c r="K2068" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2068" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2069" spans="11:12">
-      <c r="K2069" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2069" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2070" spans="11:12">
-      <c r="K2070" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2070" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2220" spans="11:12">
-      <c r="K2220" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2220" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2221" spans="11:12">
-      <c r="K2221" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2221" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2222" spans="11:12">
-      <c r="K2222" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2222" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2223" spans="11:12">
-      <c r="K2223" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2223" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2225" spans="11:12">
-      <c r="K2225" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2225" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2226" spans="11:12">
-      <c r="K2226" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2226" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2227" spans="11:12">
-      <c r="K2227" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2227" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2228" spans="11:12">
-      <c r="K2228" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2228" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2229" spans="11:12">
-      <c r="K2229" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2229" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2232" spans="11:12">
-      <c r="K2232" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2232" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2233" spans="11:12">
-      <c r="K2233" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2233" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2234" spans="11:12">
-      <c r="K2234" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2234" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2235" spans="11:12">
-      <c r="K2235" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2235" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2236" spans="11:12">
-      <c r="K2236" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2236" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2237" spans="11:12">
-      <c r="K2237" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2237" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2238" spans="11:12">
-      <c r="K2238" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2238" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2240" spans="11:12">
-      <c r="K2240" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2240" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2241" spans="11:12">
-      <c r="K2241" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2241" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2242" spans="11:12">
-      <c r="K2242" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2242" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2432" spans="7:12">
-      <c r="G2432" s="7"/>
-      <c r="H2432" s="2"/>
-      <c r="I2432" s="3"/>
-      <c r="J2432" s="0"/>
-      <c r="K2432" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2432" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2433" spans="7:12">
-      <c r="G2433" s="7"/>
-      <c r="H2433" s="2"/>
-      <c r="K2433" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2433" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2471" spans="7:7">
-      <c r="G2471" s="10"/>
-    </row>
-    <row r="2472" spans="7:7">
-      <c r="G2472" s="10"/>
-    </row>
-    <row r="2485" spans="11:12">
-      <c r="K2485" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2485" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2486" spans="11:12">
-      <c r="K2486" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2486" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2487" spans="11:12">
-      <c r="K2487" t="s" s="0">
-        <v>1434</v>
-      </c>
-      <c r="L2487" t="s" s="0">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="2556" spans="7:7">
-      <c r="G2556" s="9"/>
-    </row>
-    <row r="2557" spans="7:7">
-      <c r="G2557" s="9"/>
-    </row>
-    <row r="2558" spans="7:7">
-      <c r="G2558" s="9"/>
-    </row>
-    <row r="2559" spans="7:7">
-      <c r="G2559" s="9"/>
-    </row>
-    <row r="2560" spans="7:7">
-      <c r="G2560" s="9"/>
-    </row>
-    <row r="2561" spans="7:7">
-      <c r="G2561" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="H1:H2688" etc:filterBottomFollowUsedRange="0">

--- a/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
+++ b/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
@@ -4206,7 +4206,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E4:N269"/>
+  <dimension ref="E7:N267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
@@ -4215,660 +4215,264 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="7" max="7" width="12.6875"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="14" max="14" width="9" style="2"/>
+    <col min="8" max="8" style="1" width="9.0"/>
+    <col min="14" max="14" style="2" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:14">
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="5:14">
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="5:14">
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="7" spans="5:14">
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="M7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="5:14">
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="5:14">
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="5:14">
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="5:14">
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="M11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="5:14">
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14">
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14">
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14">
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14">
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="17" spans="5:14">
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>70</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="M17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="5:14">
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>74</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="M18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="M18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="5:14">
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="M19" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="M19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="5:14">
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>74</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="M20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="5:14">
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" t="s">
-        <v>89</v>
-      </c>
-      <c r="M21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14">
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" t="s">
-        <v>94</v>
-      </c>
-      <c r="J22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14">
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" t="s">
-        <v>100</v>
-      </c>
-      <c r="J24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="E27" t="s">
-        <v>118</v>
-      </c>
-      <c r="F27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" t="s">
-        <v>121</v>
-      </c>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="28" spans="5:14">
-      <c r="E28" t="s">
+      <c r="E28" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" t="s" s="0">
         <v>124</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -4876,25 +4480,25 @@
       </c>
     </row>
     <row r="29" spans="5:14">
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>128</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4902,1091 +4506,493 @@
       </c>
     </row>
     <row r="30" spans="5:14">
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>132</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="5:14">
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="5:14">
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M32" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="33" spans="5:14">
-      <c r="E33" t="s">
+      <c r="E33" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" t="s" s="0">
         <v>143</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="M33" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="M33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>140</v>
       </c>
     </row>
     <row r="34" spans="5:14">
-      <c r="E34" t="s">
+      <c r="E34" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" t="s" s="0">
         <v>151</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="M34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="M34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="5:14">
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F35" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" t="s">
-        <v>157</v>
-      </c>
-      <c r="M35" t="s">
-        <v>6</v>
-      </c>
-      <c r="N35" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="5:14">
-      <c r="E36" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" t="s">
-        <v>155</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I36" t="s">
-        <v>161</v>
-      </c>
-      <c r="J36" t="s">
-        <v>162</v>
-      </c>
-      <c r="M36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" t="s">
-        <v>158</v>
-      </c>
-    </row>
     <row r="37" spans="5:14">
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>155</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="M37" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="M37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>158</v>
       </c>
     </row>
     <row r="38" spans="5:14">
-      <c r="E38" t="s">
+      <c r="E38" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" t="s" s="0">
         <v>155</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="M38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="M38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="5:14">
-      <c r="E39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" t="s">
-        <v>173</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" t="s">
-        <v>94</v>
-      </c>
-      <c r="J39" t="s">
-        <v>175</v>
-      </c>
-      <c r="M39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="5:14">
-      <c r="E40" t="s">
-        <v>177</v>
-      </c>
-      <c r="F40" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" t="s">
-        <v>180</v>
-      </c>
-      <c r="M40" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="5:14">
-      <c r="E41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F41" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I41" t="s">
-        <v>183</v>
-      </c>
-      <c r="J41" t="s">
-        <v>184</v>
-      </c>
-      <c r="M41" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="42" spans="5:14">
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>173</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="M42" t="s">
-        <v>6</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="M42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="5:14">
-      <c r="E43" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" t="s">
-        <v>190</v>
-      </c>
-      <c r="G43" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I43" t="s">
-        <v>193</v>
-      </c>
-      <c r="J43" t="s">
-        <v>194</v>
-      </c>
-      <c r="M43" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="5:14">
-      <c r="E44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" t="s">
-        <v>197</v>
-      </c>
-      <c r="G44" t="s">
-        <v>191</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I44" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" t="s">
-        <v>199</v>
-      </c>
-      <c r="M44" t="s">
-        <v>6</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="45" spans="5:14">
-      <c r="E45" t="s">
+      <c r="E45" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" t="s" s="0">
         <v>191</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="M45" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="M45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="46" spans="5:14">
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>191</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="M46" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="M46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="5:14">
-      <c r="E47" t="s">
-        <v>207</v>
-      </c>
-      <c r="F47" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" t="s">
-        <v>209</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" t="s">
-        <v>165</v>
-      </c>
-      <c r="J47" t="s">
-        <v>211</v>
-      </c>
-      <c r="M47" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="5:14">
-      <c r="E48" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" t="s">
-        <v>214</v>
-      </c>
-      <c r="G48" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" t="s">
-        <v>216</v>
-      </c>
-      <c r="J48" t="s">
-        <v>217</v>
-      </c>
-      <c r="M48" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="5:14">
-      <c r="E49" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" t="s">
-        <v>165</v>
-      </c>
-      <c r="J49" t="s">
-        <v>221</v>
-      </c>
-      <c r="M49" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" t="s">
-        <v>218</v>
-      </c>
-    </row>
     <row r="50" spans="5:14">
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>223</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>215</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="s" s="0">
         <v>183</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="M50" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="M50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="51" spans="5:14">
-      <c r="E51" t="s">
+      <c r="E51" t="s" s="0">
         <v>225</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" t="s" s="0">
         <v>215</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="M51" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="M51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="52" spans="5:14">
-      <c r="E52" t="s">
+      <c r="E52" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" t="s" s="0">
         <v>215</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="M52" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="M52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="53" spans="5:14">
-      <c r="E53" t="s">
+      <c r="E53" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" t="s" s="0">
         <v>215</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="M53" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="M53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="5:14">
-      <c r="E54" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I54" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" t="s">
-        <v>239</v>
-      </c>
-      <c r="M54" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="5:14">
-      <c r="E55" t="s">
-        <v>241</v>
-      </c>
-      <c r="F55" t="s">
-        <v>242</v>
-      </c>
-      <c r="G55" t="s">
-        <v>237</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I55" t="s">
-        <v>161</v>
-      </c>
-      <c r="J55" t="s">
-        <v>239</v>
-      </c>
-      <c r="M55" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="5:14">
-      <c r="E56" t="s">
-        <v>243</v>
-      </c>
-      <c r="F56" t="s">
-        <v>244</v>
-      </c>
-      <c r="G56" t="s">
-        <v>237</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I56" t="s">
-        <v>40</v>
-      </c>
-      <c r="J56" t="s">
-        <v>239</v>
-      </c>
-      <c r="M56" t="s">
-        <v>6</v>
-      </c>
-      <c r="N56" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="5:14">
-      <c r="E57" t="s">
-        <v>245</v>
-      </c>
-      <c r="F57" t="s">
-        <v>246</v>
-      </c>
-      <c r="G57" t="s">
-        <v>247</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I57" t="s">
-        <v>248</v>
-      </c>
-      <c r="J57" t="s">
-        <v>249</v>
-      </c>
-      <c r="M57" t="s">
-        <v>6</v>
-      </c>
-      <c r="N57" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="58" spans="5:14">
-      <c r="E58" t="s">
-        <v>251</v>
-      </c>
-      <c r="F58" t="s">
-        <v>252</v>
-      </c>
-      <c r="G58" t="s">
-        <v>247</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I58" t="s">
-        <v>100</v>
-      </c>
-      <c r="J58" t="s">
-        <v>249</v>
-      </c>
-      <c r="M58" t="s">
-        <v>6</v>
-      </c>
-      <c r="N58" t="s">
-        <v>250</v>
-      </c>
-    </row>
     <row r="59" spans="5:14">
-      <c r="E59" t="s">
+      <c r="E59" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" t="s" s="0">
         <v>247</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="M59" t="s">
-        <v>6</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="M59" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="60" spans="5:14">
-      <c r="E60" t="s">
+      <c r="E60" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" t="s" s="0">
         <v>247</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="M60" t="s">
-        <v>6</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="M60" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="61" spans="5:14">
-      <c r="E61" t="s">
+      <c r="E61" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" t="s" s="0">
         <v>247</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="M61" t="s">
-        <v>6</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="M61" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="62" spans="5:14">
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>247</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="M62" t="s">
-        <v>6</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="M62" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="5:14">
-      <c r="E63" t="s">
-        <v>262</v>
-      </c>
-      <c r="F63" t="s">
-        <v>263</v>
-      </c>
-      <c r="G63" t="s">
-        <v>264</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I63" t="s">
-        <v>265</v>
-      </c>
-      <c r="J63" t="s">
-        <v>266</v>
-      </c>
-      <c r="M63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N63" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="5:14">
-      <c r="E64" t="s">
-        <v>268</v>
-      </c>
-      <c r="F64" t="s">
-        <v>269</v>
-      </c>
-      <c r="G64" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I64" t="s">
-        <v>270</v>
-      </c>
-      <c r="J64" t="s">
-        <v>271</v>
-      </c>
-      <c r="M64" t="s">
-        <v>6</v>
-      </c>
-      <c r="N64" t="s">
-        <v>267</v>
-      </c>
-    </row>
     <row r="65" spans="5:14">
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>272</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>273</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>264</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="M65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="M65" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>267</v>
       </c>
     </row>
     <row r="66" spans="5:14">
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>275</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>277</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="M66" t="s">
-        <v>6</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="M66" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="67" spans="5:14">
-      <c r="E67" t="s">
-        <v>281</v>
-      </c>
-      <c r="F67" t="s">
-        <v>282</v>
-      </c>
-      <c r="G67">
-        <v>38349525222</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I67" t="s">
-        <v>40</v>
-      </c>
-      <c r="J67" t="s">
-        <v>284</v>
-      </c>
-      <c r="M67" t="s">
-        <v>6</v>
-      </c>
-      <c r="N67" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="5:14">
-      <c r="E68" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" t="s">
-        <v>287</v>
-      </c>
-      <c r="G68">
-        <v>38349525222</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="I68" t="s">
-        <v>248</v>
-      </c>
-      <c r="J68" t="s">
-        <v>288</v>
-      </c>
-      <c r="M68" t="s">
-        <v>6</v>
-      </c>
-      <c r="N68" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" t="s">
-        <v>289</v>
-      </c>
-      <c r="F69" t="s">
-        <v>290</v>
-      </c>
-      <c r="G69" t="s">
-        <v>291</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I69" t="s">
-        <v>293</v>
-      </c>
-      <c r="J69" t="s">
-        <v>294</v>
-      </c>
-      <c r="M69" t="s">
-        <v>6</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="70" spans="5:14">
-      <c r="E70" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" t="s">
-        <v>297</v>
-      </c>
-      <c r="G70" t="s">
-        <v>298</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I70" t="s">
-        <v>110</v>
-      </c>
-      <c r="J70" t="s">
-        <v>299</v>
-      </c>
-      <c r="M70" t="s">
-        <v>6</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
     <row r="71" spans="5:14">
-      <c r="E71" t="s">
+      <c r="E71" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" t="s" s="0">
         <v>302</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" t="s" s="0">
         <v>304</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5994,25 +5000,25 @@
       </c>
     </row>
     <row r="72" spans="5:14">
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>306</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>307</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>308</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>309</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6020,25 +5026,25 @@
       </c>
     </row>
     <row r="73" spans="5:14">
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>311</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>312</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" t="s" s="0">
         <v>313</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6046,25 +5052,25 @@
       </c>
     </row>
     <row r="74" spans="5:14">
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>314</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>316</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" t="s" s="0">
         <v>317</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6072,25 +5078,25 @@
       </c>
     </row>
     <row r="75" spans="5:14">
-      <c r="E75" t="s">
+      <c r="E75" t="s" s="0">
         <v>318</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" t="s" s="0">
         <v>319</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" t="s" s="0">
         <v>320</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" t="s" s="0">
         <v>321</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6098,25 +5104,25 @@
       </c>
     </row>
     <row r="76" spans="5:14">
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>322</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>323</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" t="s" s="0">
         <v>325</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6124,25 +5130,25 @@
       </c>
     </row>
     <row r="77" spans="5:14">
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>326</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>327</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>328</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="s" s="0">
         <v>330</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6150,25 +5156,25 @@
       </c>
     </row>
     <row r="78" spans="5:14">
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="0">
         <v>331</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>332</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" t="s" s="0">
         <v>335</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6176,25 +5182,25 @@
       </c>
     </row>
     <row r="79" spans="5:14">
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>336</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>337</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>338</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" t="s" s="0">
         <v>339</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6202,25 +5208,25 @@
       </c>
     </row>
     <row r="80" spans="5:14">
-      <c r="E80" t="s">
+      <c r="E80" t="s" s="0">
         <v>340</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" t="s" s="0">
         <v>341</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" t="s" s="0">
         <v>343</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6228,25 +5234,25 @@
       </c>
     </row>
     <row r="81" spans="5:14">
-      <c r="E81" t="s">
+      <c r="E81" t="s" s="0">
         <v>344</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" t="s" s="0">
         <v>345</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" t="s" s="0">
         <v>346</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" t="s" s="0">
         <v>347</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6254,25 +5260,25 @@
       </c>
     </row>
     <row r="82" spans="5:14">
-      <c r="E82" t="s">
+      <c r="E82" t="s" s="0">
         <v>348</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" t="s" s="0">
         <v>349</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" t="s" s="0">
         <v>350</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" t="s" s="0">
         <v>351</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6280,25 +5286,25 @@
       </c>
     </row>
     <row r="83" spans="5:14">
-      <c r="E83" t="s">
+      <c r="E83" t="s" s="0">
         <v>352</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" t="s" s="0">
         <v>353</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" t="s" s="0">
         <v>354</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" t="s" s="0">
         <v>355</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6306,25 +5312,25 @@
       </c>
     </row>
     <row r="84" spans="5:14">
-      <c r="E84" t="s">
+      <c r="E84" t="s" s="0">
         <v>356</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" t="s" s="0">
         <v>357</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" t="s" s="0">
         <v>316</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="s" s="0">
         <v>358</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" t="s" s="0">
         <v>359</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6332,25 +5338,25 @@
       </c>
     </row>
     <row r="85" spans="5:14">
-      <c r="E85" t="s">
+      <c r="E85" t="s" s="0">
         <v>360</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" t="s" s="0">
         <v>361</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" t="s" s="0">
         <v>362</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6358,25 +5364,25 @@
       </c>
     </row>
     <row r="86" spans="5:14">
-      <c r="E86" t="s">
+      <c r="E86" t="s" s="0">
         <v>364</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" t="s" s="0">
         <v>365</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" t="s" s="0">
         <v>366</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" t="s" s="0">
         <v>367</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6384,25 +5390,25 @@
       </c>
     </row>
     <row r="87" spans="5:14">
-      <c r="E87" t="s">
+      <c r="E87" t="s" s="0">
         <v>368</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" t="s" s="0">
         <v>369</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" t="s" s="0">
         <v>346</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" t="s" s="0">
         <v>370</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6410,25 +5416,25 @@
       </c>
     </row>
     <row r="88" spans="5:14">
-      <c r="E88" t="s">
+      <c r="E88" t="s" s="0">
         <v>371</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" t="s" s="0">
         <v>372</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" t="s" s="0">
         <v>316</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" t="s" s="0">
         <v>373</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6436,25 +5442,25 @@
       </c>
     </row>
     <row r="89" spans="5:14">
-      <c r="E89" t="s">
+      <c r="E89" t="s" s="0">
         <v>374</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" t="s" s="0">
         <v>375</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" t="s" s="0">
         <v>354</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" t="s" s="0">
         <v>376</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6462,25 +5468,25 @@
       </c>
     </row>
     <row r="90" spans="5:14">
-      <c r="E90" t="s">
+      <c r="E90" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" t="s" s="0">
         <v>378</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" t="s" s="0">
         <v>379</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -6488,25 +5494,25 @@
       </c>
     </row>
     <row r="91" spans="5:14">
-      <c r="E91" t="s">
+      <c r="E91" t="s" s="0">
         <v>381</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" t="s" s="0">
         <v>383</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6514,25 +5520,25 @@
       </c>
     </row>
     <row r="92" spans="5:14">
-      <c r="E92" t="s">
+      <c r="E92" t="s" s="0">
         <v>386</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6540,25 +5546,25 @@
       </c>
     </row>
     <row r="93" spans="5:14">
-      <c r="E93" t="s">
+      <c r="E93" t="s" s="0">
         <v>390</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" t="s" s="0">
         <v>392</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6566,25 +5572,25 @@
       </c>
     </row>
     <row r="94" spans="5:14">
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>394</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>395</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>396</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>398</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6592,25 +5598,25 @@
       </c>
     </row>
     <row r="95" spans="5:14">
-      <c r="E95" t="s">
+      <c r="E95" t="s" s="0">
         <v>399</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" t="s" s="0">
         <v>400</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="s" s="0">
         <v>293</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6618,25 +5624,25 @@
       </c>
     </row>
     <row r="96" spans="5:14">
-      <c r="E96" t="s">
+      <c r="E96" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" t="s" s="0">
         <v>403</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" t="s" s="0">
         <v>404</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6644,25 +5650,25 @@
       </c>
     </row>
     <row r="97" spans="5:14">
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>407</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" t="s" s="0">
         <v>354</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" t="s" s="0">
         <v>410</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6670,25 +5676,25 @@
       </c>
     </row>
     <row r="98" spans="5:14">
-      <c r="E98" t="s">
+      <c r="E98" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="0">
         <v>412</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6696,25 +5702,25 @@
       </c>
     </row>
     <row r="99" spans="5:14">
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="s" s="0">
         <v>416</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" t="s" s="0">
         <v>417</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6722,25 +5728,25 @@
       </c>
     </row>
     <row r="100" spans="5:14">
-      <c r="E100" t="s">
+      <c r="E100" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" t="s" s="0">
         <v>419</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" t="s" s="0">
         <v>316</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -6748,25 +5754,25 @@
       </c>
     </row>
     <row r="101" spans="5:14">
-      <c r="E101" t="s">
+      <c r="E101" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" t="s" s="0">
         <v>316</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -6774,25 +5780,25 @@
       </c>
     </row>
     <row r="102" spans="5:14">
-      <c r="E102" t="s">
+      <c r="E102" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="s" s="0">
         <v>426</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6800,25 +5806,25 @@
       </c>
     </row>
     <row r="103" spans="5:14">
-      <c r="E103" t="s">
+      <c r="E103" t="s" s="0">
         <v>428</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="s" s="0">
         <v>430</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" t="s" s="0">
         <v>432</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -6826,25 +5832,25 @@
       </c>
     </row>
     <row r="104" spans="5:14">
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>434</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>354</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" t="s" s="0">
         <v>436</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -6852,25 +5858,25 @@
       </c>
     </row>
     <row r="105" spans="5:14">
-      <c r="E105" t="s">
+      <c r="E105" t="s" s="0">
         <v>437</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>438</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>328</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="s" s="0">
         <v>397</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -6878,25 +5884,25 @@
       </c>
     </row>
     <row r="106" spans="5:14">
-      <c r="E106" t="s">
+      <c r="E106" t="s" s="0">
         <v>440</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>441</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" t="s" s="0">
         <v>443</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -6904,25 +5910,25 @@
       </c>
     </row>
     <row r="107" spans="5:14">
-      <c r="E107" t="s">
+      <c r="E107" t="s" s="0">
         <v>444</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" t="s" s="0">
         <v>445</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" t="s" s="0">
         <v>446</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" t="s" s="0">
         <v>447</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -6930,25 +5936,25 @@
       </c>
     </row>
     <row r="108" spans="5:14">
-      <c r="E108" t="s">
+      <c r="E108" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" t="s" s="0">
         <v>449</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" t="s" s="0">
         <v>354</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" t="s" s="0">
         <v>450</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -6956,25 +5962,25 @@
       </c>
     </row>
     <row r="109" spans="5:14">
-      <c r="E109" t="s">
+      <c r="E109" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" t="s" s="0">
         <v>452</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" t="s" s="0">
         <v>430</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" t="s" s="0">
         <v>453</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -6982,25 +5988,25 @@
       </c>
     </row>
     <row r="110" spans="5:14">
-      <c r="E110" t="s">
+      <c r="E110" t="s" s="0">
         <v>454</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" t="s" s="0">
         <v>455</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" t="s" s="0">
         <v>456</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" t="s" s="0">
         <v>329</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" t="s" s="0">
         <v>457</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7008,25 +6014,25 @@
       </c>
     </row>
     <row r="111" spans="5:14">
-      <c r="E111" t="s">
+      <c r="E111" t="s" s="0">
         <v>458</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" t="s" s="0">
         <v>460</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" t="s" s="0">
         <v>461</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7034,25 +6040,25 @@
       </c>
     </row>
     <row r="112" spans="5:14">
-      <c r="E112" t="s">
+      <c r="E112" t="s" s="0">
         <v>462</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" t="s" s="0">
         <v>463</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" t="s" s="0">
         <v>379</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" t="s" s="0">
         <v>464</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" t="s" s="0">
         <v>465</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7060,25 +6066,25 @@
       </c>
     </row>
     <row r="113" spans="5:14">
-      <c r="E113" t="s">
+      <c r="E113" t="s" s="0">
         <v>466</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" t="s" s="0">
         <v>467</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" t="s" s="0">
         <v>468</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" t="s" s="0">
         <v>469</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7086,25 +6092,25 @@
       </c>
     </row>
     <row r="114" spans="5:14">
-      <c r="E114" t="s">
+      <c r="E114" t="s" s="0">
         <v>470</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" t="s" s="0">
         <v>471</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" t="s" s="0">
         <v>472</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7112,25 +6118,25 @@
       </c>
     </row>
     <row r="115" spans="5:14">
-      <c r="E115" t="s">
+      <c r="E115" t="s" s="0">
         <v>474</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" t="s" s="0">
         <v>475</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" t="s" s="0">
         <v>476</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7138,25 +6144,25 @@
       </c>
     </row>
     <row r="116" spans="5:14">
-      <c r="E116" t="s">
+      <c r="E116" t="s" s="0">
         <v>477</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" t="s" s="0">
         <v>478</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" t="s" s="0">
         <v>479</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7164,25 +6170,25 @@
       </c>
     </row>
     <row r="117" spans="5:14">
-      <c r="E117" t="s">
+      <c r="E117" t="s" s="0">
         <v>480</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" t="s" s="0">
         <v>481</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" t="s" s="0">
         <v>482</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7190,25 +6196,25 @@
       </c>
     </row>
     <row r="118" spans="5:14">
-      <c r="E118" t="s">
+      <c r="E118" t="s" s="0">
         <v>483</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" t="s" s="0">
         <v>484</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" t="s" s="0">
         <v>354</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" t="s" s="0">
         <v>485</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7216,25 +6222,25 @@
       </c>
     </row>
     <row r="119" spans="5:14">
-      <c r="E119" t="s">
+      <c r="E119" t="s" s="0">
         <v>486</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" t="s" s="0">
         <v>487</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" t="s" s="0">
         <v>328</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" t="s" s="0">
         <v>488</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7242,25 +6248,25 @@
       </c>
     </row>
     <row r="120" spans="5:14">
-      <c r="E120" t="s">
+      <c r="E120" t="s" s="0">
         <v>489</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" t="s" s="0">
         <v>490</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" t="s" s="0">
         <v>491</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7268,25 +6274,25 @@
       </c>
     </row>
     <row r="121" spans="5:14">
-      <c r="E121" t="s">
+      <c r="E121" t="s" s="0">
         <v>492</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" t="s" s="0">
         <v>493</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" t="s" s="0">
         <v>333</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" t="s" s="0">
         <v>494</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7294,25 +6300,25 @@
       </c>
     </row>
     <row r="122" spans="5:14">
-      <c r="E122" t="s">
+      <c r="E122" t="s" s="0">
         <v>495</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" t="s" s="0">
         <v>496</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" t="s" s="0">
         <v>497</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" t="s" s="0">
         <v>498</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7320,25 +6326,25 @@
       </c>
     </row>
     <row r="123" spans="5:14">
-      <c r="E123" t="s">
+      <c r="E123" t="s" s="0">
         <v>499</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" t="s" s="0">
         <v>500</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" t="s" s="0">
         <v>328</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" t="s" s="0">
         <v>501</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -7346,25 +6352,25 @@
       </c>
     </row>
     <row r="124" spans="5:14">
-      <c r="E124" t="s">
+      <c r="E124" t="s" s="0">
         <v>502</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" t="s" s="0">
         <v>503</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" t="s" s="0">
         <v>350</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" t="s" s="0">
         <v>504</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -7372,25 +6378,25 @@
       </c>
     </row>
     <row r="125" spans="5:14">
-      <c r="E125" t="s">
+      <c r="E125" t="s" s="0">
         <v>505</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" t="s" s="0">
         <v>506</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" t="s" s="0">
         <v>392</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" t="s" s="0">
         <v>507</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -7398,25 +6404,25 @@
       </c>
     </row>
     <row r="126" spans="5:14">
-      <c r="E126" t="s">
+      <c r="E126" t="s" s="0">
         <v>508</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" t="s" s="0">
         <v>509</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" t="s" s="0">
         <v>510</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" t="s" s="0">
         <v>472</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" t="s" s="0">
         <v>511</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -7424,25 +6430,25 @@
       </c>
     </row>
     <row r="127" spans="5:14">
-      <c r="E127" t="s">
+      <c r="E127" t="s" s="0">
         <v>512</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" t="s" s="0">
         <v>513</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" t="s" s="0">
         <v>307</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" t="s" s="0">
         <v>514</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -7450,25 +6456,25 @@
       </c>
     </row>
     <row r="128" spans="5:14">
-      <c r="E128" t="s">
+      <c r="E128" t="s" s="0">
         <v>515</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" t="s" s="0">
         <v>516</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" t="s" s="0">
         <v>307</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" t="s" s="0">
         <v>517</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -7476,25 +6482,25 @@
       </c>
     </row>
     <row r="129" spans="5:14">
-      <c r="E129" t="s">
+      <c r="E129" t="s" s="0">
         <v>518</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" t="s" s="0">
         <v>519</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" t="s" s="0">
         <v>324</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" t="s" s="0">
         <v>520</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -7502,25 +6508,25 @@
       </c>
     </row>
     <row r="130" spans="5:14">
-      <c r="E130" t="s">
+      <c r="E130" t="s" s="0">
         <v>521</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" t="s" s="0">
         <v>522</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" t="s" s="0">
         <v>497</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" t="s" s="0">
         <v>523</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -7528,259 +6534,103 @@
       </c>
     </row>
     <row r="131" spans="5:14">
-      <c r="E131" t="s">
+      <c r="E131" t="s" s="0">
         <v>524</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" t="s" s="0">
         <v>525</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" t="s" s="0">
         <v>497</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" t="s" s="0">
         <v>526</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="5:14">
-      <c r="E132" t="s">
-        <v>527</v>
-      </c>
-      <c r="F132" t="s">
-        <v>528</v>
-      </c>
-      <c r="G132" t="s">
-        <v>529</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I132" t="s">
-        <v>270</v>
-      </c>
-      <c r="J132" t="s">
-        <v>531</v>
-      </c>
-      <c r="M132" t="s">
-        <v>6</v>
-      </c>
-      <c r="N132" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="133" spans="5:14">
-      <c r="E133" t="s">
-        <v>533</v>
-      </c>
-      <c r="F133" t="s">
-        <v>534</v>
-      </c>
-      <c r="G133" t="s">
-        <v>535</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="I133" t="s">
-        <v>100</v>
-      </c>
-      <c r="J133" t="s">
-        <v>536</v>
-      </c>
-      <c r="M133" t="s">
-        <v>6</v>
-      </c>
-      <c r="N133" t="s">
-        <v>532</v>
-      </c>
-    </row>
     <row r="134" spans="5:14">
-      <c r="E134" t="s">
+      <c r="E134" t="s" s="0">
         <v>537</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" t="s" s="0">
         <v>538</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" t="s" s="0">
         <v>539</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" t="s" s="0">
         <v>540</v>
       </c>
-      <c r="M134" t="s">
-        <v>6</v>
-      </c>
-      <c r="N134" t="s">
+      <c r="M134" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>532</v>
       </c>
     </row>
-    <row r="135" spans="5:14">
-      <c r="E135" t="s">
-        <v>541</v>
-      </c>
-      <c r="F135" t="s">
-        <v>542</v>
-      </c>
-      <c r="G135" t="s">
-        <v>543</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I135" t="s">
-        <v>472</v>
-      </c>
-      <c r="J135" t="s">
-        <v>545</v>
-      </c>
-      <c r="M135" t="s">
-        <v>6</v>
-      </c>
-      <c r="N135" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="136" spans="5:14">
-      <c r="E136" t="s">
-        <v>547</v>
-      </c>
-      <c r="F136" t="s">
-        <v>548</v>
-      </c>
-      <c r="G136" t="s">
-        <v>549</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I136" t="s">
-        <v>161</v>
-      </c>
-      <c r="J136" t="s">
-        <v>550</v>
-      </c>
-      <c r="M136" t="s">
-        <v>6</v>
-      </c>
-      <c r="N136" t="s">
-        <v>546</v>
-      </c>
-    </row>
     <row r="137" spans="5:14">
-      <c r="E137" t="s">
+      <c r="E137" t="s" s="0">
         <v>551</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" t="s" s="0">
         <v>552</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" t="s" s="0">
         <v>553</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" t="s" s="0">
         <v>554</v>
       </c>
-      <c r="M137" t="s">
-        <v>6</v>
-      </c>
-      <c r="N137" t="s">
+      <c r="M137" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N137" t="s" s="2">
         <v>546</v>
       </c>
     </row>
-    <row r="138" spans="5:14">
-      <c r="E138" t="s">
-        <v>555</v>
-      </c>
-      <c r="F138" t="s">
-        <v>556</v>
-      </c>
-      <c r="G138" t="s">
-        <v>557</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I138" t="s">
-        <v>198</v>
-      </c>
-      <c r="J138" t="s">
-        <v>559</v>
-      </c>
-      <c r="M138" t="s">
-        <v>6</v>
-      </c>
-      <c r="N138" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="139" spans="5:14">
-      <c r="E139" t="s">
-        <v>561</v>
-      </c>
-      <c r="F139" t="s">
-        <v>562</v>
-      </c>
-      <c r="G139" t="s">
-        <v>563</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I139" t="s">
-        <v>564</v>
-      </c>
-      <c r="J139" t="s">
-        <v>565</v>
-      </c>
-      <c r="M139" t="s">
-        <v>6</v>
-      </c>
-      <c r="N139" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
     <row r="140" spans="5:14">
-      <c r="E140" t="s">
+      <c r="E140" t="s" s="0">
         <v>566</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" t="s" s="0">
         <v>567</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" t="s" s="0">
         <v>568</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" t="s" s="0">
         <v>569</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -7788,25 +6638,25 @@
       </c>
     </row>
     <row r="141" spans="5:14">
-      <c r="E141" t="s">
+      <c r="E141" t="s" s="0">
         <v>570</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" t="s" s="0">
         <v>571</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" t="s" s="0">
         <v>572</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" t="s" s="0">
         <v>573</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -7814,25 +6664,25 @@
       </c>
     </row>
     <row r="142" spans="5:14">
-      <c r="E142" t="s">
+      <c r="E142" t="s" s="0">
         <v>574</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" t="s" s="0">
         <v>575</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" t="s" s="0">
         <v>576</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" t="s" s="0">
         <v>577</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" t="s" s="0">
         <v>578</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -7840,25 +6690,25 @@
       </c>
     </row>
     <row r="143" spans="5:14">
-      <c r="E143" t="s">
+      <c r="E143" t="s" s="0">
         <v>579</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" t="s" s="0">
         <v>580</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" t="s" s="0">
         <v>581</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" t="s" s="0">
         <v>582</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -7866,753 +6716,649 @@
       </c>
     </row>
     <row r="144" spans="5:14">
-      <c r="E144" t="s">
+      <c r="E144" t="s" s="0">
         <v>583</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" t="s" s="0">
         <v>584</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" t="s" s="0">
         <v>585</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" t="s" s="0">
         <v>586</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="145" spans="5:14">
-      <c r="E145" t="s">
-        <v>587</v>
-      </c>
-      <c r="F145" t="s">
-        <v>588</v>
-      </c>
-      <c r="G145" t="s">
-        <v>589</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I145" t="s">
-        <v>216</v>
-      </c>
-      <c r="J145" t="s">
-        <v>590</v>
-      </c>
-      <c r="M145" t="s">
-        <v>6</v>
-      </c>
-      <c r="N145" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="146" spans="5:14">
-      <c r="E146" t="s">
-        <v>592</v>
-      </c>
-      <c r="F146" t="s">
-        <v>593</v>
-      </c>
-      <c r="G146" t="s">
-        <v>594</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I146" t="s">
-        <v>198</v>
-      </c>
-      <c r="J146" t="s">
-        <v>595</v>
-      </c>
-      <c r="M146" t="s">
-        <v>6</v>
-      </c>
-      <c r="N146" t="s">
-        <v>591</v>
-      </c>
-    </row>
     <row r="147" spans="5:14">
-      <c r="E147" t="s">
+      <c r="E147" t="s" s="0">
         <v>596</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" t="s" s="0">
         <v>597</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" t="s" s="0">
         <v>598</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" t="s" s="0">
         <v>599</v>
       </c>
-      <c r="M147" t="s">
-        <v>6</v>
-      </c>
-      <c r="N147" t="s">
+      <c r="M147" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="148" spans="5:14">
-      <c r="E148" t="s">
+      <c r="E148" t="s" s="0">
         <v>600</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" t="s" s="0">
         <v>601</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" t="s" s="0">
         <v>602</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" t="s" s="0">
         <v>603</v>
       </c>
-      <c r="M148" t="s">
-        <v>6</v>
-      </c>
-      <c r="N148" t="s">
+      <c r="M148" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="149" spans="5:14">
-      <c r="E149" t="s">
+      <c r="E149" t="s" s="0">
         <v>604</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" t="s" s="0">
         <v>605</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" t="s" s="0">
         <v>606</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" t="s" s="0">
         <v>607</v>
       </c>
-      <c r="M149" t="s">
-        <v>6</v>
-      </c>
-      <c r="N149" t="s">
+      <c r="M149" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="150" spans="5:14">
-      <c r="E150" t="s">
+      <c r="E150" t="s" s="0">
         <v>608</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" t="s" s="0">
         <v>609</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" t="s" s="0">
         <v>610</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" t="s" s="0">
         <v>611</v>
       </c>
-      <c r="M150" t="s">
-        <v>6</v>
-      </c>
-      <c r="N150" t="s">
+      <c r="M150" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="151" spans="5:14">
-      <c r="E151" t="s">
+      <c r="E151" t="s" s="0">
         <v>612</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" t="s" s="0">
         <v>613</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" t="s" s="0">
         <v>614</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" t="s" s="0">
         <v>615</v>
       </c>
-      <c r="M151" t="s">
-        <v>6</v>
-      </c>
-      <c r="N151" t="s">
+      <c r="M151" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="152" spans="5:14">
-      <c r="E152" t="s">
+      <c r="E152" t="s" s="0">
         <v>616</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" t="s" s="0">
         <v>617</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" t="s" s="0">
         <v>618</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" t="s" s="0">
         <v>619</v>
       </c>
-      <c r="M152" t="s">
-        <v>6</v>
-      </c>
-      <c r="N152" t="s">
+      <c r="M152" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="153" spans="5:14">
-      <c r="E153" t="s">
+      <c r="E153" t="s" s="0">
         <v>620</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" t="s" s="0">
         <v>621</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" t="s" s="0">
         <v>622</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" t="s" s="0">
         <v>623</v>
       </c>
-      <c r="M153" t="s">
-        <v>6</v>
-      </c>
-      <c r="N153" t="s">
+      <c r="M153" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="154" spans="5:14">
-      <c r="E154" t="s">
+      <c r="E154" t="s" s="0">
         <v>624</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" t="s" s="0">
         <v>625</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" t="s" s="0">
         <v>626</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" t="s" s="0">
         <v>627</v>
       </c>
-      <c r="M154" t="s">
-        <v>6</v>
-      </c>
-      <c r="N154" t="s">
+      <c r="M154" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N154" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="155" spans="5:14">
-      <c r="E155" t="s">
+      <c r="E155" t="s" s="0">
         <v>628</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" t="s" s="0">
         <v>629</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" t="s" s="0">
         <v>630</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" t="s" s="0">
         <v>631</v>
       </c>
-      <c r="M155" t="s">
-        <v>6</v>
-      </c>
-      <c r="N155" t="s">
+      <c r="M155" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="156" spans="5:14">
-      <c r="E156" t="s">
+      <c r="E156" t="s" s="0">
         <v>632</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" t="s" s="0">
         <v>633</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" t="s" s="0">
         <v>634</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" t="s" s="0">
         <v>635</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" t="s" s="0">
         <v>636</v>
       </c>
-      <c r="M156" t="s">
-        <v>6</v>
-      </c>
-      <c r="N156" t="s">
+      <c r="M156" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="157" spans="5:14">
-      <c r="E157" t="s">
+      <c r="E157" t="s" s="0">
         <v>637</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" t="s" s="0">
         <v>638</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" t="s" s="0">
         <v>639</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" t="s" s="0">
         <v>640</v>
       </c>
-      <c r="M157" t="s">
-        <v>6</v>
-      </c>
-      <c r="N157" t="s">
+      <c r="M157" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="158" spans="5:14">
-      <c r="E158" t="s">
+      <c r="E158" t="s" s="0">
         <v>641</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" t="s" s="0">
         <v>642</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" t="s" s="0">
         <v>643</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" t="s" s="0">
         <v>644</v>
       </c>
-      <c r="M158" t="s">
-        <v>6</v>
-      </c>
-      <c r="N158" t="s">
+      <c r="M158" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="159" spans="5:14">
-      <c r="E159" t="s">
+      <c r="E159" t="s" s="0">
         <v>645</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" t="s" s="0">
         <v>646</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" t="s" s="0">
         <v>647</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" t="s" s="0">
         <v>648</v>
       </c>
-      <c r="J159" t="s">
+      <c r="J159" t="s" s="0">
         <v>649</v>
       </c>
-      <c r="M159" t="s">
-        <v>6</v>
-      </c>
-      <c r="N159" t="s">
+      <c r="M159" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="160" spans="5:14">
-      <c r="E160" t="s">
+      <c r="E160" t="s" s="0">
         <v>650</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" t="s" s="0">
         <v>651</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" t="s" s="0">
         <v>652</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" t="s" s="0">
         <v>653</v>
       </c>
-      <c r="M160" t="s">
-        <v>6</v>
-      </c>
-      <c r="N160" t="s">
+      <c r="M160" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="161" spans="5:14">
-      <c r="E161" t="s">
+      <c r="E161" t="s" s="0">
         <v>654</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" t="s" s="0">
         <v>655</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" t="s" s="0">
         <v>656</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" t="s" s="0">
         <v>577</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" t="s" s="0">
         <v>657</v>
       </c>
-      <c r="M161" t="s">
-        <v>6</v>
-      </c>
-      <c r="N161" t="s">
+      <c r="M161" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="162" spans="5:14">
-      <c r="E162" t="s">
+      <c r="E162" t="s" s="0">
         <v>658</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" t="s" s="0">
         <v>659</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" t="s" s="0">
         <v>660</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I162" t="s">
+      <c r="I162" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J162" t="s">
+      <c r="J162" t="s" s="0">
         <v>661</v>
       </c>
-      <c r="M162" t="s">
-        <v>6</v>
-      </c>
-      <c r="N162" t="s">
+      <c r="M162" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N162" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="163" spans="5:14">
-      <c r="E163" t="s">
+      <c r="E163" t="s" s="0">
         <v>662</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" t="s" s="0">
         <v>663</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" t="s" s="0">
         <v>664</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J163" t="s">
+      <c r="J163" t="s" s="0">
         <v>665</v>
       </c>
-      <c r="M163" t="s">
-        <v>6</v>
-      </c>
-      <c r="N163" t="s">
+      <c r="M163" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N163" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="164" spans="5:14">
-      <c r="E164" t="s">
+      <c r="E164" t="s" s="0">
         <v>666</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" t="s" s="0">
         <v>667</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" t="s" s="0">
         <v>668</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" t="s" s="0">
         <v>669</v>
       </c>
-      <c r="M164" t="s">
-        <v>6</v>
-      </c>
-      <c r="N164" t="s">
+      <c r="M164" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N164" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="165" spans="5:14">
-      <c r="E165" t="s">
+      <c r="E165" t="s" s="0">
         <v>670</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" t="s" s="0">
         <v>671</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" t="s" s="0">
         <v>672</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" t="s" s="0">
         <v>673</v>
       </c>
-      <c r="M165" t="s">
-        <v>6</v>
-      </c>
-      <c r="N165" t="s">
+      <c r="M165" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="166" spans="5:14">
-      <c r="E166" t="s">
+      <c r="E166" t="s" s="0">
         <v>674</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" t="s" s="0">
         <v>675</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" t="s" s="0">
         <v>676</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J166" t="s" s="0">
         <v>677</v>
       </c>
-      <c r="M166" t="s">
-        <v>6</v>
-      </c>
-      <c r="N166" t="s">
+      <c r="M166" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N166" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="167" spans="5:14">
-      <c r="E167" t="s">
+      <c r="E167" t="s" s="0">
         <v>678</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" t="s" s="0">
         <v>679</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" t="s" s="0">
         <v>680</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J167" t="s" s="0">
         <v>681</v>
       </c>
-      <c r="M167" t="s">
-        <v>6</v>
-      </c>
-      <c r="N167" t="s">
+      <c r="M167" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N167" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="168" spans="5:14">
-      <c r="E168" t="s">
+      <c r="E168" t="s" s="0">
         <v>682</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" t="s" s="0">
         <v>683</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" t="s" s="0">
         <v>684</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J168" t="s" s="0">
         <v>685</v>
       </c>
-      <c r="M168" t="s">
-        <v>6</v>
-      </c>
-      <c r="N168" t="s">
+      <c r="M168" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>591</v>
       </c>
     </row>
     <row r="169" spans="5:14">
-      <c r="E169" t="s">
+      <c r="E169" t="s" s="0">
         <v>686</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" t="s" s="0">
         <v>687</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" t="s" s="0">
         <v>688</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J169" t="s" s="0">
         <v>689</v>
       </c>
-      <c r="M169" t="s">
-        <v>6</v>
-      </c>
-      <c r="N169" t="s">
+      <c r="M169" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>591</v>
       </c>
     </row>
-    <row r="170" spans="5:14">
-      <c r="E170" t="s">
-        <v>690</v>
-      </c>
-      <c r="F170" t="s">
-        <v>691</v>
-      </c>
-      <c r="G170" t="s">
-        <v>692</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I170" t="s">
-        <v>693</v>
-      </c>
-      <c r="J170" t="s">
-        <v>694</v>
-      </c>
-      <c r="M170" t="s">
-        <v>6</v>
-      </c>
-      <c r="N170" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="171" spans="5:14">
-      <c r="E171" t="s">
-        <v>696</v>
-      </c>
-      <c r="F171" t="s">
-        <v>697</v>
-      </c>
-      <c r="G171" t="s">
-        <v>698</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I171" t="s">
-        <v>699</v>
-      </c>
-      <c r="J171" t="s">
-        <v>700</v>
-      </c>
-      <c r="M171" t="s">
-        <v>6</v>
-      </c>
-      <c r="N171" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
     <row r="172" spans="5:14">
-      <c r="E172" t="s">
+      <c r="E172" t="s" s="0">
         <v>701</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" t="s" s="0">
         <v>702</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" t="s" s="0">
         <v>703</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="J172" t="s">
+      <c r="J172" t="s" s="0">
         <v>704</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -8620,25 +7366,25 @@
       </c>
     </row>
     <row r="173" spans="5:14">
-      <c r="E173" t="s">
+      <c r="E173" t="s" s="0">
         <v>705</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" t="s" s="0">
         <v>706</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" t="s" s="0">
         <v>707</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" t="s" s="0">
         <v>693</v>
       </c>
-      <c r="J173" t="s">
+      <c r="J173" t="s" s="0">
         <v>708</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -8646,25 +7392,25 @@
       </c>
     </row>
     <row r="174" spans="5:14">
-      <c r="E174" t="s">
+      <c r="E174" t="s" s="0">
         <v>709</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" t="s" s="0">
         <v>710</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" t="s" s="0">
         <v>711</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" t="s" s="0">
         <v>693</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" t="s" s="0">
         <v>712</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -8672,25 +7418,25 @@
       </c>
     </row>
     <row r="175" spans="5:14">
-      <c r="E175" t="s">
+      <c r="E175" t="s" s="0">
         <v>713</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" t="s" s="0">
         <v>714</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" t="s" s="0">
         <v>715</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" t="s" s="0">
         <v>693</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J175" t="s" s="0">
         <v>716</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -8698,25 +7444,25 @@
       </c>
     </row>
     <row r="176" spans="5:14">
-      <c r="E176" t="s">
+      <c r="E176" t="s" s="0">
         <v>717</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" t="s" s="0">
         <v>718</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" t="s" s="0">
         <v>719</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" t="s" s="0">
         <v>720</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" t="s" s="0">
         <v>721</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -8724,25 +7470,25 @@
       </c>
     </row>
     <row r="177" spans="5:14">
-      <c r="E177" t="s">
+      <c r="E177" t="s" s="0">
         <v>722</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" t="s" s="0">
         <v>723</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" t="s" s="0">
         <v>724</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" t="s" s="0">
         <v>693</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J177" t="s" s="0">
         <v>725</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -8750,25 +7496,25 @@
       </c>
     </row>
     <row r="178" spans="5:14">
-      <c r="E178" t="s">
+      <c r="E178" t="s" s="0">
         <v>726</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" t="s" s="0">
         <v>727</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" t="s" s="0">
         <v>728</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" t="s" s="0">
         <v>729</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" t="s" s="0">
         <v>730</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -8776,25 +7522,25 @@
       </c>
     </row>
     <row r="179" spans="5:14">
-      <c r="E179" t="s">
+      <c r="E179" t="s" s="0">
         <v>731</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" t="s" s="0">
         <v>732</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" t="s" s="0">
         <v>733</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" t="s" s="0">
         <v>564</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" t="s" s="0">
         <v>734</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -8802,25 +7548,25 @@
       </c>
     </row>
     <row r="180" spans="5:14">
-      <c r="E180" t="s">
+      <c r="E180" t="s" s="0">
         <v>735</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" t="s" s="0">
         <v>736</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" t="s" s="0">
         <v>737</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J180" t="s">
+      <c r="J180" t="s" s="0">
         <v>738</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -8828,25 +7574,25 @@
       </c>
     </row>
     <row r="181" spans="5:14">
-      <c r="E181" t="s">
+      <c r="E181" t="s" s="0">
         <v>739</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" t="s" s="0">
         <v>740</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" t="s" s="0">
         <v>741</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" t="s" s="0">
         <v>742</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" t="s" s="0">
         <v>743</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -8854,25 +7600,25 @@
       </c>
     </row>
     <row r="182" spans="5:14">
-      <c r="E182" t="s">
+      <c r="E182" t="s" s="0">
         <v>744</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" t="s" s="0">
         <v>745</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" t="s" s="0">
         <v>746</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" t="s" s="0">
         <v>747</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" t="s" s="0">
         <v>748</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -8880,25 +7626,25 @@
       </c>
     </row>
     <row r="183" spans="5:14">
-      <c r="E183" t="s">
+      <c r="E183" t="s" s="0">
         <v>749</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" t="s" s="0">
         <v>750</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" t="s" s="0">
         <v>751</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" t="s" s="0">
         <v>752</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -8906,25 +7652,25 @@
       </c>
     </row>
     <row r="184" spans="5:14">
-      <c r="E184" t="s">
+      <c r="E184" t="s" s="0">
         <v>753</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" t="s" s="0">
         <v>754</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" t="s" s="0">
         <v>755</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" t="s" s="0">
         <v>472</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J184" t="s" s="0">
         <v>756</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -8932,25 +7678,25 @@
       </c>
     </row>
     <row r="185" spans="5:14">
-      <c r="E185" t="s">
+      <c r="E185" t="s" s="0">
         <v>757</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" t="s" s="0">
         <v>758</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" t="s" s="0">
         <v>759</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" t="s" s="0">
         <v>699</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" t="s" s="0">
         <v>760</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -8958,25 +7704,25 @@
       </c>
     </row>
     <row r="186" spans="5:14">
-      <c r="E186" t="s">
+      <c r="E186" t="s" s="0">
         <v>761</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" t="s" s="0">
         <v>762</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" t="s" s="0">
         <v>763</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J186" t="s" s="0">
         <v>764</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -8984,25 +7730,25 @@
       </c>
     </row>
     <row r="187" spans="5:14">
-      <c r="E187" t="s">
+      <c r="E187" t="s" s="0">
         <v>765</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" t="s" s="0">
         <v>766</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" t="s" s="0">
         <v>767</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" t="s" s="0">
         <v>768</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J187" t="s" s="0">
         <v>769</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -9010,25 +7756,25 @@
       </c>
     </row>
     <row r="188" spans="5:14">
-      <c r="E188" t="s">
+      <c r="E188" t="s" s="0">
         <v>770</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" t="s" s="0">
         <v>771</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" t="s" s="0">
         <v>772</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" t="s" s="0">
         <v>699</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" t="s" s="0">
         <v>773</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -9036,25 +7782,25 @@
       </c>
     </row>
     <row r="189" spans="5:14">
-      <c r="E189" t="s">
+      <c r="E189" t="s" s="0">
         <v>774</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" t="s" s="0">
         <v>775</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" t="s" s="0">
         <v>776</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" t="s" s="0">
         <v>777</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -9062,25 +7808,25 @@
       </c>
     </row>
     <row r="190" spans="5:14">
-      <c r="E190" t="s">
+      <c r="E190" t="s" s="0">
         <v>778</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" t="s" s="0">
         <v>779</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" t="s" s="0">
         <v>780</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" t="s" s="0">
         <v>781</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -9088,25 +7834,25 @@
       </c>
     </row>
     <row r="191" spans="5:14">
-      <c r="E191" t="s">
+      <c r="E191" t="s" s="0">
         <v>782</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" t="s" s="0">
         <v>783</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" t="s" s="0">
         <v>784</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" t="s" s="0">
         <v>699</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" t="s" s="0">
         <v>785</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -9114,25 +7860,25 @@
       </c>
     </row>
     <row r="192" spans="5:14">
-      <c r="E192" t="s">
+      <c r="E192" t="s" s="0">
         <v>786</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" t="s" s="0">
         <v>787</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" t="s" s="0">
         <v>788</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" t="s" s="0">
         <v>789</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -9140,25 +7886,25 @@
       </c>
     </row>
     <row r="193" spans="5:14">
-      <c r="E193" t="s">
+      <c r="E193" t="s" s="0">
         <v>790</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" t="s" s="0">
         <v>791</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" t="s" s="0">
         <v>792</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" t="s" s="0">
         <v>793</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -9166,25 +7912,25 @@
       </c>
     </row>
     <row r="194" spans="5:14">
-      <c r="E194" t="s">
+      <c r="E194" t="s" s="0">
         <v>794</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" t="s" s="0">
         <v>795</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" t="s" s="0">
         <v>796</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" t="s" s="0">
         <v>720</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J194" t="s" s="0">
         <v>797</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -9192,25 +7938,25 @@
       </c>
     </row>
     <row r="195" spans="5:14">
-      <c r="E195" t="s">
+      <c r="E195" t="s" s="0">
         <v>798</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" t="s" s="0">
         <v>799</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" t="s" s="0">
         <v>800</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" t="s" s="0">
         <v>699</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" t="s" s="0">
         <v>801</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -9218,25 +7964,25 @@
       </c>
     </row>
     <row r="196" spans="5:14">
-      <c r="E196" t="s">
+      <c r="E196" t="s" s="0">
         <v>802</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" t="s" s="0">
         <v>803</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" t="s" s="0">
         <v>804</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" t="s" s="0">
         <v>699</v>
       </c>
-      <c r="J196" t="s">
+      <c r="J196" t="s" s="0">
         <v>805</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -9244,25 +7990,25 @@
       </c>
     </row>
     <row r="197" spans="5:14">
-      <c r="E197" t="s">
+      <c r="E197" t="s" s="0">
         <v>806</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" t="s" s="0">
         <v>807</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" t="s" s="0">
         <v>808</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J197" t="s">
+      <c r="J197" t="s" s="0">
         <v>809</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -9270,25 +8016,25 @@
       </c>
     </row>
     <row r="198" spans="5:14">
-      <c r="E198" t="s">
+      <c r="E198" t="s" s="0">
         <v>810</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" t="s" s="0">
         <v>811</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" t="s" s="0">
         <v>812</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" t="s" s="0">
         <v>813</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -9296,25 +8042,25 @@
       </c>
     </row>
     <row r="199" spans="5:14">
-      <c r="E199" t="s">
+      <c r="E199" t="s" s="0">
         <v>814</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" t="s" s="0">
         <v>815</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" t="s" s="0">
         <v>816</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J199" t="s" s="0">
         <v>817</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -9322,77 +8068,29 @@
       </c>
     </row>
     <row r="200" spans="5:14">
-      <c r="E200" t="s">
+      <c r="E200" t="s" s="0">
         <v>818</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" t="s" s="0">
         <v>819</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" t="s" s="0">
         <v>820</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" t="s" s="0">
         <v>821</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J200" t="s" s="0">
         <v>822</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N200" s="2" t="s">
         <v>695</v>
-      </c>
-    </row>
-    <row r="201" spans="5:14">
-      <c r="E201" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="G201" s="3"/>
-      <c r="H201" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
-      <c r="M201" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N201" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="202" spans="5:14">
-      <c r="E202" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="L202" s="3"/>
-      <c r="M202" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N202" s="5" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="203" spans="5:14">
@@ -10115,58 +8813,6 @@
         <v>825</v>
       </c>
     </row>
-    <row r="233" spans="5:14">
-      <c r="E233" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="J233" s="3"/>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3"/>
-      <c r="M233" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N233" s="5" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="234" spans="5:14">
-      <c r="E234" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J234" s="3"/>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3"/>
-      <c r="M234" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N234" s="5" t="s">
-        <v>896</v>
-      </c>
-    </row>
     <row r="235" spans="5:14">
       <c r="E235" s="3" t="s">
         <v>900</v>
@@ -10295,54 +8941,6 @@
       </c>
       <c r="N239" s="5" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="240" spans="5:14">
-      <c r="E240" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="G240" s="3"/>
-      <c r="H240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I240" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="J240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="M240" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N240" s="5" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="241" spans="5:14">
-      <c r="E241" s="3" t="s">
-        <v>917</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>918</v>
-      </c>
-      <c r="G241" s="3"/>
-      <c r="H241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="J241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N241" s="5" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="242" spans="5:14">
@@ -10561,112 +9159,6 @@
         <v>916</v>
       </c>
     </row>
-    <row r="251" spans="5:14">
-      <c r="E251" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="H251" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="J251" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N251" s="5" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="252" spans="5:14">
-      <c r="E252" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="H252" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="I252" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J252" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3"/>
-      <c r="M252" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N252" s="5" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="253" spans="5:14">
-      <c r="E253" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="G253" s="3"/>
-      <c r="H253" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I253" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J253" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N253" s="5" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="254" spans="5:14">
-      <c r="E254" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>955</v>
-      </c>
-      <c r="G254" s="3"/>
-      <c r="H254" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="N254" s="5" t="s">
-        <v>953</v>
-      </c>
-    </row>
     <row r="255" spans="5:14">
       <c r="E255" s="3" t="s">
         <v>957</v>
@@ -10987,64 +9479,8 @@
         <v>953</v>
       </c>
     </row>
-    <row r="268" spans="5:14">
-      <c r="E268" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>992</v>
-      </c>
-      <c r="G268" s="3">
-        <v>35622350000</v>
-      </c>
-      <c r="H268" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="I268" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="J268" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="K268" s="3"/>
-      <c r="L268" s="3"/>
-      <c r="M268" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N268" s="5" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="269" spans="5:14">
-      <c r="E269" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>998</v>
-      </c>
-      <c r="G269" s="3">
-        <v>35622350000</v>
-      </c>
-      <c r="H269" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="I269" s="3" t="s">
-        <v>999</v>
-      </c>
-      <c r="J269" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3"/>
-      <c r="M269" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N269" s="5" t="s">
-        <v>996</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="N1:N2243" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="N1:N2243" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="E4:N269">

--- a/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
+++ b/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
@@ -4236,7 +4236,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E9:N272"/>
+  <dimension ref="E14:N270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C251" workbookViewId="0">
       <selection activeCell="L275" sqref="L275"/>
@@ -4245,160 +4245,30 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="7" max="7" width="12.6875"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="14" max="14" width="9" style="2"/>
+    <col min="8" max="8" style="1" width="9.0"/>
+    <col min="14" max="14" style="2" width="9.0"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:14">
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14">
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14">
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14">
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14">
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="14" spans="5:14">
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -4406,389 +4276,129 @@
       </c>
     </row>
     <row r="15" spans="5:14">
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="5:14">
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="17" spans="5:14">
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:14">
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="19" spans="5:14">
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>53</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="5:14">
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14">
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="22" spans="5:14">
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>57</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="5:14">
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" t="s">
-        <v>75</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14">
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14">
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14">
-      <c r="E26" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14">
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14">
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>103</v>
-      </c>
-      <c r="M28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="29" spans="5:14">
-      <c r="E29" t="s">
+      <c r="E29" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="s" s="0">
         <v>106</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4796,259 +4406,103 @@
       </c>
     </row>
     <row r="30" spans="5:14">
-      <c r="E30" t="s">
+      <c r="E30" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="s" s="0">
         <v>111</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="5:14">
-      <c r="E31" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" t="s">
-        <v>117</v>
-      </c>
-      <c r="M31" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="5:14">
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J32" t="s">
-        <v>120</v>
-      </c>
-      <c r="M32" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="5:14">
-      <c r="E33" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" t="s">
-        <v>120</v>
-      </c>
-      <c r="M33" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14">
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" t="s">
-        <v>124</v>
-      </c>
-      <c r="J34" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="35" spans="5:14">
-      <c r="E35" t="s">
+      <c r="E35" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" t="s" s="0">
         <v>128</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="5:14">
-      <c r="E36" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" t="s">
-        <v>132</v>
-      </c>
-      <c r="M36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="37" spans="5:14">
-      <c r="E37" t="s">
+      <c r="E37" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" t="s" s="0">
         <v>134</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" t="s" s="0">
         <v>135</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="5:14">
-      <c r="E38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" t="s">
-        <v>139</v>
-      </c>
-      <c r="M38" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="39" spans="5:14">
-      <c r="E39" t="s">
+      <c r="E39" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="s" s="0">
         <v>96</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5056,25 +4510,25 @@
       </c>
     </row>
     <row r="40" spans="5:14">
-      <c r="E40" t="s">
+      <c r="E40" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" t="s" s="0">
         <v>96</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -5082,25 +4536,25 @@
       </c>
     </row>
     <row r="41" spans="5:14">
-      <c r="E41" t="s">
+      <c r="E41" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" t="s" s="0">
         <v>148</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5108,25 +4562,25 @@
       </c>
     </row>
     <row r="42" spans="5:14">
-      <c r="E42" t="s">
+      <c r="E42" t="s" s="0">
         <v>151</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" t="s" s="0">
         <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -5134,25 +4588,25 @@
       </c>
     </row>
     <row r="43" spans="5:14">
-      <c r="E43" t="s">
+      <c r="E43" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="s" s="0">
         <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5160,155 +4614,77 @@
       </c>
     </row>
     <row r="44" spans="5:14">
-      <c r="E44" t="s">
+      <c r="E44" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="s" s="0">
         <v>123</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="5:14">
-      <c r="E45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" t="s">
-        <v>161</v>
-      </c>
-      <c r="G45" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" t="s">
-        <v>163</v>
-      </c>
-      <c r="M45" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="46" spans="5:14">
-      <c r="E46" t="s">
+      <c r="E46" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="s" s="0">
         <v>166</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" t="s" s="0">
         <v>167</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="5:14">
-      <c r="E47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" t="s">
-        <v>170</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" t="s">
-        <v>86</v>
-      </c>
-      <c r="J47" t="s">
-        <v>171</v>
-      </c>
-      <c r="M47" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="5:14">
-      <c r="E48" t="s">
-        <v>172</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-      <c r="J48" t="s">
-        <v>174</v>
-      </c>
-      <c r="M48" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="49" spans="5:14">
-      <c r="E49" t="s">
+      <c r="E49" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" t="s" s="0">
         <v>96</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -5316,129 +4692,51 @@
       </c>
     </row>
     <row r="50" spans="5:14">
-      <c r="E50" t="s">
+      <c r="E50" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" t="s" s="0">
         <v>123</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="5:14">
-      <c r="E51" t="s">
-        <v>182</v>
-      </c>
-      <c r="F51" t="s">
-        <v>183</v>
-      </c>
-      <c r="G51" t="s">
-        <v>184</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" t="s">
-        <v>185</v>
-      </c>
-      <c r="J51" t="s">
-        <v>186</v>
-      </c>
-      <c r="M51" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="5:14">
-      <c r="E52" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" t="s">
-        <v>189</v>
-      </c>
-      <c r="G52" t="s">
-        <v>184</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" t="s">
-        <v>190</v>
-      </c>
-      <c r="J52" t="s">
-        <v>191</v>
-      </c>
-      <c r="M52" t="s">
-        <v>6</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="5:14">
-      <c r="E53" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" t="s">
-        <v>193</v>
-      </c>
-      <c r="G53" t="s">
-        <v>184</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" t="s">
-        <v>107</v>
-      </c>
-      <c r="J53" t="s">
-        <v>194</v>
-      </c>
-      <c r="M53" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
     <row r="54" spans="5:14">
-      <c r="E54" t="s">
+      <c r="E54" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5446,25 +4744,25 @@
       </c>
     </row>
     <row r="55" spans="5:14">
-      <c r="E55" t="s">
+      <c r="E55" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5472,25 +4770,25 @@
       </c>
     </row>
     <row r="56" spans="5:14">
-      <c r="E56" t="s">
+      <c r="E56" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5498,25 +4796,25 @@
       </c>
     </row>
     <row r="57" spans="5:14">
-      <c r="E57" t="s">
+      <c r="E57" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5524,129 +4822,51 @@
       </c>
     </row>
     <row r="58" spans="5:14">
-      <c r="E58" t="s">
+      <c r="E58" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" t="s" s="0">
         <v>209</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="5:14">
-      <c r="E59" t="s">
-        <v>212</v>
-      </c>
-      <c r="F59" t="s">
-        <v>213</v>
-      </c>
-      <c r="G59" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I59" t="s">
-        <v>180</v>
-      </c>
-      <c r="J59" t="s">
-        <v>216</v>
-      </c>
-      <c r="M59" t="s">
-        <v>6</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="5:14">
-      <c r="E60" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" t="s">
-        <v>219</v>
-      </c>
-      <c r="G60" t="s">
-        <v>220</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I60" t="s">
-        <v>221</v>
-      </c>
-      <c r="J60" t="s">
-        <v>222</v>
-      </c>
-      <c r="M60" t="s">
-        <v>6</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="5:14">
-      <c r="E61" t="s">
-        <v>223</v>
-      </c>
-      <c r="F61" t="s">
-        <v>224</v>
-      </c>
-      <c r="G61" t="s">
-        <v>225</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I61" t="s">
-        <v>226</v>
-      </c>
-      <c r="J61" t="s">
-        <v>227</v>
-      </c>
-      <c r="M61" t="s">
-        <v>6</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="62" spans="5:14">
-      <c r="E62" t="s">
+      <c r="E62" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" t="s" s="0">
         <v>230</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5654,25 +4874,25 @@
       </c>
     </row>
     <row r="63" spans="5:14">
-      <c r="E63" t="s">
+      <c r="E63" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="s" s="0">
         <v>235</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5680,25 +4900,25 @@
       </c>
     </row>
     <row r="64" spans="5:14">
-      <c r="E64" t="s">
+      <c r="E64" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" t="s" s="0">
         <v>239</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" t="s" s="0">
         <v>241</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5706,25 +4926,25 @@
       </c>
     </row>
     <row r="65" spans="5:14">
-      <c r="E65" t="s">
+      <c r="E65" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" t="s" s="0">
         <v>235</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5732,25 +4952,25 @@
       </c>
     </row>
     <row r="66" spans="5:14">
-      <c r="E66" t="s">
+      <c r="E66" t="s" s="0">
         <v>245</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" t="s" s="0">
         <v>246</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="0">
         <v>247</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" t="s" s="0">
         <v>249</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5758,25 +4978,25 @@
       </c>
     </row>
     <row r="67" spans="5:14">
-      <c r="E67" t="s">
+      <c r="E67" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" t="s" s="0">
         <v>252</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5784,129 +5004,51 @@
       </c>
     </row>
     <row r="68" spans="5:14">
-      <c r="E68" t="s">
+      <c r="E68" t="s" s="0">
         <v>255</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" t="s" s="0">
         <v>257</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="5:14">
-      <c r="E69" t="s">
-        <v>259</v>
-      </c>
-      <c r="F69" t="s">
-        <v>260</v>
-      </c>
-      <c r="G69" t="s">
-        <v>261</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I69" t="s">
-        <v>263</v>
-      </c>
-      <c r="J69" t="s">
-        <v>264</v>
-      </c>
-      <c r="M69" t="s">
-        <v>6</v>
-      </c>
-      <c r="N69" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="5:14">
-      <c r="E70" t="s">
-        <v>266</v>
-      </c>
-      <c r="F70" t="s">
-        <v>267</v>
-      </c>
-      <c r="G70" t="s">
-        <v>268</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I70" t="s">
-        <v>269</v>
-      </c>
-      <c r="J70" t="s">
-        <v>270</v>
-      </c>
-      <c r="M70" t="s">
-        <v>6</v>
-      </c>
-      <c r="N70" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="5:14">
-      <c r="E71" t="s">
-        <v>272</v>
-      </c>
-      <c r="F71" t="s">
-        <v>273</v>
-      </c>
-      <c r="G71" t="s">
-        <v>268</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" t="s">
-        <v>274</v>
-      </c>
-      <c r="J71" t="s">
-        <v>275</v>
-      </c>
-      <c r="M71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N71" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="72" spans="5:14">
-      <c r="E72" t="s">
+      <c r="E72" t="s" s="0">
         <v>276</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" t="s" s="0">
         <v>277</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" t="s" s="0">
         <v>268</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" t="s" s="0">
         <v>278</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5914,25 +5056,25 @@
       </c>
     </row>
     <row r="73" spans="5:14">
-      <c r="E73" t="s">
+      <c r="E73" t="s" s="0">
         <v>279</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" t="s" s="0">
         <v>280</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" t="s" s="0">
         <v>268</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" t="s" s="0">
         <v>281</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5940,77 +5082,51 @@
       </c>
     </row>
     <row r="74" spans="5:14">
-      <c r="E74" t="s">
+      <c r="E74" t="s" s="0">
         <v>282</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" t="s" s="0">
         <v>283</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" t="s" s="0">
         <v>268</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" t="s" s="0">
         <v>269</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" t="s" s="0">
         <v>284</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="75" spans="5:14">
-      <c r="E75" t="s">
-        <v>285</v>
-      </c>
-      <c r="F75" t="s">
-        <v>286</v>
-      </c>
-      <c r="G75" t="s">
-        <v>268</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I75" t="s">
-        <v>274</v>
-      </c>
-      <c r="J75" t="s">
-        <v>287</v>
-      </c>
-      <c r="M75" t="s">
-        <v>6</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="76" spans="5:14">
-      <c r="E76" t="s">
+      <c r="E76" t="s" s="0">
         <v>288</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" t="s" s="0">
         <v>268</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" t="s" s="0">
         <v>290</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6018,25 +5134,25 @@
       </c>
     </row>
     <row r="77" spans="5:14">
-      <c r="E77" t="s">
+      <c r="E77" t="s" s="0">
         <v>291</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" t="s" s="0">
         <v>292</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" t="s" s="0">
         <v>293</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="s" s="0">
         <v>295</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6044,25 +5160,25 @@
       </c>
     </row>
     <row r="78" spans="5:14">
-      <c r="E78" t="s">
+      <c r="E78" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" t="s" s="0">
         <v>298</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" t="s" s="0">
         <v>299</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" t="s" s="0">
         <v>300</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" t="s" s="0">
         <v>301</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6070,493 +5186,77 @@
       </c>
     </row>
     <row r="79" spans="5:14">
-      <c r="E79" t="s">
+      <c r="E79" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" t="s" s="0">
         <v>303</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" t="s" s="0">
         <v>304</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" t="s" s="0">
         <v>305</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="80" spans="5:14">
-      <c r="E80" t="s">
-        <v>306</v>
-      </c>
-      <c r="F80" t="s">
-        <v>307</v>
-      </c>
-      <c r="G80" t="s">
-        <v>308</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I80" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" t="s">
-        <v>310</v>
-      </c>
-      <c r="M80" t="s">
-        <v>6</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81" spans="5:14">
-      <c r="E81" t="s">
-        <v>312</v>
-      </c>
-      <c r="F81" t="s">
-        <v>313</v>
-      </c>
-      <c r="G81" t="s">
-        <v>314</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I81" t="s">
-        <v>315</v>
-      </c>
-      <c r="J81" t="s">
-        <v>316</v>
-      </c>
-      <c r="M81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="5:14">
-      <c r="E82" t="s">
-        <v>317</v>
-      </c>
-      <c r="F82" t="s">
-        <v>318</v>
-      </c>
-      <c r="G82" t="s">
-        <v>319</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I82" t="s">
-        <v>190</v>
-      </c>
-      <c r="J82" t="s">
-        <v>321</v>
-      </c>
-      <c r="M82" t="s">
-        <v>6</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="83" spans="5:14">
-      <c r="E83" t="s">
-        <v>323</v>
-      </c>
-      <c r="F83" t="s">
-        <v>324</v>
-      </c>
-      <c r="G83" t="s">
-        <v>319</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I83" t="s">
-        <v>221</v>
-      </c>
-      <c r="J83" t="s">
-        <v>321</v>
-      </c>
-      <c r="M83" t="s">
-        <v>6</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="84" spans="5:14">
-      <c r="E84" t="s">
-        <v>325</v>
-      </c>
-      <c r="F84" t="s">
-        <v>326</v>
-      </c>
-      <c r="G84" t="s">
-        <v>319</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J84" t="s">
-        <v>321</v>
-      </c>
-      <c r="M84" t="s">
-        <v>6</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="5:14">
-      <c r="E85" t="s">
-        <v>327</v>
-      </c>
-      <c r="F85" t="s">
-        <v>328</v>
-      </c>
-      <c r="G85" t="s">
-        <v>329</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I85" t="s">
-        <v>80</v>
-      </c>
-      <c r="J85" t="s">
-        <v>331</v>
-      </c>
-      <c r="M85" t="s">
-        <v>6</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="86" spans="5:14">
-      <c r="E86" t="s">
-        <v>333</v>
-      </c>
-      <c r="F86" t="s">
-        <v>334</v>
-      </c>
-      <c r="G86" t="s">
-        <v>329</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I86" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" t="s">
-        <v>331</v>
-      </c>
-      <c r="M86" t="s">
-        <v>6</v>
-      </c>
-      <c r="N86" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="87" spans="5:14">
-      <c r="E87" t="s">
-        <v>335</v>
-      </c>
-      <c r="F87" t="s">
-        <v>336</v>
-      </c>
-      <c r="G87" t="s">
-        <v>329</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I87" t="s">
-        <v>30</v>
-      </c>
-      <c r="J87" t="s">
-        <v>331</v>
-      </c>
-      <c r="M87" t="s">
-        <v>6</v>
-      </c>
-      <c r="N87" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="5:14">
-      <c r="E88" t="s">
-        <v>337</v>
-      </c>
-      <c r="F88" t="s">
-        <v>338</v>
-      </c>
-      <c r="G88" t="s">
-        <v>329</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I88" t="s">
-        <v>92</v>
-      </c>
-      <c r="J88" t="s">
-        <v>331</v>
-      </c>
-      <c r="M88" t="s">
-        <v>6</v>
-      </c>
-      <c r="N88" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="89" spans="5:14">
-      <c r="E89" t="s">
-        <v>339</v>
-      </c>
-      <c r="F89" t="s">
-        <v>340</v>
-      </c>
-      <c r="G89" t="s">
-        <v>341</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I89" t="s">
-        <v>343</v>
-      </c>
-      <c r="J89" t="s">
-        <v>344</v>
-      </c>
-      <c r="M89" t="s">
-        <v>6</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="90" spans="5:14">
-      <c r="E90" t="s">
-        <v>346</v>
-      </c>
-      <c r="F90" t="s">
-        <v>347</v>
-      </c>
-      <c r="G90" t="s">
-        <v>348</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I90" t="s">
-        <v>112</v>
-      </c>
-      <c r="J90" t="s">
-        <v>350</v>
-      </c>
-      <c r="M90" t="s">
-        <v>6</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" spans="5:14">
-      <c r="E91" t="s">
-        <v>352</v>
-      </c>
-      <c r="F91" t="s">
-        <v>353</v>
-      </c>
-      <c r="G91" t="s">
-        <v>348</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I91" t="s">
-        <v>92</v>
-      </c>
-      <c r="J91" t="s">
-        <v>354</v>
-      </c>
-      <c r="M91" t="s">
-        <v>6</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="5:14">
-      <c r="E92" t="s">
-        <v>355</v>
-      </c>
-      <c r="F92" t="s">
-        <v>356</v>
-      </c>
-      <c r="G92" t="s">
-        <v>357</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I92" t="s">
-        <v>80</v>
-      </c>
-      <c r="J92" t="s">
-        <v>358</v>
-      </c>
-      <c r="M92" t="s">
-        <v>6</v>
-      </c>
-      <c r="N92" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="93" spans="5:14">
-      <c r="E93" t="s">
-        <v>360</v>
-      </c>
-      <c r="F93" t="s">
-        <v>361</v>
-      </c>
-      <c r="G93" t="s">
-        <v>357</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I93" t="s">
-        <v>231</v>
-      </c>
-      <c r="J93" t="s">
-        <v>358</v>
-      </c>
-      <c r="M93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N93" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
     <row r="94" spans="5:14">
-      <c r="E94" t="s">
+      <c r="E94" t="s" s="0">
         <v>362</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" t="s" s="0">
         <v>363</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" t="s" s="0">
         <v>364</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" t="s" s="0">
         <v>366</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="5:14">
-      <c r="E95" t="s">
-        <v>368</v>
-      </c>
-      <c r="F95" t="s">
-        <v>369</v>
-      </c>
-      <c r="G95" t="s">
-        <v>370</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I95" t="s">
-        <v>92</v>
-      </c>
-      <c r="J95" t="s">
-        <v>372</v>
-      </c>
-      <c r="M95" t="s">
-        <v>373</v>
-      </c>
-      <c r="N95" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="96" spans="5:14">
-      <c r="E96" t="s">
-        <v>375</v>
-      </c>
-      <c r="F96" t="s">
-        <v>376</v>
-      </c>
-      <c r="G96" t="s">
-        <v>377</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I96" t="s">
-        <v>4</v>
-      </c>
-      <c r="J96" t="s">
-        <v>378</v>
-      </c>
-      <c r="M96" t="s">
-        <v>6</v>
-      </c>
-      <c r="N96" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
     <row r="97" spans="5:14">
-      <c r="E97" t="s">
+      <c r="E97" t="s" s="0">
         <v>379</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" t="s" s="0">
         <v>381</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" t="s" s="0">
         <v>382</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" t="s" s="0">
         <v>383</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6564,25 +5264,25 @@
       </c>
     </row>
     <row r="98" spans="5:14">
-      <c r="E98" t="s">
+      <c r="E98" t="s" s="0">
         <v>384</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" t="s" s="0">
         <v>385</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" t="s" s="0">
         <v>386</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" t="s" s="0">
         <v>387</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6590,103 +5290,51 @@
       </c>
     </row>
     <row r="99" spans="5:14">
-      <c r="E99" t="s">
+      <c r="E99" t="s" s="0">
         <v>388</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" t="s" s="0">
         <v>389</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" t="s" s="0">
         <v>390</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" t="s" s="0">
         <v>391</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="100" spans="5:14">
-      <c r="E100" t="s">
-        <v>392</v>
-      </c>
-      <c r="F100" t="s">
-        <v>393</v>
-      </c>
-      <c r="G100" t="s">
-        <v>394</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I100" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" t="s">
-        <v>395</v>
-      </c>
-      <c r="M100" t="s">
-        <v>6</v>
-      </c>
-      <c r="N100" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="101" spans="5:14">
-      <c r="E101" t="s">
-        <v>397</v>
-      </c>
-      <c r="F101" t="s">
-        <v>398</v>
-      </c>
-      <c r="G101" t="s">
-        <v>399</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I101" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" t="s">
-        <v>400</v>
-      </c>
-      <c r="M101" t="s">
-        <v>6</v>
-      </c>
-      <c r="N101" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
     <row r="102" spans="5:14">
-      <c r="E102" t="s">
+      <c r="E102" t="s" s="0">
         <v>401</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" t="s" s="0">
         <v>402</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" t="s" s="0">
         <v>403</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" t="s" s="0">
         <v>404</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6694,25 +5342,25 @@
       </c>
     </row>
     <row r="103" spans="5:14">
-      <c r="E103" t="s">
+      <c r="E103" t="s" s="0">
         <v>405</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" t="s" s="0">
         <v>406</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" t="s" s="0">
         <v>409</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -6720,25 +5368,25 @@
       </c>
     </row>
     <row r="104" spans="5:14">
-      <c r="E104" t="s">
+      <c r="E104" t="s" s="0">
         <v>410</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" t="s" s="0">
         <v>411</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" t="s" s="0">
         <v>412</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" t="s" s="0">
         <v>414</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -6746,25 +5394,25 @@
       </c>
     </row>
     <row r="105" spans="5:14">
-      <c r="E105" t="s">
+      <c r="E105" t="s" s="0">
         <v>415</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" t="s" s="0">
         <v>416</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" t="s" s="0">
         <v>419</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -6772,25 +5420,25 @@
       </c>
     </row>
     <row r="106" spans="5:14">
-      <c r="E106" t="s">
+      <c r="E106" t="s" s="0">
         <v>420</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" t="s" s="0">
         <v>421</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" t="s" s="0">
         <v>422</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" t="s" s="0">
         <v>423</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -6798,25 +5446,25 @@
       </c>
     </row>
     <row r="107" spans="5:14">
-      <c r="E107" t="s">
+      <c r="E107" t="s" s="0">
         <v>424</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" t="s" s="0">
         <v>425</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" t="s" s="0">
         <v>426</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" t="s" s="0">
         <v>427</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -6824,25 +5472,25 @@
       </c>
     </row>
     <row r="108" spans="5:14">
-      <c r="E108" t="s">
+      <c r="E108" t="s" s="0">
         <v>428</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" t="s" s="0">
         <v>429</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" t="s" s="0">
         <v>430</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" t="s" s="0">
         <v>431</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -6850,25 +5498,25 @@
       </c>
     </row>
     <row r="109" spans="5:14">
-      <c r="E109" t="s">
+      <c r="E109" t="s" s="0">
         <v>432</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" t="s" s="0">
         <v>433</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" t="s" s="0">
         <v>434</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -6876,25 +5524,25 @@
       </c>
     </row>
     <row r="110" spans="5:14">
-      <c r="E110" t="s">
+      <c r="E110" t="s" s="0">
         <v>436</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" t="s" s="0">
         <v>437</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" t="s" s="0">
         <v>438</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" t="s" s="0">
         <v>440</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -6902,25 +5550,25 @@
       </c>
     </row>
     <row r="111" spans="5:14">
-      <c r="E111" t="s">
+      <c r="E111" t="s" s="0">
         <v>441</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" t="s" s="0">
         <v>442</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" t="s" s="0">
         <v>399</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" t="s" s="0">
         <v>443</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" t="s" s="0">
         <v>444</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -6928,25 +5576,25 @@
       </c>
     </row>
     <row r="112" spans="5:14">
-      <c r="E112" t="s">
+      <c r="E112" t="s" s="0">
         <v>445</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" t="s" s="0">
         <v>446</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" t="s" s="0">
         <v>447</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" t="s" s="0">
         <v>449</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -6954,25 +5602,25 @@
       </c>
     </row>
     <row r="113" spans="5:14">
-      <c r="E113" t="s">
+      <c r="E113" t="s" s="0">
         <v>450</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" t="s" s="0">
         <v>452</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" t="s" s="0">
         <v>453</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -6980,25 +5628,25 @@
       </c>
     </row>
     <row r="114" spans="5:14">
-      <c r="E114" t="s">
+      <c r="E114" t="s" s="0">
         <v>454</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" t="s" s="0">
         <v>455</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" t="s" s="0">
         <v>430</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" t="s" s="0">
         <v>456</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7006,25 +5654,25 @@
       </c>
     </row>
     <row r="115" spans="5:14">
-      <c r="E115" t="s">
+      <c r="E115" t="s" s="0">
         <v>457</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" t="s" s="0">
         <v>458</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" t="s" s="0">
         <v>399</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" t="s" s="0">
         <v>460</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -7032,25 +5680,25 @@
       </c>
     </row>
     <row r="116" spans="5:14">
-      <c r="E116" t="s">
+      <c r="E116" t="s" s="0">
         <v>461</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" t="s" s="0">
         <v>462</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" t="s" s="0">
         <v>438</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" t="s" s="0">
         <v>463</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7058,25 +5706,25 @@
       </c>
     </row>
     <row r="117" spans="5:14">
-      <c r="E117" t="s">
+      <c r="E117" t="s" s="0">
         <v>464</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" t="s" s="0">
         <v>465</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" t="s" s="0">
         <v>466</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" t="s" s="0">
         <v>467</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7084,25 +5732,25 @@
       </c>
     </row>
     <row r="118" spans="5:14">
-      <c r="E118" t="s">
+      <c r="E118" t="s" s="0">
         <v>468</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" t="s" s="0">
         <v>469</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" t="s" s="0">
         <v>470</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" t="s" s="0">
         <v>471</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" t="s" s="0">
         <v>472</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -7110,25 +5758,25 @@
       </c>
     </row>
     <row r="119" spans="5:14">
-      <c r="E119" t="s">
+      <c r="E119" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" t="s" s="0">
         <v>474</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" t="s" s="0">
         <v>475</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" t="s" s="0">
         <v>476</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7136,25 +5784,25 @@
       </c>
     </row>
     <row r="120" spans="5:14">
-      <c r="E120" t="s">
+      <c r="E120" t="s" s="0">
         <v>477</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" t="s" s="0">
         <v>478</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" t="s" s="0">
         <v>479</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" t="s" s="0">
         <v>480</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7162,25 +5810,25 @@
       </c>
     </row>
     <row r="121" spans="5:14">
-      <c r="E121" t="s">
+      <c r="E121" t="s" s="0">
         <v>481</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" t="s" s="0">
         <v>482</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" t="s" s="0">
         <v>483</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" t="s" s="0">
         <v>484</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" t="s" s="0">
         <v>485</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -7188,25 +5836,25 @@
       </c>
     </row>
     <row r="122" spans="5:14">
-      <c r="E122" t="s">
+      <c r="E122" t="s" s="0">
         <v>486</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" t="s" s="0">
         <v>487</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" t="s" s="0">
         <v>439</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" t="s" s="0">
         <v>488</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -7214,25 +5862,25 @@
       </c>
     </row>
     <row r="123" spans="5:14">
-      <c r="E123" t="s">
+      <c r="E123" t="s" s="0">
         <v>489</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" t="s" s="0">
         <v>490</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" t="s" s="0">
         <v>491</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" t="s" s="0">
         <v>492</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -7240,25 +5888,25 @@
       </c>
     </row>
     <row r="124" spans="5:14">
-      <c r="E124" t="s">
+      <c r="E124" t="s" s="0">
         <v>493</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" t="s" s="0">
         <v>494</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" t="s" s="0">
         <v>438</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" t="s" s="0">
         <v>495</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" t="s" s="0">
         <v>496</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -7266,25 +5914,25 @@
       </c>
     </row>
     <row r="125" spans="5:14">
-      <c r="E125" t="s">
+      <c r="E125" t="s" s="0">
         <v>497</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" t="s" s="0">
         <v>498</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" t="s" s="0">
         <v>499</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -7292,25 +5940,25 @@
       </c>
     </row>
     <row r="126" spans="5:14">
-      <c r="E126" t="s">
+      <c r="E126" t="s" s="0">
         <v>500</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" t="s" s="0">
         <v>501</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" t="s" s="0">
         <v>502</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J126" t="s" s="0">
         <v>503</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -7318,25 +5966,25 @@
       </c>
     </row>
     <row r="127" spans="5:14">
-      <c r="E127" t="s">
+      <c r="E127" t="s" s="0">
         <v>504</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" t="s" s="0">
         <v>505</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" t="s" s="0">
         <v>399</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J127" t="s" s="0">
         <v>506</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -7344,25 +5992,25 @@
       </c>
     </row>
     <row r="128" spans="5:14">
-      <c r="E128" t="s">
+      <c r="E128" t="s" s="0">
         <v>507</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" t="s" s="0">
         <v>508</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" t="s" s="0">
         <v>399</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" t="s" s="0">
         <v>221</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J128" t="s" s="0">
         <v>509</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -7370,25 +6018,25 @@
       </c>
     </row>
     <row r="129" spans="5:14">
-      <c r="E129" t="s">
+      <c r="E129" t="s" s="0">
         <v>510</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" t="s" s="0">
         <v>511</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" t="s" s="0">
         <v>512</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="J129" t="s">
+      <c r="J129" t="s" s="0">
         <v>513</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -7396,25 +6044,25 @@
       </c>
     </row>
     <row r="130" spans="5:14">
-      <c r="E130" t="s">
+      <c r="E130" t="s" s="0">
         <v>514</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" t="s" s="0">
         <v>515</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" t="s" s="0">
         <v>516</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" t="s" s="0">
         <v>517</v>
       </c>
-      <c r="J130" t="s">
+      <c r="J130" t="s" s="0">
         <v>518</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -7422,25 +6070,25 @@
       </c>
     </row>
     <row r="131" spans="5:14">
-      <c r="E131" t="s">
+      <c r="E131" t="s" s="0">
         <v>519</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" t="s" s="0">
         <v>520</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" t="s" s="0">
         <v>438</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" t="s" s="0">
         <v>521</v>
       </c>
-      <c r="J131" t="s">
+      <c r="J131" t="s" s="0">
         <v>522</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -7448,25 +6096,25 @@
       </c>
     </row>
     <row r="132" spans="5:14">
-      <c r="E132" t="s">
+      <c r="E132" t="s" s="0">
         <v>523</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" t="s" s="0">
         <v>524</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" t="s" s="0">
         <v>412</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" t="s" s="0">
         <v>484</v>
       </c>
-      <c r="J132" t="s">
+      <c r="J132" t="s" s="0">
         <v>525</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -7474,25 +6122,25 @@
       </c>
     </row>
     <row r="133" spans="5:14">
-      <c r="E133" t="s">
+      <c r="E133" t="s" s="0">
         <v>526</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" t="s" s="0">
         <v>527</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J133" t="s" s="0">
         <v>528</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -7500,25 +6148,25 @@
       </c>
     </row>
     <row r="134" spans="5:14">
-      <c r="E134" t="s">
+      <c r="E134" t="s" s="0">
         <v>529</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" t="s" s="0">
         <v>530</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" t="s" s="0">
         <v>531</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J134" t="s">
+      <c r="J134" t="s" s="0">
         <v>532</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -7526,25 +6174,25 @@
       </c>
     </row>
     <row r="135" spans="5:14">
-      <c r="E135" t="s">
+      <c r="E135" t="s" s="0">
         <v>533</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" t="s" s="0">
         <v>534</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" t="s" s="0">
         <v>438</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" t="s" s="0">
         <v>535</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -7552,25 +6200,25 @@
       </c>
     </row>
     <row r="136" spans="5:14">
-      <c r="E136" t="s">
+      <c r="E136" t="s" s="0">
         <v>536</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" t="s" s="0">
         <v>537</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" t="s" s="0">
         <v>516</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" t="s" s="0">
         <v>517</v>
       </c>
-      <c r="J136" t="s">
+      <c r="J136" t="s" s="0">
         <v>538</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -7578,25 +6226,25 @@
       </c>
     </row>
     <row r="137" spans="5:14">
-      <c r="E137" t="s">
+      <c r="E137" t="s" s="0">
         <v>539</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" t="s" s="0">
         <v>540</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" t="s" s="0">
         <v>541</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I137" t="s">
+      <c r="I137" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="J137" t="s">
+      <c r="J137" t="s" s="0">
         <v>542</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -7604,25 +6252,25 @@
       </c>
     </row>
     <row r="138" spans="5:14">
-      <c r="E138" t="s">
+      <c r="E138" t="s" s="0">
         <v>543</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" t="s" s="0">
         <v>544</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" t="s" s="0">
         <v>545</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J138" t="s">
+      <c r="J138" t="s" s="0">
         <v>546</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -7630,25 +6278,25 @@
       </c>
     </row>
     <row r="139" spans="5:14">
-      <c r="E139" t="s">
+      <c r="E139" t="s" s="0">
         <v>547</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" t="s" s="0">
         <v>548</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" t="s" s="0">
         <v>466</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I139" t="s">
+      <c r="I139" t="s" s="0">
         <v>549</v>
       </c>
-      <c r="J139" t="s">
+      <c r="J139" t="s" s="0">
         <v>550</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -7656,25 +6304,25 @@
       </c>
     </row>
     <row r="140" spans="5:14">
-      <c r="E140" t="s">
+      <c r="E140" t="s" s="0">
         <v>551</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" t="s" s="0">
         <v>552</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" t="s" s="0">
         <v>553</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" t="s" s="0">
         <v>554</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -7682,25 +6330,25 @@
       </c>
     </row>
     <row r="141" spans="5:14">
-      <c r="E141" t="s">
+      <c r="E141" t="s" s="0">
         <v>555</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" t="s" s="0">
         <v>556</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="J141" t="s">
+      <c r="J141" t="s" s="0">
         <v>557</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -7708,25 +6356,25 @@
       </c>
     </row>
     <row r="142" spans="5:14">
-      <c r="E142" t="s">
+      <c r="E142" t="s" s="0">
         <v>558</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" t="s" s="0">
         <v>559</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="J142" t="s">
+      <c r="J142" t="s" s="0">
         <v>560</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -7734,25 +6382,25 @@
       </c>
     </row>
     <row r="143" spans="5:14">
-      <c r="E143" t="s">
+      <c r="E143" t="s" s="0">
         <v>561</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" t="s" s="0">
         <v>562</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J143" t="s">
+      <c r="J143" t="s" s="0">
         <v>563</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -7760,25 +6408,25 @@
       </c>
     </row>
     <row r="144" spans="5:14">
-      <c r="E144" t="s">
+      <c r="E144" t="s" s="0">
         <v>564</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" t="s" s="0">
         <v>565</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="J144" t="s">
+      <c r="J144" t="s" s="0">
         <v>566</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -7786,25 +6434,25 @@
       </c>
     </row>
     <row r="145" spans="5:14">
-      <c r="E145" t="s">
+      <c r="E145" t="s" s="0">
         <v>567</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" t="s" s="0">
         <v>568</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" t="s" s="0">
         <v>438</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J145" t="s">
+      <c r="J145" t="s" s="0">
         <v>569</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -7812,25 +6460,25 @@
       </c>
     </row>
     <row r="146" spans="5:14">
-      <c r="E146" t="s">
+      <c r="E146" t="s" s="0">
         <v>570</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" t="s" s="0">
         <v>571</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" t="s" s="0">
         <v>412</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" t="s" s="0">
         <v>521</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" t="s" s="0">
         <v>572</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -7838,25 +6486,25 @@
       </c>
     </row>
     <row r="147" spans="5:14">
-      <c r="E147" t="s">
+      <c r="E147" t="s" s="0">
         <v>573</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" t="s" s="0">
         <v>574</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" t="s" s="0">
         <v>575</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -7864,25 +6512,25 @@
       </c>
     </row>
     <row r="148" spans="5:14">
-      <c r="E148" t="s">
+      <c r="E148" t="s" s="0">
         <v>576</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" t="s" s="0">
         <v>577</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" t="s" s="0">
         <v>417</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" t="s" s="0">
         <v>578</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -7890,25 +6538,25 @@
       </c>
     </row>
     <row r="149" spans="5:14">
-      <c r="E149" t="s">
+      <c r="E149" t="s" s="0">
         <v>579</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" t="s" s="0">
         <v>580</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" t="s" s="0">
         <v>581</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" t="s" s="0">
         <v>582</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -7916,25 +6564,25 @@
       </c>
     </row>
     <row r="150" spans="5:14">
-      <c r="E150" t="s">
+      <c r="E150" t="s" s="0">
         <v>583</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" t="s" s="0">
         <v>584</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" t="s" s="0">
         <v>412</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" t="s" s="0">
         <v>408</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" t="s" s="0">
         <v>585</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -7942,25 +6590,25 @@
       </c>
     </row>
     <row r="151" spans="5:14">
-      <c r="E151" t="s">
+      <c r="E151" t="s" s="0">
         <v>586</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" t="s" s="0">
         <v>587</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" t="s" s="0">
         <v>434</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" t="s" s="0">
         <v>588</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -7968,25 +6616,25 @@
       </c>
     </row>
     <row r="152" spans="5:14">
-      <c r="E152" t="s">
+      <c r="E152" t="s" s="0">
         <v>589</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" t="s" s="0">
         <v>590</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" t="s" s="0">
         <v>479</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" t="s" s="0">
         <v>591</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -7994,25 +6642,25 @@
       </c>
     </row>
     <row r="153" spans="5:14">
-      <c r="E153" t="s">
+      <c r="E153" t="s" s="0">
         <v>592</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" t="s" s="0">
         <v>593</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" t="s" s="0">
         <v>594</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" t="s" s="0">
         <v>595</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -8020,25 +6668,25 @@
       </c>
     </row>
     <row r="154" spans="5:14">
-      <c r="E154" t="s">
+      <c r="E154" t="s" s="0">
         <v>596</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" t="s" s="0">
         <v>597</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" t="s" s="0">
         <v>598</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" t="s" s="0">
         <v>599</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -8046,25 +6694,25 @@
       </c>
     </row>
     <row r="155" spans="5:14">
-      <c r="E155" t="s">
+      <c r="E155" t="s" s="0">
         <v>600</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" t="s" s="0">
         <v>601</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" t="s" s="0">
         <v>598</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" t="s" s="0">
         <v>602</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -8072,25 +6720,25 @@
       </c>
     </row>
     <row r="156" spans="5:14">
-      <c r="E156" t="s">
+      <c r="E156" t="s" s="0">
         <v>603</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" t="s" s="0">
         <v>604</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" t="s" s="0">
         <v>407</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="J156" t="s">
+      <c r="J156" t="s" s="0">
         <v>605</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -8098,25 +6746,25 @@
       </c>
     </row>
     <row r="157" spans="5:14">
-      <c r="E157" t="s">
+      <c r="E157" t="s" s="0">
         <v>606</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" t="s" s="0">
         <v>607</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" t="s" s="0">
         <v>581</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J157" t="s">
+      <c r="J157" t="s" s="0">
         <v>608</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -8124,181 +6772,77 @@
       </c>
     </row>
     <row r="158" spans="5:14">
-      <c r="E158" t="s">
+      <c r="E158" t="s" s="0">
         <v>609</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" t="s" s="0">
         <v>610</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" t="s" s="0">
         <v>581</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J158" t="s">
+      <c r="J158" t="s" s="0">
         <v>611</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="159" spans="5:14">
-      <c r="E159" t="s">
-        <v>612</v>
-      </c>
-      <c r="F159" t="s">
-        <v>613</v>
-      </c>
-      <c r="G159" t="s">
-        <v>614</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I159" t="s">
-        <v>616</v>
-      </c>
-      <c r="J159" t="s">
-        <v>617</v>
-      </c>
-      <c r="M159" t="s">
-        <v>6</v>
-      </c>
-      <c r="N159" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="160" spans="5:14">
-      <c r="E160" t="s">
-        <v>619</v>
-      </c>
-      <c r="F160" t="s">
-        <v>620</v>
-      </c>
-      <c r="G160" t="s">
-        <v>621</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I160" t="s">
-        <v>45</v>
-      </c>
-      <c r="J160" t="s">
-        <v>622</v>
-      </c>
-      <c r="M160" t="s">
-        <v>6</v>
-      </c>
-      <c r="N160" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
     <row r="161" spans="5:14">
-      <c r="E161" t="s">
+      <c r="E161" t="s" s="0">
         <v>623</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" t="s" s="0">
         <v>624</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" t="s" s="0">
         <v>625</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I161" t="s">
+      <c r="I161" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" t="s" s="0">
         <v>626</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="162" spans="5:14">
-      <c r="E162" t="s">
-        <v>627</v>
-      </c>
-      <c r="F162" t="s">
-        <v>628</v>
-      </c>
-      <c r="G162" t="s">
-        <v>629</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I162" t="s">
-        <v>149</v>
-      </c>
-      <c r="J162" t="s">
-        <v>630</v>
-      </c>
-      <c r="M162" t="s">
-        <v>6</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="163" spans="5:14">
-      <c r="E163" t="s">
-        <v>632</v>
-      </c>
-      <c r="F163" t="s">
-        <v>633</v>
-      </c>
-      <c r="G163" t="s">
-        <v>634</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I163" t="s">
-        <v>635</v>
-      </c>
-      <c r="J163" t="s">
-        <v>636</v>
-      </c>
-      <c r="M163" t="s">
-        <v>6</v>
-      </c>
-      <c r="N163" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
     <row r="164" spans="5:14">
-      <c r="E164" t="s">
+      <c r="E164" t="s" s="0">
         <v>637</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" t="s" s="0">
         <v>638</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" t="s" s="0">
         <v>639</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J164" t="s">
+      <c r="J164" t="s" s="0">
         <v>640</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -8306,25 +6850,25 @@
       </c>
     </row>
     <row r="165" spans="5:14">
-      <c r="E165" t="s">
+      <c r="E165" t="s" s="0">
         <v>641</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" t="s" s="0">
         <v>642</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" t="s" s="0">
         <v>643</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I165" t="s">
+      <c r="I165" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J165" t="s">
+      <c r="J165" t="s" s="0">
         <v>644</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -8332,25 +6876,25 @@
       </c>
     </row>
     <row r="166" spans="5:14">
-      <c r="E166" t="s">
+      <c r="E166" t="s" s="0">
         <v>645</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" t="s" s="0">
         <v>646</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" t="s" s="0">
         <v>647</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" t="s" s="0">
         <v>448</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J166" t="s" s="0">
         <v>648</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -8358,25 +6902,25 @@
       </c>
     </row>
     <row r="167" spans="5:14">
-      <c r="E167" t="s">
+      <c r="E167" t="s" s="0">
         <v>649</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" t="s" s="0">
         <v>650</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" t="s" s="0">
         <v>651</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J167" t="s" s="0">
         <v>652</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -8384,25 +6928,25 @@
       </c>
     </row>
     <row r="168" spans="5:14">
-      <c r="E168" t="s">
+      <c r="E168" t="s" s="0">
         <v>653</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" t="s" s="0">
         <v>654</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" t="s" s="0">
         <v>655</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J168" t="s">
+      <c r="J168" t="s" s="0">
         <v>656</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -8410,25 +6954,25 @@
       </c>
     </row>
     <row r="169" spans="5:14">
-      <c r="E169" t="s">
+      <c r="E169" t="s" s="0">
         <v>657</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" t="s" s="0">
         <v>658</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" t="s" s="0">
         <v>659</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I169" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J169" t="s" s="0">
         <v>660</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -8436,25 +6980,25 @@
       </c>
     </row>
     <row r="170" spans="5:14">
-      <c r="E170" t="s">
+      <c r="E170" t="s" s="0">
         <v>661</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" t="s" s="0">
         <v>662</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" t="s" s="0">
         <v>663</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I170" t="s">
+      <c r="I170" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J170" t="s" s="0">
         <v>664</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -8462,25 +7006,25 @@
       </c>
     </row>
     <row r="171" spans="5:14">
-      <c r="E171" t="s">
+      <c r="E171" t="s" s="0">
         <v>665</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" t="s" s="0">
         <v>666</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" t="s" s="0">
         <v>667</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" t="s" s="0">
         <v>635</v>
       </c>
-      <c r="J171" t="s">
+      <c r="J171" t="s" s="0">
         <v>668</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -8488,25 +7032,25 @@
       </c>
     </row>
     <row r="172" spans="5:14">
-      <c r="E172" t="s">
+      <c r="E172" t="s" s="0">
         <v>669</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" t="s" s="0">
         <v>670</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" t="s" s="0">
         <v>671</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="J172" t="s">
+      <c r="J172" t="s" s="0">
         <v>672</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -8514,25 +7058,25 @@
       </c>
     </row>
     <row r="173" spans="5:14">
-      <c r="E173" t="s">
+      <c r="E173" t="s" s="0">
         <v>673</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" t="s" s="0">
         <v>674</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" t="s" s="0">
         <v>675</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="J173" t="s">
+      <c r="J173" t="s" s="0">
         <v>676</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -8540,25 +7084,25 @@
       </c>
     </row>
     <row r="174" spans="5:14">
-      <c r="E174" t="s">
+      <c r="E174" t="s" s="0">
         <v>677</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" t="s" s="0">
         <v>678</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" t="s" s="0">
         <v>679</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" t="s" s="0">
         <v>616</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" t="s" s="0">
         <v>680</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -8566,25 +7110,25 @@
       </c>
     </row>
     <row r="175" spans="5:14">
-      <c r="E175" t="s">
+      <c r="E175" t="s" s="0">
         <v>681</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" t="s" s="0">
         <v>682</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" t="s" s="0">
         <v>683</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J175" t="s">
+      <c r="J175" t="s" s="0">
         <v>684</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -8592,25 +7136,25 @@
       </c>
     </row>
     <row r="176" spans="5:14">
-      <c r="E176" t="s">
+      <c r="E176" t="s" s="0">
         <v>685</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" t="s" s="0">
         <v>686</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" t="s" s="0">
         <v>687</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="J176" t="s">
+      <c r="J176" t="s" s="0">
         <v>688</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -8618,25 +7162,25 @@
       </c>
     </row>
     <row r="177" spans="5:14">
-      <c r="E177" t="s">
+      <c r="E177" t="s" s="0">
         <v>689</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" t="s" s="0">
         <v>690</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" t="s" s="0">
         <v>691</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="J177" t="s">
+      <c r="J177" t="s" s="0">
         <v>692</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -8644,25 +7188,25 @@
       </c>
     </row>
     <row r="178" spans="5:14">
-      <c r="E178" t="s">
+      <c r="E178" t="s" s="0">
         <v>693</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" t="s" s="0">
         <v>694</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" t="s" s="0">
         <v>695</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" t="s" s="0">
         <v>696</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -8670,25 +7214,25 @@
       </c>
     </row>
     <row r="179" spans="5:14">
-      <c r="E179" t="s">
+      <c r="E179" t="s" s="0">
         <v>697</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" t="s" s="0">
         <v>698</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" t="s" s="0">
         <v>699</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" t="s" s="0">
         <v>700</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -8696,25 +7240,25 @@
       </c>
     </row>
     <row r="180" spans="5:14">
-      <c r="E180" t="s">
+      <c r="E180" t="s" s="0">
         <v>701</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" t="s" s="0">
         <v>702</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" t="s" s="0">
         <v>703</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" t="s" s="0">
         <v>704</v>
       </c>
-      <c r="J180" t="s">
+      <c r="J180" t="s" s="0">
         <v>705</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -8722,25 +7266,25 @@
       </c>
     </row>
     <row r="181" spans="5:14">
-      <c r="E181" t="s">
+      <c r="E181" t="s" s="0">
         <v>706</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" t="s" s="0">
         <v>707</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" t="s" s="0">
         <v>708</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J181" t="s">
+      <c r="J181" t="s" s="0">
         <v>709</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -8748,103 +7292,51 @@
       </c>
     </row>
     <row r="182" spans="5:14">
-      <c r="E182" t="s">
+      <c r="E182" t="s" s="0">
         <v>710</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" t="s" s="0">
         <v>711</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" t="s" s="0">
         <v>712</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I182" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" t="s" s="0">
         <v>713</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N182" s="2" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="183" spans="5:14">
-      <c r="E183" t="s">
-        <v>714</v>
-      </c>
-      <c r="F183" t="s">
-        <v>715</v>
-      </c>
-      <c r="G183" t="s">
-        <v>716</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="I183" t="s">
-        <v>30</v>
-      </c>
-      <c r="J183" t="s">
-        <v>718</v>
-      </c>
-      <c r="M183" t="s">
-        <v>373</v>
-      </c>
-      <c r="N183" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="184" spans="5:14">
-      <c r="E184" t="s">
-        <v>720</v>
-      </c>
-      <c r="F184" t="s">
-        <v>721</v>
-      </c>
-      <c r="G184" t="s">
-        <v>722</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="I184" t="s">
-        <v>40</v>
-      </c>
-      <c r="J184" t="s">
-        <v>723</v>
-      </c>
-      <c r="M184" t="s">
-        <v>6</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
     <row r="185" spans="5:14">
-      <c r="E185" t="s">
+      <c r="E185" t="s" s="0">
         <v>724</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" t="s" s="0">
         <v>725</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" t="s" s="0">
         <v>726</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" t="s" s="0">
         <v>727</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" t="s" s="0">
         <v>728</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -8852,77 +7344,51 @@
       </c>
     </row>
     <row r="186" spans="5:14">
-      <c r="E186" t="s">
+      <c r="E186" t="s" s="0">
         <v>729</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" t="s" s="0">
         <v>730</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" t="s" s="0">
         <v>731</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" t="s" s="0">
         <v>727</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J186" t="s" s="0">
         <v>732</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="187" spans="5:14">
-      <c r="E187" t="s">
-        <v>733</v>
-      </c>
-      <c r="F187" t="s">
-        <v>734</v>
-      </c>
-      <c r="G187" t="s">
-        <v>735</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="I187" t="s">
-        <v>736</v>
-      </c>
-      <c r="J187" t="s">
-        <v>737</v>
-      </c>
-      <c r="M187" t="s">
-        <v>6</v>
-      </c>
-      <c r="N187" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
     <row r="188" spans="5:14">
-      <c r="E188" t="s">
+      <c r="E188" t="s" s="0">
         <v>738</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" t="s" s="0">
         <v>739</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" t="s" s="0">
         <v>740</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" t="s" s="0">
         <v>741</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" t="s" s="0">
         <v>742</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -8930,25 +7396,25 @@
       </c>
     </row>
     <row r="189" spans="5:14">
-      <c r="E189" t="s">
+      <c r="E189" t="s" s="0">
         <v>743</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" t="s" s="0">
         <v>744</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" t="s" s="0">
         <v>745</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" t="s" s="0">
         <v>746</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -8956,25 +7422,25 @@
       </c>
     </row>
     <row r="190" spans="5:14">
-      <c r="E190" t="s">
+      <c r="E190" t="s" s="0">
         <v>747</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" t="s" s="0">
         <v>748</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" t="s" s="0">
         <v>749</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" t="s" s="0">
         <v>727</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" t="s" s="0">
         <v>750</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -8982,25 +7448,25 @@
       </c>
     </row>
     <row r="191" spans="5:14">
-      <c r="E191" t="s">
+      <c r="E191" t="s" s="0">
         <v>751</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" t="s" s="0">
         <v>752</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" t="s" s="0">
         <v>753</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" t="s" s="0">
         <v>754</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -9008,25 +7474,25 @@
       </c>
     </row>
     <row r="192" spans="5:14">
-      <c r="E192" t="s">
+      <c r="E192" t="s" s="0">
         <v>755</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" t="s" s="0">
         <v>756</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" t="s" s="0">
         <v>757</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" t="s" s="0">
         <v>758</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" t="s" s="0">
         <v>759</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -9034,25 +7500,25 @@
       </c>
     </row>
     <row r="193" spans="5:14">
-      <c r="E193" t="s">
+      <c r="E193" t="s" s="0">
         <v>760</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" t="s" s="0">
         <v>761</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" t="s" s="0">
         <v>762</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" t="s" s="0">
         <v>764</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -9060,25 +7526,25 @@
       </c>
     </row>
     <row r="194" spans="5:14">
-      <c r="E194" t="s">
+      <c r="E194" t="s" s="0">
         <v>765</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" t="s" s="0">
         <v>766</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" t="s" s="0">
         <v>767</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" t="s" s="0">
         <v>274</v>
       </c>
-      <c r="J194" t="s">
+      <c r="J194" t="s" s="0">
         <v>768</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -9086,25 +7552,25 @@
       </c>
     </row>
     <row r="195" spans="5:14">
-      <c r="E195" t="s">
+      <c r="E195" t="s" s="0">
         <v>769</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" t="s" s="0">
         <v>770</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" t="s" s="0">
         <v>771</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J195" t="s">
+      <c r="J195" t="s" s="0">
         <v>772</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -9112,25 +7578,25 @@
       </c>
     </row>
     <row r="196" spans="5:14">
-      <c r="E196" t="s">
+      <c r="E196" t="s" s="0">
         <v>773</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" t="s" s="0">
         <v>774</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" t="s" s="0">
         <v>775</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J196" t="s">
+      <c r="J196" t="s" s="0">
         <v>776</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -9138,25 +7604,25 @@
       </c>
     </row>
     <row r="197" spans="5:14">
-      <c r="E197" t="s">
+      <c r="E197" t="s" s="0">
         <v>777</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" t="s" s="0">
         <v>778</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" t="s" s="0">
         <v>779</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" t="s" s="0">
         <v>736</v>
       </c>
-      <c r="J197" t="s">
+      <c r="J197" t="s" s="0">
         <v>780</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -9164,25 +7630,25 @@
       </c>
     </row>
     <row r="198" spans="5:14">
-      <c r="E198" t="s">
+      <c r="E198" t="s" s="0">
         <v>781</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" t="s" s="0">
         <v>782</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" t="s" s="0">
         <v>783</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" t="s" s="0">
         <v>784</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" t="s" s="0">
         <v>785</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -9190,25 +7656,25 @@
       </c>
     </row>
     <row r="199" spans="5:14">
-      <c r="E199" t="s">
+      <c r="E199" t="s" s="0">
         <v>786</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" t="s" s="0">
         <v>787</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" t="s" s="0">
         <v>788</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J199" t="s" s="0">
         <v>789</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -9216,25 +7682,25 @@
       </c>
     </row>
     <row r="200" spans="5:14">
-      <c r="E200" t="s">
+      <c r="E200" t="s" s="0">
         <v>790</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" t="s" s="0">
         <v>791</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" t="s" s="0">
         <v>792</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J200" t="s" s="0">
         <v>793</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -9242,25 +7708,25 @@
       </c>
     </row>
     <row r="201" spans="5:14">
-      <c r="E201" t="s">
+      <c r="E201" t="s" s="0">
         <v>794</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" t="s" s="0">
         <v>795</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" t="s" s="0">
         <v>796</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J201" t="s" s="0">
         <v>797</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -9268,25 +7734,25 @@
       </c>
     </row>
     <row r="202" spans="5:14">
-      <c r="E202" t="s">
+      <c r="E202" t="s" s="0">
         <v>798</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" t="s" s="0">
         <v>799</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" t="s" s="0">
         <v>800</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J202" t="s" s="0">
         <v>801</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -9294,25 +7760,25 @@
       </c>
     </row>
     <row r="203" spans="5:14">
-      <c r="E203" t="s">
+      <c r="E203" t="s" s="0">
         <v>802</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" t="s" s="0">
         <v>803</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" t="s" s="0">
         <v>804</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J203" t="s" s="0">
         <v>805</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -9320,25 +7786,25 @@
       </c>
     </row>
     <row r="204" spans="5:14">
-      <c r="E204" t="s">
+      <c r="E204" t="s" s="0">
         <v>806</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" t="s" s="0">
         <v>807</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" t="s" s="0">
         <v>808</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J204" t="s" s="0">
         <v>809</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -9346,25 +7812,25 @@
       </c>
     </row>
     <row r="205" spans="5:14">
-      <c r="E205" t="s">
+      <c r="E205" t="s" s="0">
         <v>810</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" t="s" s="0">
         <v>811</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" t="s" s="0">
         <v>812</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" t="s" s="0">
         <v>813</v>
       </c>
-      <c r="J205" t="s">
+      <c r="J205" t="s" s="0">
         <v>814</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -9372,25 +7838,25 @@
       </c>
     </row>
     <row r="206" spans="5:14">
-      <c r="E206" t="s">
+      <c r="E206" t="s" s="0">
         <v>815</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" t="s" s="0">
         <v>816</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" t="s" s="0">
         <v>817</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" t="s" s="0">
         <v>818</v>
       </c>
-      <c r="J206" t="s">
+      <c r="J206" t="s" s="0">
         <v>819</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -9398,25 +7864,25 @@
       </c>
     </row>
     <row r="207" spans="5:14">
-      <c r="E207" t="s">
+      <c r="E207" t="s" s="0">
         <v>820</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" t="s" s="0">
         <v>821</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" t="s" s="0">
         <v>822</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J207" t="s">
+      <c r="J207" t="s" s="0">
         <v>823</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -9424,25 +7890,25 @@
       </c>
     </row>
     <row r="208" spans="5:14">
-      <c r="E208" t="s">
+      <c r="E208" t="s" s="0">
         <v>824</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" t="s" s="0">
         <v>825</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" t="s" s="0">
         <v>826</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J208" t="s">
+      <c r="J208" t="s" s="0">
         <v>827</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -9450,25 +7916,25 @@
       </c>
     </row>
     <row r="209" spans="5:14">
-      <c r="E209" t="s">
+      <c r="E209" t="s" s="0">
         <v>828</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" t="s" s="0">
         <v>829</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" t="s" s="0">
         <v>830</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I209" t="s">
+      <c r="I209" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J209" t="s" s="0">
         <v>831</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -9476,25 +7942,25 @@
       </c>
     </row>
     <row r="210" spans="5:14">
-      <c r="E210" t="s">
+      <c r="E210" t="s" s="0">
         <v>832</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" t="s" s="0">
         <v>833</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" t="s" s="0">
         <v>834</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J210" t="s">
+      <c r="J210" t="s" s="0">
         <v>835</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -9502,25 +7968,25 @@
       </c>
     </row>
     <row r="211" spans="5:14">
-      <c r="E211" t="s">
+      <c r="E211" t="s" s="0">
         <v>836</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" t="s" s="0">
         <v>837</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" t="s" s="0">
         <v>838</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="J211" t="s">
+      <c r="J211" t="s" s="0">
         <v>839</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -9528,25 +7994,25 @@
       </c>
     </row>
     <row r="212" spans="5:14">
-      <c r="E212" t="s">
+      <c r="E212" t="s" s="0">
         <v>840</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" t="s" s="0">
         <v>841</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" t="s" s="0">
         <v>842</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J212" t="s" s="0">
         <v>843</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -9554,25 +8020,25 @@
       </c>
     </row>
     <row r="213" spans="5:14">
-      <c r="E213" t="s">
+      <c r="E213" t="s" s="0">
         <v>844</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" t="s" s="0">
         <v>845</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" t="s" s="0">
         <v>846</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J213" t="s" s="0">
         <v>847</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -9580,25 +8046,25 @@
       </c>
     </row>
     <row r="214" spans="5:14">
-      <c r="E214" t="s">
+      <c r="E214" t="s" s="0">
         <v>848</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" t="s" s="0">
         <v>849</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" t="s" s="0">
         <v>850</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" t="s" s="0">
         <v>813</v>
       </c>
-      <c r="J214" t="s">
+      <c r="J214" t="s" s="0">
         <v>851</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N214" s="2" t="s">
@@ -9606,25 +8072,25 @@
       </c>
     </row>
     <row r="215" spans="5:14">
-      <c r="E215" t="s">
+      <c r="E215" t="s" s="0">
         <v>852</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" t="s" s="0">
         <v>853</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" t="s" s="0">
         <v>854</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J215" t="s">
+      <c r="J215" t="s" s="0">
         <v>855</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -9632,25 +8098,25 @@
       </c>
     </row>
     <row r="216" spans="5:14">
-      <c r="E216" t="s">
+      <c r="E216" t="s" s="0">
         <v>856</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" t="s" s="0">
         <v>857</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" t="s" s="0">
         <v>858</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I216" t="s">
+      <c r="I216" t="s" s="0">
         <v>763</v>
       </c>
-      <c r="J216" t="s">
+      <c r="J216" t="s" s="0">
         <v>859</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -9658,25 +8124,25 @@
       </c>
     </row>
     <row r="217" spans="5:14">
-      <c r="E217" t="s">
+      <c r="E217" t="s" s="0">
         <v>860</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" t="s" s="0">
         <v>861</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" t="s" s="0">
         <v>862</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J217" t="s">
+      <c r="J217" t="s" s="0">
         <v>863</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -9684,25 +8150,25 @@
       </c>
     </row>
     <row r="218" spans="5:14">
-      <c r="E218" t="s">
+      <c r="E218" t="s" s="0">
         <v>864</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" t="s" s="0">
         <v>865</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" t="s" s="0">
         <v>866</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="J218" t="s">
+      <c r="J218" t="s" s="0">
         <v>867</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -9710,25 +8176,25 @@
       </c>
     </row>
     <row r="219" spans="5:14">
-      <c r="E219" t="s">
+      <c r="E219" t="s" s="0">
         <v>868</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" t="s" s="0">
         <v>869</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" t="s" s="0">
         <v>870</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="J219" t="s">
+      <c r="J219" t="s" s="0">
         <v>871</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -9736,25 +8202,25 @@
       </c>
     </row>
     <row r="220" spans="5:14">
-      <c r="E220" t="s">
+      <c r="E220" t="s" s="0">
         <v>872</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" t="s" s="0">
         <v>873</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" t="s" s="0">
         <v>874</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" t="s" s="0">
         <v>875</v>
       </c>
-      <c r="J220" t="s">
+      <c r="J220" t="s" s="0">
         <v>876</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220" t="s" s="0">
         <v>6</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -9762,77 +8228,29 @@
       </c>
     </row>
     <row r="221" spans="5:14">
-      <c r="E221" t="s">
+      <c r="E221" t="s" s="0">
         <v>877</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" t="s" s="0">
         <v>878</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" t="s" s="0">
         <v>879</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" t="s" s="0">
         <v>880</v>
       </c>
-      <c r="J221" t="s">
+      <c r="J221" t="s" s="0">
         <v>881</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221" t="s" s="0">
         <v>373</v>
       </c>
       <c r="N221" s="2" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="222" spans="5:14">
-      <c r="E222" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J222" s="3"/>
-      <c r="K222" s="3"/>
-      <c r="L222" s="3"/>
-      <c r="M222" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N222" s="5" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="223" spans="5:14">
-      <c r="E223" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="I223" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J223" s="3"/>
-      <c r="K223" s="3"/>
-      <c r="L223" s="3"/>
-      <c r="M223" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N223" s="5" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="224" spans="5:14">
@@ -10459,58 +8877,6 @@
         <v>884</v>
       </c>
     </row>
-    <row r="250" spans="5:14">
-      <c r="E250" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>944</v>
-      </c>
-      <c r="H250" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="J250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N250" s="5" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="251" spans="5:14">
-      <c r="E251" s="3" t="s">
-        <v>942</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="H251" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J251" s="3"/>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3"/>
-      <c r="M251" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N251" s="5" t="s">
-        <v>947</v>
-      </c>
-    </row>
     <row r="252" spans="5:14">
       <c r="E252" s="3" t="s">
         <v>949</v>
@@ -10535,54 +8901,6 @@
       </c>
       <c r="N252" s="5" t="s">
         <v>947</v>
-      </c>
-    </row>
-    <row r="253" spans="5:14">
-      <c r="E253" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="G253" s="3"/>
-      <c r="H253" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="I253" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N253" s="5" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="254" spans="5:14">
-      <c r="E254" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>957</v>
-      </c>
-      <c r="G254" s="3"/>
-      <c r="H254" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N254" s="5" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="255" spans="5:14">
@@ -10705,54 +9023,6 @@
         <v>955</v>
       </c>
     </row>
-    <row r="260" spans="5:14">
-      <c r="E260" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>972</v>
-      </c>
-      <c r="G260" s="3"/>
-      <c r="H260" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="I260" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J260" s="3"/>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3"/>
-      <c r="M260" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N260" s="5" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="261" spans="5:14">
-      <c r="E261" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="G261" s="3"/>
-      <c r="H261" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="I261" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J261" s="3"/>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3"/>
-      <c r="M261" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="N261" s="5" t="s">
-        <v>974</v>
-      </c>
-    </row>
     <row r="262" spans="5:14">
       <c r="E262" s="3" t="s">
         <v>978</v>
@@ -10975,60 +9245,8 @@
         <v>974</v>
       </c>
     </row>
-    <row r="271" spans="5:14">
-      <c r="E271" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F271" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G271" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I271" t="s">
-        <v>4</v>
-      </c>
-      <c r="J271" t="s">
-        <v>1005</v>
-      </c>
-      <c r="M271" t="s">
-        <v>6</v>
-      </c>
-      <c r="N271" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="272" spans="5:14">
-      <c r="E272" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G272" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I272" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J272" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M272" t="s">
-        <v>6</v>
-      </c>
-      <c r="N272" s="2" t="s">
-        <v>1006</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="N1:N2243" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="N1:N2243" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="E9:N296">

--- a/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
+++ b/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14520"/>
+    <workbookView windowWidth="24680" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="2297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5522" uniqueCount="2619">
   <si>
     <t>Robert F Van Wynen</t>
   </si>
@@ -6921,6 +6921,972 @@
   </si>
   <si>
     <t>jteira@cristaladvocates.com</t>
+  </si>
+  <si>
+    <t>Jody E. Aldcorn</t>
+  </si>
+  <si>
+    <t>jaldcorn@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 604-643-7158</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/jody-aldcorn</t>
+  </si>
+  <si>
+    <t>McCarthy Tetraukt</t>
+  </si>
+  <si>
+    <t>Brett Anderson</t>
+  </si>
+  <si>
+    <t>banderson@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 403-260-3549</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/brett-anderson</t>
+  </si>
+  <si>
+    <t>Dominique Amyot-Bilodeau</t>
+  </si>
+  <si>
+    <t>damyotbilodeau@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 514-397-7097</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/dominique-amyot-bilodeau</t>
+  </si>
+  <si>
+    <t>Hugo Babos-Marchand</t>
+  </si>
+  <si>
+    <t>hbmarchand@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 514-397-4156</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/hugo-babos-marchand</t>
+  </si>
+  <si>
+    <t>Gordon D. Baird</t>
+  </si>
+  <si>
+    <t>gbaird@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 416-601-7892</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/gordon-baird</t>
+  </si>
+  <si>
+    <t>André L. Baril</t>
+  </si>
+  <si>
+    <t>abaril@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 514-397-4123</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/andre-baril</t>
+  </si>
+  <si>
+    <t>Linda Beairsto</t>
+  </si>
+  <si>
+    <t>lbeairsto@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 416-601-8268</t>
+  </si>
+  <si>
+    <t>MT❯Align</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/linda-beairsto</t>
+  </si>
+  <si>
+    <t>President MT❯Align</t>
+  </si>
+  <si>
+    <t>Jamie Becker</t>
+  </si>
+  <si>
+    <t>jbecker@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 416-601-8321</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/jamie-becker</t>
+  </si>
+  <si>
+    <t>Scott W. Bell</t>
+  </si>
+  <si>
+    <t>swbell@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 416-601-8277</t>
+  </si>
+  <si>
+    <t>Pensions, Benefits, &amp; Executive Compensation</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/scott-w-bell</t>
+  </si>
+  <si>
+    <t>Charlotte Belliveau</t>
+  </si>
+  <si>
+    <t>cbelliveau@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 403-260-3691</t>
+  </si>
+  <si>
+    <t>real estate</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/charlotte-belliveau</t>
+  </si>
+  <si>
+    <t>Cameron Belsher, K.C.</t>
+  </si>
+  <si>
+    <t>cbelsher@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 416-601-8967</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/cameron-belsher</t>
+  </si>
+  <si>
+    <t>Public Companies</t>
+  </si>
+  <si>
+    <t>Tina Benson</t>
+  </si>
+  <si>
+    <t>tbenson@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+44 (0)20 7786 5709</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/tina-benson</t>
+  </si>
+  <si>
+    <t>Appellate Litigation</t>
+  </si>
+  <si>
+    <t>Jean-Nicolas Bissonnette</t>
+  </si>
+  <si>
+    <t>jnbissonnette@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 514-397-5696</t>
+  </si>
+  <si>
+    <t>litigation and in labour and employment law</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/jean-nicolas-bissonnette</t>
+  </si>
+  <si>
+    <t>Director, Professional Resources</t>
+  </si>
+  <si>
+    <t>civil law</t>
+  </si>
+  <si>
+    <t>Paul Blanchard</t>
+  </si>
+  <si>
+    <t>pblanchard@mccarthy.ca</t>
+  </si>
+  <si>
+    <t>tel:+1 514-397-2333</t>
+  </si>
+  <si>
+    <t>https://www.mccarthy.ca/en/people/paul-blanchard</t>
+  </si>
+  <si>
+    <t>international financing transactions</t>
+  </si>
+  <si>
+    <t>John Agioritis</t>
+  </si>
+  <si>
+    <t>jagioritis@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+13069757143</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/john-agioritis/</t>
+  </si>
+  <si>
+    <t>MLT Aikins</t>
+  </si>
+  <si>
+    <t>Milad Alishahi</t>
+  </si>
+  <si>
+    <t>malishahi@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+13063478451</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/milad-alishahi/</t>
+  </si>
+  <si>
+    <t>Yassir Alnaji</t>
+  </si>
+  <si>
+    <t>yalnaji@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574687</t>
+  </si>
+  <si>
+    <t>Corporate Governance</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/yassir-alnaji/</t>
+  </si>
+  <si>
+    <t>Sharon Au</t>
+  </si>
+  <si>
+    <t>sau@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+17809695066</t>
+  </si>
+  <si>
+    <t>Administrative &amp; Public Law</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/sharon-au/</t>
+  </si>
+  <si>
+    <t>Erin Bokshowan</t>
+  </si>
+  <si>
+    <t>ebokshowan@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+13069757111</t>
+  </si>
+  <si>
+    <t>Corporate &amp; Commercial</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/erin-bokshowan/</t>
+  </si>
+  <si>
+    <t>Caitlin Bouché</t>
+  </si>
+  <si>
+    <t>cbouche@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574630</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/caitlin-bouche/</t>
+  </si>
+  <si>
+    <t>Andrew Boumford</t>
+  </si>
+  <si>
+    <t>aboumford@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574892</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/andrew-boumford/</t>
+  </si>
+  <si>
+    <t>Jonathan Bourchier</t>
+  </si>
+  <si>
+    <t>jbourchier@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+14036934310</t>
+  </si>
+  <si>
+    <t>Insolvency &amp; Restructuring</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/jonathan-bourchier/</t>
+  </si>
+  <si>
+    <t>John A. Brigidear</t>
+  </si>
+  <si>
+    <t>jbrigidear@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+14036934319</t>
+  </si>
+  <si>
+    <t>Corporate Finance &amp; Securities</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/john-brigidear/</t>
+  </si>
+  <si>
+    <t>Brendan Brock</t>
+  </si>
+  <si>
+    <t>bbrock@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+16046085762</t>
+  </si>
+  <si>
+    <t>Mortgage Enforcement &amp; Debt Realization</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/brendan-brock/</t>
+  </si>
+  <si>
+    <t>Jessica Buhler</t>
+  </si>
+  <si>
+    <t>jbuhler@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+13069562173</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/jessica-buhler/</t>
+  </si>
+  <si>
+    <t>J.J. Burnell</t>
+  </si>
+  <si>
+    <t>jburnell@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574663</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/jj-burnell/</t>
+  </si>
+  <si>
+    <t>Erika Carrasco</t>
+  </si>
+  <si>
+    <t>ecarrasco@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+14036932640</t>
+  </si>
+  <si>
+    <t>Technology, Intellectual Property &amp; Privacy</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/erika-carrasco/</t>
+  </si>
+  <si>
+    <t>Melissa Cattini</t>
+  </si>
+  <si>
+    <t>mcattini@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574481</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/melissa-cattini/</t>
+  </si>
+  <si>
+    <t>Daryl Chicoine</t>
+  </si>
+  <si>
+    <t>dchicoine@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574605</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/daryl-chicoine/</t>
+  </si>
+  <si>
+    <t>Baillie Chisick</t>
+  </si>
+  <si>
+    <t>bchisick@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574859</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/baillie-chisick/</t>
+  </si>
+  <si>
+    <t>Andy Chow</t>
+  </si>
+  <si>
+    <t>achow@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+16046084552</t>
+  </si>
+  <si>
+    <t>Commercialization of Intellectual Property</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/andy-chow/</t>
+  </si>
+  <si>
+    <t>Graham Christie</t>
+  </si>
+  <si>
+    <t>gchristie@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+16046084557</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/graham-christie/</t>
+  </si>
+  <si>
+    <t>Thomas Collopy</t>
+  </si>
+  <si>
+    <t>tcollopy@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+14036935443</t>
+  </si>
+  <si>
+    <t>Banking &amp; Commercial Lending</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/thomas-collopy/</t>
+  </si>
+  <si>
+    <t>Lincoln Crooks</t>
+  </si>
+  <si>
+    <t>lcrooks@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+13069757140</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/lincoln-crooks/</t>
+  </si>
+  <si>
+    <t>Tristan Culham</t>
+  </si>
+  <si>
+    <t>tculham@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+13063478423</t>
+  </si>
+  <si>
+    <t>Intellectual Property Enforcement &amp; Litigation</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/tristan-culham/</t>
+  </si>
+  <si>
+    <t>Shandra Czarnecki</t>
+  </si>
+  <si>
+    <t>sczarnecki@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574878</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/shandra-czarnecki/</t>
+  </si>
+  <si>
+    <t>John M. Davidson (JD)</t>
+  </si>
+  <si>
+    <t>jdavidson@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+14036935404</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/john-davidson/</t>
+  </si>
+  <si>
+    <t>Scott Davidson</t>
+  </si>
+  <si>
+    <t>sdavidson@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+14036934308</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/scott-davidson/</t>
+  </si>
+  <si>
+    <t>Adele Domenco</t>
+  </si>
+  <si>
+    <t>adomenco@mltaikins.com</t>
+  </si>
+  <si>
+    <t>tel:+12049574658</t>
+  </si>
+  <si>
+    <t>https://www.mltaikins.com/people/adele-domenco/</t>
+  </si>
+  <si>
+    <t>Alistair Abbott</t>
+  </si>
+  <si>
+    <t>alistair.abbott@forbeshare.com</t>
+  </si>
+  <si>
+    <t>1 345 943 7700</t>
+  </si>
+  <si>
+    <t>the Cayman Islands</t>
+  </si>
+  <si>
+    <t>Commercial litigation</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/?tshowcase=alistair-abbott</t>
+  </si>
+  <si>
+    <t>Forbes Hare</t>
+  </si>
+  <si>
+    <t>Christopher Bromilow</t>
+  </si>
+  <si>
+    <t>christopher.bromilow@forbeshare.com</t>
+  </si>
+  <si>
+    <t>1 284 494 1890</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/team/chris-bromilow/</t>
+  </si>
+  <si>
+    <t>Maria Cassidy</t>
+  </si>
+  <si>
+    <t>maria.cassidy@forbeshare.com</t>
+  </si>
+  <si>
+    <t>44 (0) 207 0143 220</t>
+  </si>
+  <si>
+    <t>Marketing and Business Development Manager</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/?tshowcase=maria-cassidy</t>
+  </si>
+  <si>
+    <t>Michael Doyle</t>
+  </si>
+  <si>
+    <t>michael.doyle@forbeshare.com</t>
+  </si>
+  <si>
+    <t>44 (0)207 0143 220</t>
+  </si>
+  <si>
+    <t>Investment Funds</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/team/michael-doyle/</t>
+  </si>
+  <si>
+    <t>Glenroy Forbes</t>
+  </si>
+  <si>
+    <t>glenroy.forbes@forbeshare.com</t>
+  </si>
+  <si>
+    <t>1 284 852 1891</t>
+  </si>
+  <si>
+    <t>Regulatory and compliance</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/?tshowcase=glenroy-forbes</t>
+  </si>
+  <si>
+    <t>Louis Mooney</t>
+  </si>
+  <si>
+    <t>louis.mooney@forbeshare.com</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/team/louis-mooney/</t>
+  </si>
+  <si>
+    <t>Michael Pringle</t>
+  </si>
+  <si>
+    <t>michael.pringle@forbeshare.com</t>
+  </si>
+  <si>
+    <t>65 6823 1547</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/?tshowcase=michael-pringle</t>
+  </si>
+  <si>
+    <t>Sonia Starvis</t>
+  </si>
+  <si>
+    <t>sonia.starvis@forbeshare.com</t>
+  </si>
+  <si>
+    <t>1 345 925 4584</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/team/sonia-starvis/</t>
+  </si>
+  <si>
+    <t>Jenny Wang</t>
+  </si>
+  <si>
+    <t>jenny.wang@forbeshare.com</t>
+  </si>
+  <si>
+    <t>44 (0) 20 7014 3220</t>
+  </si>
+  <si>
+    <t>governance and compliance</t>
+  </si>
+  <si>
+    <t>https://forbeshare.com/team/jenny-wang-counsel/</t>
+  </si>
+  <si>
+    <t>Nikolaj Nikdel-Johnston</t>
+  </si>
+  <si>
+    <t>nnj@elverdam.dk</t>
+  </si>
+  <si>
+    <t>tel:81777354</t>
+  </si>
+  <si>
+    <t>Bankruptcy &amp; Insolvency</t>
+  </si>
+  <si>
+    <t>https://elverdam.com/professionals/nnj.html</t>
+  </si>
+  <si>
+    <t>Danske Advokater</t>
+  </si>
+  <si>
+    <t>Simoni Pilatsi</t>
+  </si>
+  <si>
+    <t>simoni.pilatsi@economideslegal.com</t>
+  </si>
+  <si>
+    <t>tel:+357 25 866 480</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Commercial Law</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#simoni-pilatsi</t>
+  </si>
+  <si>
+    <t>Senior Advocate</t>
+  </si>
+  <si>
+    <t>E&amp;G Economides LLC</t>
+  </si>
+  <si>
+    <t>Cathy Georgiou</t>
+  </si>
+  <si>
+    <t>cathy.georgiou@economideslegal.com</t>
+  </si>
+  <si>
+    <t>litigation and dispute resolution</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#cathy-georgiou</t>
+  </si>
+  <si>
+    <t>Xenia Kasapi Kyriacou</t>
+  </si>
+  <si>
+    <t>xenia.kasapi@economideslegal.com</t>
+  </si>
+  <si>
+    <t>Intellectual Property &amp; Data Protection</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#xenia-kasapi</t>
+  </si>
+  <si>
+    <t>Marilyn Theodotou</t>
+  </si>
+  <si>
+    <t>marilyn.theodotou@economideslegal.com</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#marilyn-theodotou</t>
+  </si>
+  <si>
+    <t>Maria Theocharous</t>
+  </si>
+  <si>
+    <t>maria.theocharous@economideslegal.com</t>
+  </si>
+  <si>
+    <t>International Shipping Law</t>
+  </si>
+  <si>
+    <t>https://www.economideslegal.com/en/team/#maria-theocharous</t>
+  </si>
+  <si>
+    <t>Jarosław Dubinski</t>
+  </si>
+  <si>
+    <t>j.dubinski@djm.pl</t>
+  </si>
+  <si>
+    <t>48 22 436 06 01</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>M&amp;A transactions</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/jaroslaw-dubinski/</t>
+  </si>
+  <si>
+    <t>Dubinski Jelenski Masiarz &amp; Partners</t>
+  </si>
+  <si>
+    <t>Tomasz Chełstowski</t>
+  </si>
+  <si>
+    <t>t.chelstowski@djm.pl</t>
+  </si>
+  <si>
+    <t>49 22 436 06 01</t>
+  </si>
+  <si>
+    <t>litigation</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/tomasz-chelstowski/</t>
+  </si>
+  <si>
+    <t>Paweł Kapica</t>
+  </si>
+  <si>
+    <t>p.kapica@djm.pl</t>
+  </si>
+  <si>
+    <t>50 22 436 06 01</t>
+  </si>
+  <si>
+    <t>corporate services</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/ccccc/</t>
+  </si>
+  <si>
+    <t>Rafał Lidke</t>
+  </si>
+  <si>
+    <t>r.lidke@djm.pl</t>
+  </si>
+  <si>
+    <t>51 22 436 06 01</t>
+  </si>
+  <si>
+    <t>investment funds</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/jaroslaw-dubinski-4-2-2/</t>
+  </si>
+  <si>
+    <t>Łukasz Orłowski</t>
+  </si>
+  <si>
+    <t>l.orlowski@djm.pl</t>
+  </si>
+  <si>
+    <t>commercial law</t>
+  </si>
+  <si>
+    <t>https://djm.pl/en/team/lukasz-orlowski/</t>
+  </si>
+  <si>
+    <t>Dan Jordy</t>
+  </si>
+  <si>
+    <t>danj@dslaw.dk</t>
+  </si>
+  <si>
+    <t>(+45) 26 30 23 12</t>
+  </si>
+  <si>
+    <t>procedural law, dispute resolution and criminal law</t>
+  </si>
+  <si>
+    <t>https://dreiststorgaard.dk/en/about-us/meet-our-team/#popup_content</t>
+  </si>
+  <si>
+    <t>Dreist Storgaard</t>
+  </si>
+  <si>
+    <t>mask@dslaw.dk</t>
+  </si>
+  <si>
+    <t>(+45) 28 15 58 80</t>
+  </si>
+  <si>
+    <t>international tax law</t>
+  </si>
+  <si>
+    <t>Nicholas Ørum Keller</t>
+  </si>
+  <si>
+    <t>nik@dslaw.dk</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>Nikolaj Bak-Christensen</t>
+  </si>
+  <si>
+    <t>nbc@dslaw.dk</t>
+  </si>
+  <si>
+    <t>NIKOLAJ JUHL HANSEN</t>
+  </si>
+  <si>
+    <t>njh@dslaw.dk</t>
+  </si>
+  <si>
+    <t>(+45) 27 74 05 07</t>
+  </si>
+  <si>
+    <t>​​commercial law</t>
+  </si>
+  <si>
+    <t>SØREN STORGAARD</t>
+  </si>
+  <si>
+    <t>ssto@dslaw.dk</t>
+  </si>
+  <si>
+    <t>(+45) 56 64 09 75</t>
+  </si>
+  <si>
+    <t>insolvency and reconstruction</t>
+  </si>
+  <si>
+    <t>SVEND-AAGE DREIST HANSEN</t>
+  </si>
+  <si>
+    <t>sah@dslaw.dk</t>
+  </si>
+  <si>
+    <t>(+45) 56 64 33 24</t>
+  </si>
+  <si>
+    <t>Thomas Grue Baruch</t>
+  </si>
+  <si>
+    <t>tgb@dslaw.dk</t>
+  </si>
+  <si>
+    <t>45 24 64 39 06</t>
+  </si>
+  <si>
+    <t>Financial Services Mergers &amp; Acquisitions</t>
+  </si>
+  <si>
+    <t>Gary C. Floyd</t>
+  </si>
+  <si>
+    <t>Pat Forgione</t>
+  </si>
+  <si>
+    <t>pat.forgione@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>4.168.657.798</t>
+  </si>
+  <si>
+    <t>Financial Services </t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/pat-forgione/</t>
+  </si>
+  <si>
+    <t>Eric B. Friedman</t>
+  </si>
+  <si>
+    <t>eric.friedman@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>4.163.074.030</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/eric-friedman/</t>
+  </si>
+  <si>
+    <t>Michael Friedman</t>
+  </si>
+  <si>
+    <t>michael.friedman@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>4.168.657.914</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/michael-friedman/</t>
+  </si>
+  <si>
+    <t>Yassin Gagnon-Djalo</t>
+  </si>
+  <si>
+    <t>yassin.gagnon-djalo@mcmillan.ca</t>
+  </si>
+  <si>
+    <t>5.143.755.106</t>
+  </si>
+  <si>
+    <t>https://mcmillan.ca/people/yassin-gagnon-djalo/</t>
   </si>
 </sst>
 </file>
@@ -8103,10 +9069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:N763"/>
+  <dimension ref="E1:N849"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="J758" sqref="J758:J763"/>
+    <sheetView tabSelected="1" topLeftCell="A824" workbookViewId="0">
+      <selection activeCell="E833" sqref="E833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -24103,6 +25069,2187 @@
       </c>
       <c r="N763" s="7" t="s">
         <v>2285</v>
+      </c>
+    </row>
+    <row r="764" spans="5:14">
+      <c r="E764" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F764" t="s">
+        <v>2298</v>
+      </c>
+      <c r="G764" t="s">
+        <v>2299</v>
+      </c>
+      <c r="H764" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I764" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J764" t="s">
+        <v>2300</v>
+      </c>
+      <c r="M764" t="s">
+        <v>8</v>
+      </c>
+      <c r="N764" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="765" spans="5:14">
+      <c r="E765" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F765" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G765" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H765" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I765" t="s">
+        <v>2178</v>
+      </c>
+      <c r="J765" t="s">
+        <v>2305</v>
+      </c>
+      <c r="M765" t="s">
+        <v>8</v>
+      </c>
+      <c r="N765" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="766" spans="5:14">
+      <c r="E766" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F766" t="s">
+        <v>2307</v>
+      </c>
+      <c r="G766" t="s">
+        <v>2308</v>
+      </c>
+      <c r="H766" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I766" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J766" t="s">
+        <v>2309</v>
+      </c>
+      <c r="M766" t="s">
+        <v>8</v>
+      </c>
+      <c r="N766" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="767" spans="5:14">
+      <c r="E767" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F767" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G767" t="s">
+        <v>2312</v>
+      </c>
+      <c r="H767" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I767" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J767" t="s">
+        <v>2313</v>
+      </c>
+      <c r="M767" t="s">
+        <v>8</v>
+      </c>
+      <c r="N767" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="768" spans="5:14">
+      <c r="E768" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F768" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G768" t="s">
+        <v>2316</v>
+      </c>
+      <c r="H768" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I768" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J768" t="s">
+        <v>2317</v>
+      </c>
+      <c r="M768" t="s">
+        <v>8</v>
+      </c>
+      <c r="N768" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="769" spans="5:14">
+      <c r="E769" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F769" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G769" t="s">
+        <v>2320</v>
+      </c>
+      <c r="H769" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I769" t="s">
+        <v>107</v>
+      </c>
+      <c r="J769" t="s">
+        <v>2321</v>
+      </c>
+      <c r="M769" t="s">
+        <v>8</v>
+      </c>
+      <c r="N769" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="770" spans="5:14">
+      <c r="E770" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F770" t="s">
+        <v>2323</v>
+      </c>
+      <c r="G770" t="s">
+        <v>2324</v>
+      </c>
+      <c r="H770" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I770" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J770" t="s">
+        <v>2326</v>
+      </c>
+      <c r="M770" t="s">
+        <v>2327</v>
+      </c>
+      <c r="N770" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="771" spans="5:14">
+      <c r="E771" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F771" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G771" t="s">
+        <v>2330</v>
+      </c>
+      <c r="H771" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I771" t="s">
+        <v>71</v>
+      </c>
+      <c r="J771" t="s">
+        <v>2331</v>
+      </c>
+      <c r="M771" t="s">
+        <v>8</v>
+      </c>
+      <c r="N771" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="772" spans="5:14">
+      <c r="E772" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F772" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G772" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H772" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I772" t="s">
+        <v>2335</v>
+      </c>
+      <c r="J772" t="s">
+        <v>2336</v>
+      </c>
+      <c r="M772" t="s">
+        <v>8</v>
+      </c>
+      <c r="N772" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="773" spans="5:14">
+      <c r="E773" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G773" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H773" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I773" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J773" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M773" t="s">
+        <v>8</v>
+      </c>
+      <c r="N773" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="774" spans="5:14">
+      <c r="E774" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F774" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G774" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H774" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I774" t="s">
+        <v>2340</v>
+      </c>
+      <c r="J774" t="s">
+        <v>2341</v>
+      </c>
+      <c r="M774" t="s">
+        <v>8</v>
+      </c>
+      <c r="N774" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="775" spans="5:14">
+      <c r="E775" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F775" t="s">
+        <v>2343</v>
+      </c>
+      <c r="G775" t="s">
+        <v>2344</v>
+      </c>
+      <c r="H775" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I775" t="s">
+        <v>192</v>
+      </c>
+      <c r="J775" t="s">
+        <v>2345</v>
+      </c>
+      <c r="M775" t="s">
+        <v>8</v>
+      </c>
+      <c r="N775" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="776" spans="5:14">
+      <c r="E776" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G776" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H776" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I776" t="s">
+        <v>2346</v>
+      </c>
+      <c r="J776" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M776" t="s">
+        <v>8</v>
+      </c>
+      <c r="N776" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="777" spans="5:14">
+      <c r="E777" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F777" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G777" t="s">
+        <v>2349</v>
+      </c>
+      <c r="H777" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I777" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J777" t="s">
+        <v>2350</v>
+      </c>
+      <c r="M777" t="s">
+        <v>8</v>
+      </c>
+      <c r="N777" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="778" spans="5:14">
+      <c r="E778" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G778" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H778" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I778" t="s">
+        <v>107</v>
+      </c>
+      <c r="J778" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M778" t="s">
+        <v>8</v>
+      </c>
+      <c r="N778" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="779" spans="5:14">
+      <c r="E779" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G779" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H779" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I779" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J779" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M779" t="s">
+        <v>8</v>
+      </c>
+      <c r="N779" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="780" spans="5:14">
+      <c r="E780" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F780" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G780" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H780" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I780" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J780" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M780" t="s">
+        <v>8</v>
+      </c>
+      <c r="N780" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="781" spans="5:14">
+      <c r="E781" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G781" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H781" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I781" t="s">
+        <v>2351</v>
+      </c>
+      <c r="J781" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M781" t="s">
+        <v>8</v>
+      </c>
+      <c r="N781" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="782" spans="5:14">
+      <c r="E782" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F782" t="s">
+        <v>2353</v>
+      </c>
+      <c r="G782" t="s">
+        <v>2354</v>
+      </c>
+      <c r="H782" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I782" t="s">
+        <v>2355</v>
+      </c>
+      <c r="J782" t="s">
+        <v>2356</v>
+      </c>
+      <c r="M782" t="s">
+        <v>2357</v>
+      </c>
+      <c r="N782" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="783" spans="5:14">
+      <c r="E783" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G783" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H783" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I783" t="s">
+        <v>2358</v>
+      </c>
+      <c r="J783" t="s">
+        <v>1097</v>
+      </c>
+      <c r="M783" t="s">
+        <v>8</v>
+      </c>
+      <c r="N783" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="784" spans="5:14">
+      <c r="E784" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F784" t="s">
+        <v>2360</v>
+      </c>
+      <c r="G784" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H784" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I784" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J784" t="s">
+        <v>2362</v>
+      </c>
+      <c r="M784" t="s">
+        <v>8</v>
+      </c>
+      <c r="N784" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="785" spans="5:14">
+      <c r="E785" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G785" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H785" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I785" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J785" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M785" t="s">
+        <v>8</v>
+      </c>
+      <c r="N785" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="786" spans="5:14">
+      <c r="E786" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G786" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H786" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I786" t="s">
+        <v>2363</v>
+      </c>
+      <c r="J786" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M786" t="s">
+        <v>8</v>
+      </c>
+      <c r="N786" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="787" spans="5:14">
+      <c r="E787" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G787" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H787" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I787" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J787" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M787" t="s">
+        <v>8</v>
+      </c>
+      <c r="N787" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="788" spans="5:14">
+      <c r="E788" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G788" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H788" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I788" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J788" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M788" t="s">
+        <v>8</v>
+      </c>
+      <c r="N788" s="2" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="789" spans="5:14">
+      <c r="E789" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F789" t="s">
+        <v>2365</v>
+      </c>
+      <c r="G789" t="s">
+        <v>2366</v>
+      </c>
+      <c r="H789" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I789" t="s">
+        <v>107</v>
+      </c>
+      <c r="J789" t="s">
+        <v>2367</v>
+      </c>
+      <c r="M789" t="s">
+        <v>8</v>
+      </c>
+      <c r="N789" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="790" spans="5:14">
+      <c r="E790" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F790" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G790" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H790" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I790" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J790" t="s">
+        <v>2372</v>
+      </c>
+      <c r="M790" t="s">
+        <v>8</v>
+      </c>
+      <c r="N790" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="791" spans="5:14">
+      <c r="E791" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F791" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G791" t="s">
+        <v>2375</v>
+      </c>
+      <c r="H791" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I791" t="s">
+        <v>2376</v>
+      </c>
+      <c r="J791" t="s">
+        <v>2377</v>
+      </c>
+      <c r="M791" t="s">
+        <v>8</v>
+      </c>
+      <c r="N791" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="792" spans="5:14">
+      <c r="E792" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F792" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G792" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H792" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I792" t="s">
+        <v>2381</v>
+      </c>
+      <c r="J792" t="s">
+        <v>2382</v>
+      </c>
+      <c r="M792" t="s">
+        <v>8</v>
+      </c>
+      <c r="N792" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="793" spans="5:14">
+      <c r="E793" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F793" t="s">
+        <v>2384</v>
+      </c>
+      <c r="G793" t="s">
+        <v>2385</v>
+      </c>
+      <c r="H793" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I793" t="s">
+        <v>2386</v>
+      </c>
+      <c r="J793" t="s">
+        <v>2387</v>
+      </c>
+      <c r="M793" t="s">
+        <v>8</v>
+      </c>
+      <c r="N793" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="794" spans="5:14">
+      <c r="E794" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F794" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G794" t="s">
+        <v>2390</v>
+      </c>
+      <c r="H794" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I794" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J794" t="s">
+        <v>2391</v>
+      </c>
+      <c r="M794" t="s">
+        <v>8</v>
+      </c>
+      <c r="N794" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="795" spans="5:14">
+      <c r="E795" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F795" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G795" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H795" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I795" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J795" t="s">
+        <v>2395</v>
+      </c>
+      <c r="M795" t="s">
+        <v>8</v>
+      </c>
+      <c r="N795" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="796" spans="5:14">
+      <c r="E796" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F796" t="s">
+        <v>2397</v>
+      </c>
+      <c r="G796" t="s">
+        <v>2398</v>
+      </c>
+      <c r="H796" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I796" t="s">
+        <v>2399</v>
+      </c>
+      <c r="J796" t="s">
+        <v>2400</v>
+      </c>
+      <c r="M796" t="s">
+        <v>8</v>
+      </c>
+      <c r="N796" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="797" spans="5:14">
+      <c r="E797" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F797" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G797" t="s">
+        <v>2403</v>
+      </c>
+      <c r="H797" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I797" t="s">
+        <v>2404</v>
+      </c>
+      <c r="J797" t="s">
+        <v>2405</v>
+      </c>
+      <c r="M797" t="s">
+        <v>8</v>
+      </c>
+      <c r="N797" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="798" spans="5:14">
+      <c r="E798" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F798" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G798" t="s">
+        <v>2408</v>
+      </c>
+      <c r="H798" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I798" t="s">
+        <v>2409</v>
+      </c>
+      <c r="J798" t="s">
+        <v>2410</v>
+      </c>
+      <c r="M798" t="s">
+        <v>8</v>
+      </c>
+      <c r="N798" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="799" spans="5:14">
+      <c r="E799" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F799" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G799" t="s">
+        <v>2413</v>
+      </c>
+      <c r="H799" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I799" t="s">
+        <v>2381</v>
+      </c>
+      <c r="J799" t="s">
+        <v>2414</v>
+      </c>
+      <c r="M799" t="s">
+        <v>8</v>
+      </c>
+      <c r="N799" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="800" spans="5:14">
+      <c r="E800" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F800" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G800" t="s">
+        <v>2417</v>
+      </c>
+      <c r="H800" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I800" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J800" t="s">
+        <v>2418</v>
+      </c>
+      <c r="M800" t="s">
+        <v>8</v>
+      </c>
+      <c r="N800" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="801" spans="5:14">
+      <c r="E801" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F801" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G801" t="s">
+        <v>2421</v>
+      </c>
+      <c r="H801" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I801" t="s">
+        <v>2422</v>
+      </c>
+      <c r="J801" t="s">
+        <v>2423</v>
+      </c>
+      <c r="M801" t="s">
+        <v>8</v>
+      </c>
+      <c r="N801" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="802" spans="5:14">
+      <c r="E802" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F802" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G802" t="s">
+        <v>2426</v>
+      </c>
+      <c r="H802" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I802" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J802" t="s">
+        <v>2427</v>
+      </c>
+      <c r="M802" t="s">
+        <v>8</v>
+      </c>
+      <c r="N802" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="803" spans="5:14">
+      <c r="E803" t="s">
+        <v>2428</v>
+      </c>
+      <c r="F803" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G803" t="s">
+        <v>2430</v>
+      </c>
+      <c r="H803" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I803" t="s">
+        <v>85</v>
+      </c>
+      <c r="J803" t="s">
+        <v>2431</v>
+      </c>
+      <c r="M803" t="s">
+        <v>8</v>
+      </c>
+      <c r="N803" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="804" spans="5:14">
+      <c r="E804" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F804" t="s">
+        <v>2433</v>
+      </c>
+      <c r="G804" t="s">
+        <v>2434</v>
+      </c>
+      <c r="H804" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I804" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J804" t="s">
+        <v>2435</v>
+      </c>
+      <c r="M804" t="s">
+        <v>8</v>
+      </c>
+      <c r="N804" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="805" spans="5:14">
+      <c r="E805" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F805" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G805" t="s">
+        <v>2438</v>
+      </c>
+      <c r="H805" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I805" t="s">
+        <v>2439</v>
+      </c>
+      <c r="J805" t="s">
+        <v>2440</v>
+      </c>
+      <c r="M805" t="s">
+        <v>8</v>
+      </c>
+      <c r="N805" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="806" spans="5:14">
+      <c r="E806" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F806" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G806" t="s">
+        <v>2443</v>
+      </c>
+      <c r="H806" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I806" t="s">
+        <v>107</v>
+      </c>
+      <c r="J806" t="s">
+        <v>2444</v>
+      </c>
+      <c r="M806" t="s">
+        <v>8</v>
+      </c>
+      <c r="N806" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="807" spans="5:14">
+      <c r="E807" t="s">
+        <v>2445</v>
+      </c>
+      <c r="F807" t="s">
+        <v>2446</v>
+      </c>
+      <c r="G807" t="s">
+        <v>2447</v>
+      </c>
+      <c r="H807" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I807" t="s">
+        <v>2448</v>
+      </c>
+      <c r="J807" t="s">
+        <v>2449</v>
+      </c>
+      <c r="M807" t="s">
+        <v>8</v>
+      </c>
+      <c r="N807" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="808" spans="5:14">
+      <c r="E808" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F808" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G808" t="s">
+        <v>2452</v>
+      </c>
+      <c r="H808" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I808" t="s">
+        <v>2386</v>
+      </c>
+      <c r="J808" t="s">
+        <v>2453</v>
+      </c>
+      <c r="M808" t="s">
+        <v>8</v>
+      </c>
+      <c r="N808" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="809" spans="5:14">
+      <c r="E809" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F809" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G809" t="s">
+        <v>2456</v>
+      </c>
+      <c r="H809" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I809" t="s">
+        <v>2457</v>
+      </c>
+      <c r="J809" t="s">
+        <v>2458</v>
+      </c>
+      <c r="M809" t="s">
+        <v>8</v>
+      </c>
+      <c r="N809" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="810" spans="5:14">
+      <c r="E810" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F810" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G810" t="s">
+        <v>2461</v>
+      </c>
+      <c r="H810" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I810" t="s">
+        <v>107</v>
+      </c>
+      <c r="J810" t="s">
+        <v>2462</v>
+      </c>
+      <c r="M810" t="s">
+        <v>8</v>
+      </c>
+      <c r="N810" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="811" spans="5:14">
+      <c r="E811" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F811" t="s">
+        <v>2464</v>
+      </c>
+      <c r="G811" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H811" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I811" t="s">
+        <v>2404</v>
+      </c>
+      <c r="J811" t="s">
+        <v>2466</v>
+      </c>
+      <c r="M811" t="s">
+        <v>8</v>
+      </c>
+      <c r="N811" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="812" spans="5:14">
+      <c r="E812" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F812" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G812" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H812" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I812" t="s">
+        <v>2457</v>
+      </c>
+      <c r="J812" t="s">
+        <v>2470</v>
+      </c>
+      <c r="M812" t="s">
+        <v>8</v>
+      </c>
+      <c r="N812" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="813" spans="5:14">
+      <c r="E813" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F813" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G813" t="s">
+        <v>2473</v>
+      </c>
+      <c r="H813" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I813" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J813" t="s">
+        <v>2474</v>
+      </c>
+      <c r="M813" t="s">
+        <v>8</v>
+      </c>
+      <c r="N813" s="2" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="814" spans="5:14">
+      <c r="E814" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F814" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G814" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H814" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I814" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J814" t="s">
+        <v>2480</v>
+      </c>
+      <c r="M814" t="s">
+        <v>8</v>
+      </c>
+      <c r="N814" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="815" spans="5:14">
+      <c r="E815" t="s">
+        <v>2482</v>
+      </c>
+      <c r="F815" t="s">
+        <v>2483</v>
+      </c>
+      <c r="G815" t="s">
+        <v>2484</v>
+      </c>
+      <c r="H815" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I815" t="s">
+        <v>85</v>
+      </c>
+      <c r="J815" t="s">
+        <v>2485</v>
+      </c>
+      <c r="M815" t="s">
+        <v>8</v>
+      </c>
+      <c r="N815" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="817" spans="5:14">
+      <c r="E817" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F817" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G817" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H817" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I817" t="s">
+        <v>2489</v>
+      </c>
+      <c r="J817" t="s">
+        <v>2490</v>
+      </c>
+      <c r="M817" t="s">
+        <v>8</v>
+      </c>
+      <c r="N817" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="818" spans="5:14">
+      <c r="E818" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F818" t="s">
+        <v>2492</v>
+      </c>
+      <c r="G818" t="s">
+        <v>2493</v>
+      </c>
+      <c r="H818" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I818" t="s">
+        <v>2494</v>
+      </c>
+      <c r="J818" t="s">
+        <v>2495</v>
+      </c>
+      <c r="M818" t="s">
+        <v>469</v>
+      </c>
+      <c r="N818" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="819" spans="5:14">
+      <c r="E819" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F819" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G819" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H819" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I819" t="s">
+        <v>2499</v>
+      </c>
+      <c r="J819" t="s">
+        <v>2500</v>
+      </c>
+      <c r="M819" t="s">
+        <v>8</v>
+      </c>
+      <c r="N819" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="820" spans="5:14">
+      <c r="E820" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F820" t="s">
+        <v>2502</v>
+      </c>
+      <c r="G820" t="s">
+        <v>2477</v>
+      </c>
+      <c r="H820" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I820" t="s">
+        <v>2479</v>
+      </c>
+      <c r="J820" t="s">
+        <v>2503</v>
+      </c>
+      <c r="M820" t="s">
+        <v>469</v>
+      </c>
+      <c r="N820" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="821" spans="5:14">
+      <c r="E821" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F821" t="s">
+        <v>2505</v>
+      </c>
+      <c r="G821" t="s">
+        <v>2506</v>
+      </c>
+      <c r="H821" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I821" t="s">
+        <v>2399</v>
+      </c>
+      <c r="J821" t="s">
+        <v>2507</v>
+      </c>
+      <c r="M821" t="s">
+        <v>8</v>
+      </c>
+      <c r="N821" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="823" spans="5:14">
+      <c r="E823" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F823" t="s">
+        <v>2509</v>
+      </c>
+      <c r="G823" t="s">
+        <v>2510</v>
+      </c>
+      <c r="H823" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="I823" t="s">
+        <v>71</v>
+      </c>
+      <c r="J823" t="s">
+        <v>2511</v>
+      </c>
+      <c r="M823" t="s">
+        <v>8</v>
+      </c>
+      <c r="N823" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="824" spans="5:14">
+      <c r="E824" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F824" t="s">
+        <v>2513</v>
+      </c>
+      <c r="G824" t="s">
+        <v>2514</v>
+      </c>
+      <c r="H824" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I824" t="s">
+        <v>2515</v>
+      </c>
+      <c r="J824" t="s">
+        <v>2516</v>
+      </c>
+      <c r="M824" t="s">
+        <v>8</v>
+      </c>
+      <c r="N824" s="2" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="825" spans="5:14">
+      <c r="E825" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F825" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G825" t="s">
+        <v>2519</v>
+      </c>
+      <c r="H825" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I825" t="s">
+        <v>2520</v>
+      </c>
+      <c r="J825" t="s">
+        <v>2521</v>
+      </c>
+      <c r="M825" t="s">
+        <v>8</v>
+      </c>
+      <c r="N825" s="2" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="826" spans="5:14">
+      <c r="E826" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F826" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G826" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H826" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I826" t="s">
+        <v>2527</v>
+      </c>
+      <c r="J826" t="s">
+        <v>2528</v>
+      </c>
+      <c r="M826" t="s">
+        <v>2529</v>
+      </c>
+      <c r="N826" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="827" spans="5:14">
+      <c r="E827" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F827" t="s">
+        <v>2532</v>
+      </c>
+      <c r="G827" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H827" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I827" t="s">
+        <v>2533</v>
+      </c>
+      <c r="J827" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M827" t="s">
+        <v>2529</v>
+      </c>
+      <c r="N827" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="828" spans="5:14">
+      <c r="E828" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F828" t="s">
+        <v>2536</v>
+      </c>
+      <c r="G828" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H828" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I828" t="s">
+        <v>2537</v>
+      </c>
+      <c r="J828" t="s">
+        <v>2538</v>
+      </c>
+      <c r="M828" t="s">
+        <v>2529</v>
+      </c>
+      <c r="N828" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="829" spans="5:14">
+      <c r="E829" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F829" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G829" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H829" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I829" t="s">
+        <v>2527</v>
+      </c>
+      <c r="J829" t="s">
+        <v>2541</v>
+      </c>
+      <c r="M829" t="s">
+        <v>2529</v>
+      </c>
+      <c r="N829" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="830" spans="5:14">
+      <c r="E830" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F830" t="s">
+        <v>2543</v>
+      </c>
+      <c r="G830" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H830" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I830" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J830" t="s">
+        <v>2545</v>
+      </c>
+      <c r="M830" t="s">
+        <v>2529</v>
+      </c>
+      <c r="N830" s="2" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="831" spans="5:14">
+      <c r="E831" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F831" t="s">
+        <v>2547</v>
+      </c>
+      <c r="G831" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H831" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I831" t="s">
+        <v>2550</v>
+      </c>
+      <c r="J831" t="s">
+        <v>2551</v>
+      </c>
+      <c r="M831" t="s">
+        <v>8</v>
+      </c>
+      <c r="N831" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="832" spans="5:14">
+      <c r="E832" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F832" t="s">
+        <v>2554</v>
+      </c>
+      <c r="G832" t="s">
+        <v>2555</v>
+      </c>
+      <c r="H832" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I832" t="s">
+        <v>2556</v>
+      </c>
+      <c r="J832" t="s">
+        <v>2557</v>
+      </c>
+      <c r="M832" t="s">
+        <v>8</v>
+      </c>
+      <c r="N832" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="833" spans="5:14">
+      <c r="E833" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F833" t="s">
+        <v>2559</v>
+      </c>
+      <c r="G833" t="s">
+        <v>2560</v>
+      </c>
+      <c r="H833" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I833" t="s">
+        <v>2561</v>
+      </c>
+      <c r="J833" t="s">
+        <v>2562</v>
+      </c>
+      <c r="M833" t="s">
+        <v>8</v>
+      </c>
+      <c r="N833" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="834" spans="5:14">
+      <c r="E834" t="s">
+        <v>2563</v>
+      </c>
+      <c r="F834" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G834" t="s">
+        <v>2565</v>
+      </c>
+      <c r="H834" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I834" t="s">
+        <v>2566</v>
+      </c>
+      <c r="J834" t="s">
+        <v>2567</v>
+      </c>
+      <c r="M834" t="s">
+        <v>8</v>
+      </c>
+      <c r="N834" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="835" spans="5:14">
+      <c r="E835" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F835" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G835" t="s">
+        <v>2548</v>
+      </c>
+      <c r="H835" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="I835" t="s">
+        <v>2570</v>
+      </c>
+      <c r="J835" t="s">
+        <v>2571</v>
+      </c>
+      <c r="M835" t="s">
+        <v>8</v>
+      </c>
+      <c r="N835" s="2" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="836" spans="5:14">
+      <c r="E836" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F836" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G836" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H836" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I836" t="s">
+        <v>2575</v>
+      </c>
+      <c r="J836" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M836" t="s">
+        <v>8</v>
+      </c>
+      <c r="N836" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="837" spans="6:14">
+      <c r="F837" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G837" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H837" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I837" t="s">
+        <v>2580</v>
+      </c>
+      <c r="J837" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M837" t="s">
+        <v>8</v>
+      </c>
+      <c r="N837" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="838" spans="5:14">
+      <c r="E838" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F838" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G838" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H838" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I838" t="s">
+        <v>2583</v>
+      </c>
+      <c r="J838" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M838" t="s">
+        <v>8</v>
+      </c>
+      <c r="N838" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="839" spans="5:14">
+      <c r="E839" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F839" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G839" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H839" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I839" t="s">
+        <v>2550</v>
+      </c>
+      <c r="J839" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M839" t="s">
+        <v>8</v>
+      </c>
+      <c r="N839" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="840" spans="5:14">
+      <c r="E840" t="s">
+        <v>2586</v>
+      </c>
+      <c r="F840" t="s">
+        <v>2587</v>
+      </c>
+      <c r="G840" t="s">
+        <v>2588</v>
+      </c>
+      <c r="H840" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I840" t="s">
+        <v>2589</v>
+      </c>
+      <c r="J840" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M840" t="s">
+        <v>8</v>
+      </c>
+      <c r="N840" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="841" spans="5:14">
+      <c r="E841" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F841" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G841" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H841" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I841" t="s">
+        <v>2593</v>
+      </c>
+      <c r="J841" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M841" t="s">
+        <v>8</v>
+      </c>
+      <c r="N841" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="842" spans="5:14">
+      <c r="E842" t="s">
+        <v>2594</v>
+      </c>
+      <c r="F842" t="s">
+        <v>2595</v>
+      </c>
+      <c r="G842" t="s">
+        <v>2596</v>
+      </c>
+      <c r="H842" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I842" t="s">
+        <v>2570</v>
+      </c>
+      <c r="J842" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M842" t="s">
+        <v>8</v>
+      </c>
+      <c r="N842" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="843" spans="5:14">
+      <c r="E843" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F843" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G843" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H843" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I843" t="s">
+        <v>2570</v>
+      </c>
+      <c r="J843" t="s">
+        <v>2576</v>
+      </c>
+      <c r="M843" t="s">
+        <v>8</v>
+      </c>
+      <c r="N843" s="2" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="844" spans="5:14">
+      <c r="E844" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G844" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H844" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I844" t="s">
+        <v>2600</v>
+      </c>
+      <c r="J844" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M844" t="s">
+        <v>8</v>
+      </c>
+      <c r="N844" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="845" spans="5:14">
+      <c r="E845" t="s">
+        <v>2601</v>
+      </c>
+      <c r="F845" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G845" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H845" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I845" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J845" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M845" t="s">
+        <v>8</v>
+      </c>
+      <c r="N845" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="846" spans="5:14">
+      <c r="E846" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F846" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G846" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H846" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I846" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J846" t="s">
+        <v>2606</v>
+      </c>
+      <c r="M846" t="s">
+        <v>8</v>
+      </c>
+      <c r="N846" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="847" spans="5:14">
+      <c r="E847" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F847" t="s">
+        <v>2608</v>
+      </c>
+      <c r="G847" t="s">
+        <v>2609</v>
+      </c>
+      <c r="H847" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I847" t="s">
+        <v>2605</v>
+      </c>
+      <c r="J847" t="s">
+        <v>2610</v>
+      </c>
+      <c r="M847" t="s">
+        <v>8</v>
+      </c>
+      <c r="N847" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="848" spans="5:14">
+      <c r="E848" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F848" t="s">
+        <v>2612</v>
+      </c>
+      <c r="G848" t="s">
+        <v>2613</v>
+      </c>
+      <c r="H848" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I848" t="s">
+        <v>2178</v>
+      </c>
+      <c r="J848" t="s">
+        <v>2614</v>
+      </c>
+      <c r="M848" t="s">
+        <v>8</v>
+      </c>
+      <c r="N848" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="849" spans="5:14">
+      <c r="E849" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F849" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G849" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H849" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I849" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J849" t="s">
+        <v>2618</v>
+      </c>
+      <c r="M849" t="s">
+        <v>8</v>
+      </c>
+      <c r="N849" s="2" t="s">
+        <v>1124</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
+++ b/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowWidth="29100" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5721" uniqueCount="2471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="2482">
   <si>
     <t>Hiba Alshriedeh</t>
   </si>
@@ -7441,7 +7441,40 @@
     <t>pawarisa.s@zicoip.com</t>
   </si>
   <si>
-    <t>60378905888</t>
+    <t>Harold Ng Hann Jaun</t>
+  </si>
+  <si>
+    <t> harold.jaun@ccwpartnership.com</t>
+  </si>
+  <si>
+    <t>+673 2451606</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>https://ccwpartnership.com/our-people/</t>
+  </si>
+  <si>
+    <t>CCW Partnership</t>
+  </si>
+  <si>
+    <t>On Hung Zheng</t>
+  </si>
+  <si>
+    <t>on.zheng@ccwpartnership.com</t>
+  </si>
+  <si>
+    <t>Tang Weng Leong</t>
+  </si>
+  <si>
+    <t>tang.leong@ccwpartnership.com</t>
+  </si>
+  <si>
+    <t>Andrew J. Wong</t>
+  </si>
+  <si>
+    <t>andrew.wong@ccwpartnership.com</t>
   </si>
   <si>
     <t>Litigation </t>
@@ -7457,7 +7490,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7468,6 +7501,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF002441"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7949,16 +7989,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7967,119 +8004,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8094,6 +8134,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8627,10 +8670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:N721"/>
+  <dimension ref="E1:N726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="M721" sqref="M721"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="J729" sqref="J729"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -25869,36 +25912,96 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="721" spans="5:14">
-      <c r="E721" t="s">
-        <v>2467</v>
-      </c>
-      <c r="F721" t="s">
-        <v>2468</v>
-      </c>
-      <c r="G721" t="s">
+    <row r="723" ht="17" spans="5:14">
+      <c r="E723" t="s">
         <v>2469</v>
       </c>
-      <c r="H721" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="I721" t="s">
-        <v>1310</v>
-      </c>
-      <c r="J721" t="s">
-        <v>2462</v>
-      </c>
-      <c r="K721" t="s">
-        <v>11</v>
-      </c>
-      <c r="L721" t="s">
-        <v>12</v>
-      </c>
-      <c r="M721" t="s">
-        <v>18</v>
-      </c>
-      <c r="N721" s="2" t="s">
-        <v>2463</v>
+      <c r="F723" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G723" s="6" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H723" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J723" t="s">
+        <v>2473</v>
+      </c>
+      <c r="M723" t="s">
+        <v>18</v>
+      </c>
+      <c r="N723" s="2" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="724" ht="17" spans="5:14">
+      <c r="E724" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F724" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G724" s="6" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H724" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J724" t="s">
+        <v>2473</v>
+      </c>
+      <c r="M724" t="s">
+        <v>18</v>
+      </c>
+      <c r="N724" s="2" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="725" ht="17" spans="5:14">
+      <c r="E725" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F725" t="s">
+        <v>2478</v>
+      </c>
+      <c r="G725" s="6" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H725" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J725" t="s">
+        <v>2473</v>
+      </c>
+      <c r="M725" t="s">
+        <v>18</v>
+      </c>
+      <c r="N725" s="2" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="726" ht="17" spans="5:14">
+      <c r="E726" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F726" t="s">
+        <v>2480</v>
+      </c>
+      <c r="G726" s="6" t="s">
+        <v>2471</v>
+      </c>
+      <c r="H726" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="J726" t="s">
+        <v>2473</v>
+      </c>
+      <c r="M726" t="s">
+        <v>18</v>
+      </c>
+      <c r="N726" s="2" t="s">
+        <v>2474</v>
       </c>
     </row>
   </sheetData>
@@ -25911,6 +26014,10 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" display="34914171300" tooltip="https://liedekerke.com/en/lawyers/tel:+3225511572"/>
+    <hyperlink ref="G723" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
+    <hyperlink ref="G724" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
+    <hyperlink ref="G725" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
+    <hyperlink ref="G726" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -26857,7 +26964,7 @@
         <v>663</v>
       </c>
       <c r="E37" t="s">
-        <v>2470</v>
+        <v>2481</v>
       </c>
       <c r="F37" t="s">
         <v>1050</v>

--- a/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
+++ b/src/main/resources/baseFiles/excel/filteredCollectedContacts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="13580"/>
+    <workbookView windowWidth="23340" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="2482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5767" uniqueCount="2493">
   <si>
     <t>Hiba Alshriedeh</t>
   </si>
@@ -7475,6 +7475,39 @@
   </si>
   <si>
     <t>andrew.wong@ccwpartnership.com</t>
+  </si>
+  <si>
+    <t>Ameet Naik</t>
+  </si>
+  <si>
+    <t>ameetnaik@nnico.com</t>
+  </si>
+  <si>
+    <t>91 22 40680200</t>
+  </si>
+  <si>
+    <t>https://naiknaik.com/team/</t>
+  </si>
+  <si>
+    <t>Naik Naik</t>
+  </si>
+  <si>
+    <t>Abhishek Kale</t>
+  </si>
+  <si>
+    <t>abhishekkale@nnico.com</t>
+  </si>
+  <si>
+    <t>Madhu Gadodia</t>
+  </si>
+  <si>
+    <t>madhugadodia@nnico.com</t>
+  </si>
+  <si>
+    <t>Malabika Boruah</t>
+  </si>
+  <si>
+    <t>malabikaboruah@nnico.com</t>
   </si>
   <si>
     <t>Litigation </t>
@@ -8119,7 +8152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8136,6 +8169,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -8670,10 +8706,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:N726"/>
+  <dimension ref="E1:N730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
-      <selection activeCell="J729" sqref="J729"/>
+    <sheetView tabSelected="1" topLeftCell="D706" workbookViewId="0">
+      <selection activeCell="I724" sqref="I724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -26002,6 +26038,98 @@
       </c>
       <c r="N726" s="2" t="s">
         <v>2474</v>
+      </c>
+    </row>
+    <row r="727" spans="5:14">
+      <c r="E727" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F727" t="s">
+        <v>2482</v>
+      </c>
+      <c r="G727" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H727" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J727" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="M727" t="s">
+        <v>18</v>
+      </c>
+      <c r="N727" s="2" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="728" spans="5:14">
+      <c r="E728" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F728" s="7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G728" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H728" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J728" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="M728" t="s">
+        <v>18</v>
+      </c>
+      <c r="N728" s="2" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="729" spans="5:14">
+      <c r="E729" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F729" s="7" t="s">
+        <v>2489</v>
+      </c>
+      <c r="G729" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H729" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J729" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="M729" t="s">
+        <v>18</v>
+      </c>
+      <c r="N729" s="2" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="730" spans="5:14">
+      <c r="E730" t="s">
+        <v>2490</v>
+      </c>
+      <c r="F730" s="7" t="s">
+        <v>2491</v>
+      </c>
+      <c r="G730" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H730" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J730" s="7" t="s">
+        <v>2484</v>
+      </c>
+      <c r="M730" t="s">
+        <v>18</v>
+      </c>
+      <c r="N730" s="2" t="s">
+        <v>2485</v>
       </c>
     </row>
   </sheetData>
@@ -26018,6 +26146,9 @@
     <hyperlink ref="G724" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
     <hyperlink ref="G725" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
     <hyperlink ref="G726" r:id="rId2" display="+673 2451606" tooltip="tel:6732451606"/>
+    <hyperlink ref="F730" r:id="rId3" display="malabikaboruah@nnico.com"/>
+    <hyperlink ref="F729" r:id="rId4" display="madhugadodia@nnico.com"/>
+    <hyperlink ref="F728" r:id="rId5" display="abhishekkale@nnico.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -26964,7 +27095,7 @@
         <v>663</v>
       </c>
       <c r="E37" t="s">
-        <v>2481</v>
+        <v>2492</v>
       </c>
       <c r="F37" t="s">
         <v>1050</v>
